--- a/storage/app/templates/laporan_template.xlsx
+++ b/storage/app/templates/laporan_template.xlsx
@@ -16,12 +16,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">x!$A$1:$K$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Psikogram!$13:$15</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
   <si>
     <t>Nama</t>
   </si>
@@ -92,18 +92,6 @@
     <t>E. Fungsi Manajerial</t>
   </si>
   <si>
-    <t xml:space="preserve">                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
     <t>No :</t>
   </si>
   <si>
@@ -147,28 +135,6 @@
   </si>
   <si>
     <t>Mengetahui,</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>Toleransi terhadap stress</t>
@@ -425,18 +391,30 @@
   <si>
     <t>Bandung, 16 Maret 2020</t>
   </si>
+  <si>
+    <t>INSTITUT TEKNOLOGI BANDUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPT PENGEMBANGAN MANUSIA DAN ORGANISASI </t>
+  </si>
+  <si>
+    <t>Gedung Sabuga ITB, Lt. III, JL. Tamansari No.73 Bandung 40132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telp/Fax. (022) 2532081 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="174" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -547,6 +525,17 @@
       <color rgb="FFC00000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1131,10 +1120,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1151,10 +1140,10 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1195,9 +1184,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1238,7 +1224,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1518,9 +1504,59 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,10 +1572,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1604,51 +1640,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1663,6 +1699,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="7"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1757,11 +1802,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206203392"/>
-        <c:axId val="183074112"/>
+        <c:axId val="244600832"/>
+        <c:axId val="238282432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206203392"/>
+        <c:axId val="244600832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183074112"/>
+        <c:crossAx val="238282432"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1778,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183074112"/>
+        <c:axId val="238282432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1800,7 +1845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206203392"/>
+        <c:crossAx val="244600832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1900,7 +1945,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1971,88 +2016,61 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6146" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6146"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6170" name="Object 26" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6170"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>610870</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="142875" y="123825"/>
+          <a:ext cx="467995" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2371,9 +2389,9 @@
     <col min="28" max="28" width="5.7109375" style="6" customWidth="1"/>
     <col min="29" max="32" width="5.7109375" style="5" customWidth="1"/>
     <col min="33" max="33" width="5.7109375" style="6" customWidth="1"/>
-    <col min="34" max="37" width="5.7109375" style="99" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="9.85546875" style="99" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.7109375" style="99" hidden="1" customWidth="1"/>
+    <col min="34" max="37" width="5.7109375" style="98" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" style="98" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.7109375" style="98" hidden="1" customWidth="1"/>
     <col min="40" max="43" width="5.7109375" style="5" customWidth="1"/>
     <col min="44" max="48" width="5.7109375" style="6" customWidth="1"/>
     <col min="49" max="49" width="14.5703125" style="7" customWidth="1"/>
@@ -2404,8 +2422,8 @@
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="19"/>
       <c r="E2" s="21"/>
       <c r="F2" s="19"/>
@@ -2435,32 +2453,32 @@
       <c r="AS3" s="23"/>
     </row>
     <row r="4" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="28"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="23"/>
       <c r="AR4" s="23"/>
       <c r="AS4" s="23"/>
     </row>
     <row r="5" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="23"/>
       <c r="AR5" s="23"/>
@@ -2470,58 +2488,58 @@
     <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="130"/>
-      <c r="AJ9" s="130"/>
-      <c r="AK9" s="130"/>
-      <c r="AL9" s="130"/>
-      <c r="AM9" s="130"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="130"/>
-      <c r="AP9" s="130"/>
-      <c r="AQ9" s="130"/>
-      <c r="AR9" s="130"/>
-      <c r="AS9" s="130"/>
-      <c r="AT9" s="130"/>
-      <c r="AU9" s="130"/>
-      <c r="AV9" s="130"/>
-      <c r="AW9" s="130"/>
-      <c r="AX9" s="130"/>
-      <c r="AY9" s="130"/>
-      <c r="AZ9" s="129"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="129"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="129"/>
+      <c r="AO9" s="129"/>
+      <c r="AP9" s="129"/>
+      <c r="AQ9" s="129"/>
+      <c r="AR9" s="129"/>
+      <c r="AS9" s="129"/>
+      <c r="AT9" s="129"/>
+      <c r="AU9" s="129"/>
+      <c r="AV9" s="129"/>
+      <c r="AW9" s="129"/>
+      <c r="AX9" s="129"/>
+      <c r="AY9" s="129"/>
+      <c r="AZ9" s="128"/>
       <c r="BA9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="10"/>
@@ -2532,58 +2550,58 @@
       <c r="BM9" s="10"/>
     </row>
     <row r="10" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="131"/>
-      <c r="AL10" s="131"/>
-      <c r="AM10" s="131"/>
-      <c r="AN10" s="131"/>
-      <c r="AO10" s="131"/>
-      <c r="AP10" s="131"/>
-      <c r="AQ10" s="131"/>
-      <c r="AR10" s="131"/>
-      <c r="AS10" s="131"/>
-      <c r="AT10" s="131"/>
-      <c r="AU10" s="131"/>
-      <c r="AV10" s="131"/>
-      <c r="AW10" s="131"/>
-      <c r="AX10" s="131"/>
-      <c r="AY10" s="131"/>
-      <c r="AZ10" s="131"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="130"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="130"/>
+      <c r="AN10" s="130"/>
+      <c r="AO10" s="130"/>
+      <c r="AP10" s="130"/>
+      <c r="AQ10" s="130"/>
+      <c r="AR10" s="130"/>
+      <c r="AS10" s="130"/>
+      <c r="AT10" s="130"/>
+      <c r="AU10" s="130"/>
+      <c r="AV10" s="130"/>
+      <c r="AW10" s="130"/>
+      <c r="AX10" s="130"/>
+      <c r="AY10" s="130"/>
+      <c r="AZ10" s="130"/>
       <c r="BA10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="10"/>
@@ -2594,58 +2612,58 @@
       <c r="BM10" s="10"/>
     </row>
     <row r="11" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="131"/>
-      <c r="AA11" s="131"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="131"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="131"/>
-      <c r="AH11" s="131"/>
-      <c r="AI11" s="131"/>
-      <c r="AJ11" s="131"/>
-      <c r="AK11" s="131"/>
-      <c r="AL11" s="131"/>
-      <c r="AM11" s="131"/>
-      <c r="AN11" s="131"/>
-      <c r="AO11" s="131"/>
-      <c r="AP11" s="131"/>
-      <c r="AQ11" s="131"/>
-      <c r="AR11" s="131"/>
-      <c r="AS11" s="131"/>
-      <c r="AT11" s="131"/>
-      <c r="AU11" s="131"/>
-      <c r="AV11" s="131"/>
-      <c r="AW11" s="131"/>
-      <c r="AX11" s="131"/>
-      <c r="AY11" s="131"/>
-      <c r="AZ11" s="131"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="130"/>
+      <c r="AI11" s="130"/>
+      <c r="AJ11" s="130"/>
+      <c r="AK11" s="130"/>
+      <c r="AL11" s="130"/>
+      <c r="AM11" s="130"/>
+      <c r="AN11" s="130"/>
+      <c r="AO11" s="130"/>
+      <c r="AP11" s="130"/>
+      <c r="AQ11" s="130"/>
+      <c r="AR11" s="130"/>
+      <c r="AS11" s="130"/>
+      <c r="AT11" s="130"/>
+      <c r="AU11" s="130"/>
+      <c r="AV11" s="130"/>
+      <c r="AW11" s="130"/>
+      <c r="AX11" s="130"/>
+      <c r="AY11" s="130"/>
+      <c r="AZ11" s="130"/>
       <c r="BA11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="10"/>
@@ -2686,12 +2704,12 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
@@ -2715,118 +2733,118 @@
       <c r="BM12" s="10"/>
     </row>
     <row r="13" spans="1:65" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="141" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="141" t="s">
+      <c r="A13" s="158" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="158" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="158" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="141" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="141" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="141" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="141" t="s">
+      <c r="J13" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141" t="s">
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141" t="s">
+      <c r="T13" s="158"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="158"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141" t="s">
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="158"/>
+      <c r="AB13" s="158"/>
+      <c r="AC13" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="141" t="s">
+      <c r="AD13" s="158"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="AO13" s="141"/>
-      <c r="AP13" s="141"/>
-      <c r="AQ13" s="141"/>
-      <c r="AR13" s="141"/>
+      <c r="AO13" s="158"/>
+      <c r="AP13" s="158"/>
+      <c r="AQ13" s="158"/>
+      <c r="AR13" s="158"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="15"/>
       <c r="AU13" s="15"/>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX13" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY13" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ13" s="139"/>
-      <c r="BA13" s="139"/>
-      <c r="BB13" s="139"/>
-      <c r="BC13" s="139"/>
-      <c r="BD13" s="139"/>
-      <c r="BE13" s="139"/>
-      <c r="BF13" s="140"/>
-      <c r="BG13" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH13" s="139"/>
-      <c r="BI13" s="139"/>
-      <c r="BJ13" s="139"/>
-      <c r="BK13" s="139"/>
-      <c r="BL13" s="139"/>
-      <c r="BM13" s="140"/>
+      <c r="AW13" s="159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX13" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY13" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ13" s="156"/>
+      <c r="BA13" s="156"/>
+      <c r="BB13" s="156"/>
+      <c r="BC13" s="156"/>
+      <c r="BD13" s="156"/>
+      <c r="BE13" s="156"/>
+      <c r="BF13" s="157"/>
+      <c r="BG13" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH13" s="156"/>
+      <c r="BI13" s="156"/>
+      <c r="BJ13" s="156"/>
+      <c r="BK13" s="156"/>
+      <c r="BL13" s="156"/>
+      <c r="BM13" s="157"/>
     </row>
     <row r="14" spans="1:65" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="141"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
       <c r="J14" s="11" t="s">
         <v>7</v>
       </c>
@@ -2834,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>8</v>
@@ -2852,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>2</v>
@@ -2864,31 +2882,31 @@
         <v>4</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AE14" s="11" t="s">
         <v>16</v>
@@ -2897,23 +2915,23 @@
         <v>17</v>
       </c>
       <c r="AG14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH14" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI14" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ14" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK14" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="AH14" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI14" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ14" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK14" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="96" t="s">
+        <v>74</v>
       </c>
       <c r="AN14" s="11" t="s">
         <v>18</v>
@@ -2928,78 +2946,78 @@
         <v>21</v>
       </c>
       <c r="AR14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT14" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU14" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV14" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW14" s="142"/>
-      <c r="AX14" s="142"/>
-      <c r="AY14" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS14" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT14" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU14" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV14" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW14" s="159"/>
+      <c r="AX14" s="159"/>
+      <c r="AY14" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ14" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA14" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB14" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC14" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD14" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="AZ14" s="104" t="s">
+      <c r="BE14" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="BA14" s="104" t="s">
+      <c r="BF14" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="BB14" s="104" t="s">
+      <c r="BG14" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="BC14" s="104" t="s">
+      <c r="BH14" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="BD14" s="104" t="s">
+      <c r="BI14" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="BE14" s="104" t="s">
+      <c r="BJ14" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="BF14" s="104" t="s">
+      <c r="BK14" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="BG14" s="104" t="s">
+      <c r="BL14" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="BH14" s="104" t="s">
+      <c r="BM14" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="BI14" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ14" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK14" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL14" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM14" s="104" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="15" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="141"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
       <c r="J15" s="14">
         <v>1</v>
       </c>
@@ -3064,18 +3082,18 @@
         <v>4</v>
       </c>
       <c r="AG15" s="16"/>
-      <c r="AH15" s="95">
+      <c r="AH15" s="94">
         <v>1</v>
       </c>
-      <c r="AI15" s="95">
+      <c r="AI15" s="94">
         <v>2</v>
       </c>
-      <c r="AJ15" s="95">
+      <c r="AJ15" s="94">
         <v>3</v>
       </c>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="98"/>
-      <c r="AM15" s="98"/>
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="97"/>
       <c r="AN15" s="14">
         <v>1</v>
       </c>
@@ -3089,20 +3107,20 @@
         <v>4</v>
       </c>
       <c r="AR15" s="16"/>
-      <c r="AS15" s="91">
+      <c r="AS15" s="90">
         <v>1</v>
       </c>
-      <c r="AT15" s="91">
+      <c r="AT15" s="90">
         <v>2</v>
       </c>
-      <c r="AU15" s="91">
+      <c r="AU15" s="90">
         <v>3</v>
       </c>
-      <c r="AV15" s="91">
+      <c r="AV15" s="90">
         <v>4</v>
       </c>
-      <c r="AW15" s="142"/>
-      <c r="AX15" s="142"/>
+      <c r="AW15" s="159"/>
+      <c r="AX15" s="159"/>
       <c r="AY15" s="14">
         <v>1</v>
       </c>
@@ -3153,171 +3171,171 @@
       <c r="A16" s="17">
         <v>1</v>
       </c>
-      <c r="B16" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="133">
+      <c r="B16" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="132">
         <v>12345</v>
       </c>
-      <c r="D16" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="135" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="100" t="s">
+      <c r="D16" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="132" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="100">
+      <c r="I16" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="99">
         <v>5</v>
       </c>
-      <c r="K16" s="100">
+      <c r="K16" s="99">
         <v>4</v>
       </c>
-      <c r="L16" s="100">
+      <c r="L16" s="99">
         <v>5</v>
       </c>
-      <c r="M16" s="100">
+      <c r="M16" s="99">
         <v>5</v>
       </c>
-      <c r="N16" s="100">
+      <c r="N16" s="99">
         <v>5</v>
       </c>
-      <c r="O16" s="100">
+      <c r="O16" s="99">
         <v>3</v>
       </c>
-      <c r="P16" s="100">
+      <c r="P16" s="99">
         <v>5</v>
       </c>
-      <c r="Q16" s="100">
+      <c r="Q16" s="99">
         <v>4</v>
       </c>
-      <c r="R16" s="101">
+      <c r="R16" s="100">
         <f>AVERAGE(J16:Q16)</f>
         <v>4.5</v>
       </c>
-      <c r="S16" s="100">
+      <c r="S16" s="99">
         <v>3</v>
       </c>
-      <c r="T16" s="100">
+      <c r="T16" s="99">
         <v>4</v>
       </c>
-      <c r="U16" s="100">
+      <c r="U16" s="99">
         <v>4</v>
       </c>
-      <c r="V16" s="100">
+      <c r="V16" s="99">
         <v>4</v>
       </c>
-      <c r="W16" s="101">
+      <c r="W16" s="100">
         <f>AVERAGE(S16:V16)</f>
         <v>3.75</v>
       </c>
-      <c r="X16" s="100">
+      <c r="X16" s="99">
         <v>4</v>
       </c>
-      <c r="Y16" s="100">
+      <c r="Y16" s="99">
         <v>2</v>
       </c>
-      <c r="Z16" s="100">
+      <c r="Z16" s="99">
         <v>3</v>
       </c>
-      <c r="AA16" s="100">
+      <c r="AA16" s="99">
         <v>3</v>
       </c>
-      <c r="AB16" s="101">
+      <c r="AB16" s="100">
         <f>AVERAGE(X16:AA16)</f>
         <v>3</v>
       </c>
-      <c r="AC16" s="100">
+      <c r="AC16" s="99">
         <v>3</v>
       </c>
-      <c r="AD16" s="100">
+      <c r="AD16" s="99">
         <v>4</v>
       </c>
-      <c r="AE16" s="100">
+      <c r="AE16" s="99">
         <v>3</v>
       </c>
-      <c r="AF16" s="100">
+      <c r="AF16" s="99">
         <v>5</v>
       </c>
-      <c r="AG16" s="101">
+      <c r="AG16" s="100">
         <f>AVERAGE(AC16:AF16)</f>
         <v>3.75</v>
       </c>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="136"/>
-      <c r="AJ16" s="136"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="136"/>
-      <c r="AM16" s="136"/>
-      <c r="AN16" s="100">
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="135"/>
+      <c r="AL16" s="135"/>
+      <c r="AM16" s="135"/>
+      <c r="AN16" s="99">
         <v>3</v>
       </c>
-      <c r="AO16" s="100">
+      <c r="AO16" s="99">
         <v>4</v>
       </c>
-      <c r="AP16" s="100">
+      <c r="AP16" s="99">
         <v>3</v>
       </c>
-      <c r="AQ16" s="100">
+      <c r="AQ16" s="99">
         <v>4</v>
       </c>
-      <c r="AR16" s="101">
+      <c r="AR16" s="100">
         <f>AVERAGE(AN16:AQ16)</f>
         <v>3.5</v>
       </c>
-      <c r="AS16" s="101">
+      <c r="AS16" s="100">
         <f>(2*R16+2*AB16+AG16)/5</f>
         <v>3.75</v>
       </c>
-      <c r="AT16" s="101">
+      <c r="AT16" s="100">
         <f>(R16+2*W16+2*AG16)/5</f>
         <v>3.9</v>
       </c>
-      <c r="AU16" s="101">
+      <c r="AU16" s="100">
         <f>(R16+2*AB16+2*AG16)/5</f>
         <v>3.6</v>
       </c>
-      <c r="AV16" s="101">
+      <c r="AV16" s="100">
         <f>(R16+2*AB16+2*AR16)/5</f>
         <v>3.5</v>
       </c>
-      <c r="AW16" s="102">
+      <c r="AW16" s="101">
         <f>AVERAGE(AS16:AV16)</f>
         <v>3.6875</v>
       </c>
-      <c r="AX16" s="102" t="str">
+      <c r="AX16" s="101" t="str">
         <f>IF(AND(AW16&gt;=5,AW16&lt;=6),"A",IF(AND(AW16&gt;=3,AW16&lt;=4.99),"B",IF(AND(AW16&gt;=2.75,AW16&lt;=2.99),"C",IF(AND(AW16&gt;=2.5,AW16&lt;=2.74),"D",IF(AND(AW16&gt;=1,AW16&lt;=2.5),"E","ADA YANG SALAH")))))</f>
         <v>B</v>
       </c>
-      <c r="AY16" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ16" s="103"/>
-      <c r="BA16" s="103"/>
-      <c r="BB16" s="103"/>
-      <c r="BC16" s="103"/>
-      <c r="BD16" s="103"/>
-      <c r="BE16" s="103"/>
-      <c r="BF16" s="103"/>
-      <c r="BG16" s="103"/>
-      <c r="BH16" s="103"/>
-      <c r="BI16" s="103"/>
-      <c r="BJ16" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK16" s="103"/>
-      <c r="BL16" s="103"/>
-      <c r="BM16" s="103"/>
+      <c r="AY16" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ16" s="102"/>
+      <c r="BA16" s="102"/>
+      <c r="BB16" s="102"/>
+      <c r="BC16" s="102"/>
+      <c r="BD16" s="102"/>
+      <c r="BE16" s="102"/>
+      <c r="BF16" s="102"/>
+      <c r="BG16" s="102"/>
+      <c r="BH16" s="102"/>
+      <c r="BI16" s="102"/>
+      <c r="BJ16" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK16" s="102"/>
+      <c r="BL16" s="102"/>
+      <c r="BM16" s="102"/>
     </row>
     <row r="17" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -3353,12 +3371,12 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="6"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="99"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="98"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -3420,12 +3438,12 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="6"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="99"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
@@ -3487,12 +3505,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="6"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="98"/>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -3554,12 +3572,12 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="6"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -3621,12 +3639,12 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="6"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="99"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
@@ -3688,12 +3706,12 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="6"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="99"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="99"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
@@ -3755,12 +3773,12 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="6"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="99"/>
-      <c r="AK23" s="99"/>
-      <c r="AL23" s="99"/>
-      <c r="AM23" s="99"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
@@ -3822,12 +3840,12 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="6"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="99"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
@@ -3889,12 +3907,12 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="6"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="99"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="99"/>
-      <c r="AM25" s="99"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
@@ -3956,12 +3974,12 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="6"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="99"/>
-      <c r="AJ26" s="99"/>
-      <c r="AK26" s="99"/>
-      <c r="AL26" s="99"/>
-      <c r="AM26" s="99"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
@@ -4023,12 +4041,12 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="6"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="99"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="99"/>
-      <c r="AM27" s="99"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+      <c r="AM27" s="98"/>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
@@ -4090,12 +4108,12 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="6"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="99"/>
-      <c r="AK28" s="99"/>
-      <c r="AL28" s="99"/>
-      <c r="AM28" s="99"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
@@ -4157,12 +4175,12 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="6"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="99"/>
-      <c r="AK29" s="99"/>
-      <c r="AL29" s="99"/>
-      <c r="AM29" s="99"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -4224,12 +4242,12 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="6"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="99"/>
-      <c r="AK30" s="99"/>
-      <c r="AL30" s="99"/>
-      <c r="AM30" s="99"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
@@ -4291,12 +4309,12 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="6"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="99"/>
-      <c r="AK31" s="99"/>
-      <c r="AL31" s="99"/>
-      <c r="AM31" s="99"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
@@ -4358,12 +4376,12 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="6"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="99"/>
-      <c r="AJ32" s="99"/>
-      <c r="AK32" s="99"/>
-      <c r="AL32" s="99"/>
-      <c r="AM32" s="99"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="98"/>
+      <c r="AL32" s="98"/>
+      <c r="AM32" s="98"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
@@ -4425,12 +4443,12 @@
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="6"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="99"/>
-      <c r="AJ33" s="99"/>
-      <c r="AK33" s="99"/>
-      <c r="AL33" s="99"/>
-      <c r="AM33" s="99"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
@@ -4492,12 +4510,12 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="6"/>
-      <c r="AH34" s="99"/>
-      <c r="AI34" s="99"/>
-      <c r="AJ34" s="99"/>
-      <c r="AK34" s="99"/>
-      <c r="AL34" s="99"/>
-      <c r="AM34" s="99"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="98"/>
+      <c r="AL34" s="98"/>
+      <c r="AM34" s="98"/>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -4559,12 +4577,12 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="6"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="99"/>
-      <c r="AL35" s="99"/>
-      <c r="AM35" s="99"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
@@ -4626,12 +4644,12 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="6"/>
-      <c r="AH36" s="99"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="99"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="99"/>
-      <c r="AM36" s="99"/>
+      <c r="AH36" s="98"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="98"/>
+      <c r="AK36" s="98"/>
+      <c r="AL36" s="98"/>
+      <c r="AM36" s="98"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
@@ -4693,12 +4711,12 @@
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="6"/>
-      <c r="AH37" s="99"/>
-      <c r="AI37" s="99"/>
-      <c r="AJ37" s="99"/>
-      <c r="AK37" s="99"/>
-      <c r="AL37" s="99"/>
-      <c r="AM37" s="99"/>
+      <c r="AH37" s="98"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AK37" s="98"/>
+      <c r="AL37" s="98"/>
+      <c r="AM37" s="98"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
@@ -4760,12 +4778,12 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="6"/>
-      <c r="AH38" s="99"/>
-      <c r="AI38" s="99"/>
-      <c r="AJ38" s="99"/>
-      <c r="AK38" s="99"/>
-      <c r="AL38" s="99"/>
-      <c r="AM38" s="99"/>
+      <c r="AH38" s="98"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AK38" s="98"/>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="98"/>
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
@@ -4827,12 +4845,12 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="6"/>
-      <c r="AH39" s="99"/>
-      <c r="AI39" s="99"/>
-      <c r="AJ39" s="99"/>
-      <c r="AK39" s="99"/>
-      <c r="AL39" s="99"/>
-      <c r="AM39" s="99"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="98"/>
+      <c r="AL39" s="98"/>
+      <c r="AM39" s="98"/>
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
@@ -4894,12 +4912,12 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="6"/>
-      <c r="AH40" s="99"/>
-      <c r="AI40" s="99"/>
-      <c r="AJ40" s="99"/>
-      <c r="AK40" s="99"/>
-      <c r="AL40" s="99"/>
-      <c r="AM40" s="99"/>
+      <c r="AH40" s="98"/>
+      <c r="AI40" s="98"/>
+      <c r="AJ40" s="98"/>
+      <c r="AK40" s="98"/>
+      <c r="AL40" s="98"/>
+      <c r="AM40" s="98"/>
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
@@ -4961,12 +4979,12 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="6"/>
-      <c r="AH41" s="99"/>
-      <c r="AI41" s="99"/>
-      <c r="AJ41" s="99"/>
-      <c r="AK41" s="99"/>
-      <c r="AL41" s="99"/>
-      <c r="AM41" s="99"/>
+      <c r="AH41" s="98"/>
+      <c r="AI41" s="98"/>
+      <c r="AJ41" s="98"/>
+      <c r="AK41" s="98"/>
+      <c r="AL41" s="98"/>
+      <c r="AM41" s="98"/>
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
       <c r="AP41" s="5"/>
@@ -5028,12 +5046,12 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="6"/>
-      <c r="AH42" s="99"/>
-      <c r="AI42" s="99"/>
-      <c r="AJ42" s="99"/>
-      <c r="AK42" s="99"/>
-      <c r="AL42" s="99"/>
-      <c r="AM42" s="99"/>
+      <c r="AH42" s="98"/>
+      <c r="AI42" s="98"/>
+      <c r="AJ42" s="98"/>
+      <c r="AK42" s="98"/>
+      <c r="AL42" s="98"/>
+      <c r="AM42" s="98"/>
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
       <c r="AP42" s="5"/>
@@ -5095,12 +5113,12 @@
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="6"/>
-      <c r="AH43" s="99"/>
-      <c r="AI43" s="99"/>
-      <c r="AJ43" s="99"/>
-      <c r="AK43" s="99"/>
-      <c r="AL43" s="99"/>
-      <c r="AM43" s="99"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="98"/>
+      <c r="AK43" s="98"/>
+      <c r="AL43" s="98"/>
+      <c r="AM43" s="98"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
@@ -5162,12 +5180,12 @@
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="6"/>
-      <c r="AH44" s="99"/>
-      <c r="AI44" s="99"/>
-      <c r="AJ44" s="99"/>
-      <c r="AK44" s="99"/>
-      <c r="AL44" s="99"/>
-      <c r="AM44" s="99"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="98"/>
+      <c r="AM44" s="98"/>
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
@@ -5229,12 +5247,12 @@
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="6"/>
-      <c r="AH45" s="99"/>
-      <c r="AI45" s="99"/>
-      <c r="AJ45" s="99"/>
-      <c r="AK45" s="99"/>
-      <c r="AL45" s="99"/>
-      <c r="AM45" s="99"/>
+      <c r="AH45" s="98"/>
+      <c r="AI45" s="98"/>
+      <c r="AJ45" s="98"/>
+      <c r="AK45" s="98"/>
+      <c r="AL45" s="98"/>
+      <c r="AM45" s="98"/>
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
@@ -5296,12 +5314,12 @@
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="6"/>
-      <c r="AH46" s="99"/>
-      <c r="AI46" s="99"/>
-      <c r="AJ46" s="99"/>
-      <c r="AK46" s="99"/>
-      <c r="AL46" s="99"/>
-      <c r="AM46" s="99"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="98"/>
+      <c r="AL46" s="98"/>
+      <c r="AM46" s="98"/>
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>
@@ -5363,12 +5381,12 @@
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="6"/>
-      <c r="AH47" s="99"/>
-      <c r="AI47" s="99"/>
-      <c r="AJ47" s="99"/>
-      <c r="AK47" s="99"/>
-      <c r="AL47" s="99"/>
-      <c r="AM47" s="99"/>
+      <c r="AH47" s="98"/>
+      <c r="AI47" s="98"/>
+      <c r="AJ47" s="98"/>
+      <c r="AK47" s="98"/>
+      <c r="AL47" s="98"/>
+      <c r="AM47" s="98"/>
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
       <c r="AP47" s="5"/>
@@ -5430,12 +5448,12 @@
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="6"/>
-      <c r="AH48" s="99"/>
-      <c r="AI48" s="99"/>
-      <c r="AJ48" s="99"/>
-      <c r="AK48" s="99"/>
-      <c r="AL48" s="99"/>
-      <c r="AM48" s="99"/>
+      <c r="AH48" s="98"/>
+      <c r="AI48" s="98"/>
+      <c r="AJ48" s="98"/>
+      <c r="AK48" s="98"/>
+      <c r="AL48" s="98"/>
+      <c r="AM48" s="98"/>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
       <c r="AP48" s="5"/>
@@ -5497,12 +5515,12 @@
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="6"/>
-      <c r="AH49" s="99"/>
-      <c r="AI49" s="99"/>
-      <c r="AJ49" s="99"/>
-      <c r="AK49" s="99"/>
-      <c r="AL49" s="99"/>
-      <c r="AM49" s="99"/>
+      <c r="AH49" s="98"/>
+      <c r="AI49" s="98"/>
+      <c r="AJ49" s="98"/>
+      <c r="AK49" s="98"/>
+      <c r="AL49" s="98"/>
+      <c r="AM49" s="98"/>
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
       <c r="AP49" s="5"/>
@@ -5564,12 +5582,12 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="6"/>
-      <c r="AH50" s="99"/>
-      <c r="AI50" s="99"/>
-      <c r="AJ50" s="99"/>
-      <c r="AK50" s="99"/>
-      <c r="AL50" s="99"/>
-      <c r="AM50" s="99"/>
+      <c r="AH50" s="98"/>
+      <c r="AI50" s="98"/>
+      <c r="AJ50" s="98"/>
+      <c r="AK50" s="98"/>
+      <c r="AL50" s="98"/>
+      <c r="AM50" s="98"/>
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
@@ -5631,12 +5649,12 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="6"/>
-      <c r="AH51" s="99"/>
-      <c r="AI51" s="99"/>
-      <c r="AJ51" s="99"/>
-      <c r="AK51" s="99"/>
-      <c r="AL51" s="99"/>
-      <c r="AM51" s="99"/>
+      <c r="AH51" s="98"/>
+      <c r="AI51" s="98"/>
+      <c r="AJ51" s="98"/>
+      <c r="AK51" s="98"/>
+      <c r="AL51" s="98"/>
+      <c r="AM51" s="98"/>
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
       <c r="AP51" s="5"/>
@@ -5698,12 +5716,12 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="6"/>
-      <c r="AH52" s="99"/>
-      <c r="AI52" s="99"/>
-      <c r="AJ52" s="99"/>
-      <c r="AK52" s="99"/>
-      <c r="AL52" s="99"/>
-      <c r="AM52" s="99"/>
+      <c r="AH52" s="98"/>
+      <c r="AI52" s="98"/>
+      <c r="AJ52" s="98"/>
+      <c r="AK52" s="98"/>
+      <c r="AL52" s="98"/>
+      <c r="AM52" s="98"/>
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
       <c r="AP52" s="5"/>
@@ -5765,12 +5783,12 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="6"/>
-      <c r="AH53" s="99"/>
-      <c r="AI53" s="99"/>
-      <c r="AJ53" s="99"/>
-      <c r="AK53" s="99"/>
-      <c r="AL53" s="99"/>
-      <c r="AM53" s="99"/>
+      <c r="AH53" s="98"/>
+      <c r="AI53" s="98"/>
+      <c r="AJ53" s="98"/>
+      <c r="AK53" s="98"/>
+      <c r="AL53" s="98"/>
+      <c r="AM53" s="98"/>
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
       <c r="AP53" s="5"/>
@@ -5832,12 +5850,12 @@
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="6"/>
-      <c r="AH54" s="99"/>
-      <c r="AI54" s="99"/>
-      <c r="AJ54" s="99"/>
-      <c r="AK54" s="99"/>
-      <c r="AL54" s="99"/>
-      <c r="AM54" s="99"/>
+      <c r="AH54" s="98"/>
+      <c r="AI54" s="98"/>
+      <c r="AJ54" s="98"/>
+      <c r="AK54" s="98"/>
+      <c r="AL54" s="98"/>
+      <c r="AM54" s="98"/>
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
       <c r="AP54" s="5"/>
@@ -5899,12 +5917,12 @@
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="6"/>
-      <c r="AH55" s="99"/>
-      <c r="AI55" s="99"/>
-      <c r="AJ55" s="99"/>
-      <c r="AK55" s="99"/>
-      <c r="AL55" s="99"/>
-      <c r="AM55" s="99"/>
+      <c r="AH55" s="98"/>
+      <c r="AI55" s="98"/>
+      <c r="AJ55" s="98"/>
+      <c r="AK55" s="98"/>
+      <c r="AL55" s="98"/>
+      <c r="AM55" s="98"/>
       <c r="AN55" s="5"/>
       <c r="AO55" s="5"/>
       <c r="AP55" s="5"/>
@@ -5966,12 +5984,12 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="6"/>
-      <c r="AH56" s="99"/>
-      <c r="AI56" s="99"/>
-      <c r="AJ56" s="99"/>
-      <c r="AK56" s="99"/>
-      <c r="AL56" s="99"/>
-      <c r="AM56" s="99"/>
+      <c r="AH56" s="98"/>
+      <c r="AI56" s="98"/>
+      <c r="AJ56" s="98"/>
+      <c r="AK56" s="98"/>
+      <c r="AL56" s="98"/>
+      <c r="AM56" s="98"/>
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
       <c r="AP56" s="5"/>
@@ -6033,12 +6051,12 @@
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="6"/>
-      <c r="AH57" s="99"/>
-      <c r="AI57" s="99"/>
-      <c r="AJ57" s="99"/>
-      <c r="AK57" s="99"/>
-      <c r="AL57" s="99"/>
-      <c r="AM57" s="99"/>
+      <c r="AH57" s="98"/>
+      <c r="AI57" s="98"/>
+      <c r="AJ57" s="98"/>
+      <c r="AK57" s="98"/>
+      <c r="AL57" s="98"/>
+      <c r="AM57" s="98"/>
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
       <c r="AP57" s="5"/>
@@ -6100,12 +6118,12 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="6"/>
-      <c r="AH58" s="99"/>
-      <c r="AI58" s="99"/>
-      <c r="AJ58" s="99"/>
-      <c r="AK58" s="99"/>
-      <c r="AL58" s="99"/>
-      <c r="AM58" s="99"/>
+      <c r="AH58" s="98"/>
+      <c r="AI58" s="98"/>
+      <c r="AJ58" s="98"/>
+      <c r="AK58" s="98"/>
+      <c r="AL58" s="98"/>
+      <c r="AM58" s="98"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
       <c r="AP58" s="5"/>
@@ -6167,12 +6185,12 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="6"/>
-      <c r="AH59" s="99"/>
-      <c r="AI59" s="99"/>
-      <c r="AJ59" s="99"/>
-      <c r="AK59" s="99"/>
-      <c r="AL59" s="99"/>
-      <c r="AM59" s="99"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="98"/>
+      <c r="AJ59" s="98"/>
+      <c r="AK59" s="98"/>
+      <c r="AL59" s="98"/>
+      <c r="AM59" s="98"/>
       <c r="AN59" s="5"/>
       <c r="AO59" s="5"/>
       <c r="AP59" s="5"/>
@@ -6234,12 +6252,12 @@
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="6"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="99"/>
-      <c r="AJ60" s="99"/>
-      <c r="AK60" s="99"/>
-      <c r="AL60" s="99"/>
-      <c r="AM60" s="99"/>
+      <c r="AH60" s="98"/>
+      <c r="AI60" s="98"/>
+      <c r="AJ60" s="98"/>
+      <c r="AK60" s="98"/>
+      <c r="AL60" s="98"/>
+      <c r="AM60" s="98"/>
       <c r="AN60" s="5"/>
       <c r="AO60" s="5"/>
       <c r="AP60" s="5"/>
@@ -6301,12 +6319,12 @@
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="6"/>
-      <c r="AH61" s="99"/>
-      <c r="AI61" s="99"/>
-      <c r="AJ61" s="99"/>
-      <c r="AK61" s="99"/>
-      <c r="AL61" s="99"/>
-      <c r="AM61" s="99"/>
+      <c r="AH61" s="98"/>
+      <c r="AI61" s="98"/>
+      <c r="AJ61" s="98"/>
+      <c r="AK61" s="98"/>
+      <c r="AL61" s="98"/>
+      <c r="AM61" s="98"/>
       <c r="AN61" s="5"/>
       <c r="AO61" s="5"/>
       <c r="AP61" s="5"/>
@@ -6368,12 +6386,12 @@
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="6"/>
-      <c r="AH62" s="99"/>
-      <c r="AI62" s="99"/>
-      <c r="AJ62" s="99"/>
-      <c r="AK62" s="99"/>
-      <c r="AL62" s="99"/>
-      <c r="AM62" s="99"/>
+      <c r="AH62" s="98"/>
+      <c r="AI62" s="98"/>
+      <c r="AJ62" s="98"/>
+      <c r="AK62" s="98"/>
+      <c r="AL62" s="98"/>
+      <c r="AM62" s="98"/>
       <c r="AN62" s="5"/>
       <c r="AO62" s="5"/>
       <c r="AP62" s="5"/>
@@ -6435,12 +6453,12 @@
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="6"/>
-      <c r="AH63" s="99"/>
-      <c r="AI63" s="99"/>
-      <c r="AJ63" s="99"/>
-      <c r="AK63" s="99"/>
-      <c r="AL63" s="99"/>
-      <c r="AM63" s="99"/>
+      <c r="AH63" s="98"/>
+      <c r="AI63" s="98"/>
+      <c r="AJ63" s="98"/>
+      <c r="AK63" s="98"/>
+      <c r="AL63" s="98"/>
+      <c r="AM63" s="98"/>
       <c r="AN63" s="5"/>
       <c r="AO63" s="5"/>
       <c r="AP63" s="5"/>
@@ -6502,12 +6520,12 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="6"/>
-      <c r="AH64" s="99"/>
-      <c r="AI64" s="99"/>
-      <c r="AJ64" s="99"/>
-      <c r="AK64" s="99"/>
-      <c r="AL64" s="99"/>
-      <c r="AM64" s="99"/>
+      <c r="AH64" s="98"/>
+      <c r="AI64" s="98"/>
+      <c r="AJ64" s="98"/>
+      <c r="AK64" s="98"/>
+      <c r="AL64" s="98"/>
+      <c r="AM64" s="98"/>
       <c r="AN64" s="5"/>
       <c r="AO64" s="5"/>
       <c r="AP64" s="5"/>
@@ -6569,12 +6587,12 @@
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="6"/>
-      <c r="AH65" s="99"/>
-      <c r="AI65" s="99"/>
-      <c r="AJ65" s="99"/>
-      <c r="AK65" s="99"/>
-      <c r="AL65" s="99"/>
-      <c r="AM65" s="99"/>
+      <c r="AH65" s="98"/>
+      <c r="AI65" s="98"/>
+      <c r="AJ65" s="98"/>
+      <c r="AK65" s="98"/>
+      <c r="AL65" s="98"/>
+      <c r="AM65" s="98"/>
       <c r="AN65" s="5"/>
       <c r="AO65" s="5"/>
       <c r="AP65" s="5"/>
@@ -6636,12 +6654,12 @@
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="6"/>
-      <c r="AH66" s="99"/>
-      <c r="AI66" s="99"/>
-      <c r="AJ66" s="99"/>
-      <c r="AK66" s="99"/>
-      <c r="AL66" s="99"/>
-      <c r="AM66" s="99"/>
+      <c r="AH66" s="98"/>
+      <c r="AI66" s="98"/>
+      <c r="AJ66" s="98"/>
+      <c r="AK66" s="98"/>
+      <c r="AL66" s="98"/>
+      <c r="AM66" s="98"/>
       <c r="AN66" s="5"/>
       <c r="AO66" s="5"/>
       <c r="AP66" s="5"/>
@@ -6703,12 +6721,12 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="6"/>
-      <c r="AH67" s="99"/>
-      <c r="AI67" s="99"/>
-      <c r="AJ67" s="99"/>
-      <c r="AK67" s="99"/>
-      <c r="AL67" s="99"/>
-      <c r="AM67" s="99"/>
+      <c r="AH67" s="98"/>
+      <c r="AI67" s="98"/>
+      <c r="AJ67" s="98"/>
+      <c r="AK67" s="98"/>
+      <c r="AL67" s="98"/>
+      <c r="AM67" s="98"/>
       <c r="AN67" s="5"/>
       <c r="AO67" s="5"/>
       <c r="AP67" s="5"/>
@@ -6770,12 +6788,12 @@
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="6"/>
-      <c r="AH68" s="99"/>
-      <c r="AI68" s="99"/>
-      <c r="AJ68" s="99"/>
-      <c r="AK68" s="99"/>
-      <c r="AL68" s="99"/>
-      <c r="AM68" s="99"/>
+      <c r="AH68" s="98"/>
+      <c r="AI68" s="98"/>
+      <c r="AJ68" s="98"/>
+      <c r="AK68" s="98"/>
+      <c r="AL68" s="98"/>
+      <c r="AM68" s="98"/>
       <c r="AN68" s="5"/>
       <c r="AO68" s="5"/>
       <c r="AP68" s="5"/>
@@ -6837,12 +6855,12 @@
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="6"/>
-      <c r="AH69" s="99"/>
-      <c r="AI69" s="99"/>
-      <c r="AJ69" s="99"/>
-      <c r="AK69" s="99"/>
-      <c r="AL69" s="99"/>
-      <c r="AM69" s="99"/>
+      <c r="AH69" s="98"/>
+      <c r="AI69" s="98"/>
+      <c r="AJ69" s="98"/>
+      <c r="AK69" s="98"/>
+      <c r="AL69" s="98"/>
+      <c r="AM69" s="98"/>
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
       <c r="AP69" s="5"/>
@@ -6904,12 +6922,12 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="6"/>
-      <c r="AH70" s="99"/>
-      <c r="AI70" s="99"/>
-      <c r="AJ70" s="99"/>
-      <c r="AK70" s="99"/>
-      <c r="AL70" s="99"/>
-      <c r="AM70" s="99"/>
+      <c r="AH70" s="98"/>
+      <c r="AI70" s="98"/>
+      <c r="AJ70" s="98"/>
+      <c r="AK70" s="98"/>
+      <c r="AL70" s="98"/>
+      <c r="AM70" s="98"/>
       <c r="AN70" s="5"/>
       <c r="AO70" s="5"/>
       <c r="AP70" s="5"/>
@@ -6971,12 +6989,12 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="6"/>
-      <c r="AH71" s="99"/>
-      <c r="AI71" s="99"/>
-      <c r="AJ71" s="99"/>
-      <c r="AK71" s="99"/>
-      <c r="AL71" s="99"/>
-      <c r="AM71" s="99"/>
+      <c r="AH71" s="98"/>
+      <c r="AI71" s="98"/>
+      <c r="AJ71" s="98"/>
+      <c r="AK71" s="98"/>
+      <c r="AL71" s="98"/>
+      <c r="AM71" s="98"/>
       <c r="AN71" s="5"/>
       <c r="AO71" s="5"/>
       <c r="AP71" s="5"/>
@@ -7038,12 +7056,12 @@
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="6"/>
-      <c r="AH72" s="99"/>
-      <c r="AI72" s="99"/>
-      <c r="AJ72" s="99"/>
-      <c r="AK72" s="99"/>
-      <c r="AL72" s="99"/>
-      <c r="AM72" s="99"/>
+      <c r="AH72" s="98"/>
+      <c r="AI72" s="98"/>
+      <c r="AJ72" s="98"/>
+      <c r="AK72" s="98"/>
+      <c r="AL72" s="98"/>
+      <c r="AM72" s="98"/>
       <c r="AN72" s="5"/>
       <c r="AO72" s="5"/>
       <c r="AP72" s="5"/>
@@ -7105,12 +7123,12 @@
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="6"/>
-      <c r="AH73" s="99"/>
-      <c r="AI73" s="99"/>
-      <c r="AJ73" s="99"/>
-      <c r="AK73" s="99"/>
-      <c r="AL73" s="99"/>
-      <c r="AM73" s="99"/>
+      <c r="AH73" s="98"/>
+      <c r="AI73" s="98"/>
+      <c r="AJ73" s="98"/>
+      <c r="AK73" s="98"/>
+      <c r="AL73" s="98"/>
+      <c r="AM73" s="98"/>
       <c r="AN73" s="5"/>
       <c r="AO73" s="5"/>
       <c r="AP73" s="5"/>
@@ -7172,12 +7190,12 @@
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="6"/>
-      <c r="AH74" s="99"/>
-      <c r="AI74" s="99"/>
-      <c r="AJ74" s="99"/>
-      <c r="AK74" s="99"/>
-      <c r="AL74" s="99"/>
-      <c r="AM74" s="99"/>
+      <c r="AH74" s="98"/>
+      <c r="AI74" s="98"/>
+      <c r="AJ74" s="98"/>
+      <c r="AK74" s="98"/>
+      <c r="AL74" s="98"/>
+      <c r="AM74" s="98"/>
       <c r="AN74" s="5"/>
       <c r="AO74" s="5"/>
       <c r="AP74" s="5"/>
@@ -7239,12 +7257,12 @@
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="6"/>
-      <c r="AH75" s="99"/>
-      <c r="AI75" s="99"/>
-      <c r="AJ75" s="99"/>
-      <c r="AK75" s="99"/>
-      <c r="AL75" s="99"/>
-      <c r="AM75" s="99"/>
+      <c r="AH75" s="98"/>
+      <c r="AI75" s="98"/>
+      <c r="AJ75" s="98"/>
+      <c r="AK75" s="98"/>
+      <c r="AL75" s="98"/>
+      <c r="AM75" s="98"/>
       <c r="AN75" s="5"/>
       <c r="AO75" s="5"/>
       <c r="AP75" s="5"/>
@@ -7306,12 +7324,12 @@
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="6"/>
-      <c r="AH76" s="99"/>
-      <c r="AI76" s="99"/>
-      <c r="AJ76" s="99"/>
-      <c r="AK76" s="99"/>
-      <c r="AL76" s="99"/>
-      <c r="AM76" s="99"/>
+      <c r="AH76" s="98"/>
+      <c r="AI76" s="98"/>
+      <c r="AJ76" s="98"/>
+      <c r="AK76" s="98"/>
+      <c r="AL76" s="98"/>
+      <c r="AM76" s="98"/>
       <c r="AN76" s="5"/>
       <c r="AO76" s="5"/>
       <c r="AP76" s="5"/>
@@ -7373,12 +7391,12 @@
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="6"/>
-      <c r="AH77" s="99"/>
-      <c r="AI77" s="99"/>
-      <c r="AJ77" s="99"/>
-      <c r="AK77" s="99"/>
-      <c r="AL77" s="99"/>
-      <c r="AM77" s="99"/>
+      <c r="AH77" s="98"/>
+      <c r="AI77" s="98"/>
+      <c r="AJ77" s="98"/>
+      <c r="AK77" s="98"/>
+      <c r="AL77" s="98"/>
+      <c r="AM77" s="98"/>
       <c r="AN77" s="5"/>
       <c r="AO77" s="5"/>
       <c r="AP77" s="5"/>
@@ -7440,12 +7458,12 @@
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="6"/>
-      <c r="AH78" s="99"/>
-      <c r="AI78" s="99"/>
-      <c r="AJ78" s="99"/>
-      <c r="AK78" s="99"/>
-      <c r="AL78" s="99"/>
-      <c r="AM78" s="99"/>
+      <c r="AH78" s="98"/>
+      <c r="AI78" s="98"/>
+      <c r="AJ78" s="98"/>
+      <c r="AK78" s="98"/>
+      <c r="AL78" s="98"/>
+      <c r="AM78" s="98"/>
       <c r="AN78" s="5"/>
       <c r="AO78" s="5"/>
       <c r="AP78" s="5"/>
@@ -7507,12 +7525,12 @@
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="6"/>
-      <c r="AH79" s="99"/>
-      <c r="AI79" s="99"/>
-      <c r="AJ79" s="99"/>
-      <c r="AK79" s="99"/>
-      <c r="AL79" s="99"/>
-      <c r="AM79" s="99"/>
+      <c r="AH79" s="98"/>
+      <c r="AI79" s="98"/>
+      <c r="AJ79" s="98"/>
+      <c r="AK79" s="98"/>
+      <c r="AL79" s="98"/>
+      <c r="AM79" s="98"/>
       <c r="AN79" s="5"/>
       <c r="AO79" s="5"/>
       <c r="AP79" s="5"/>
@@ -7574,12 +7592,12 @@
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="6"/>
-      <c r="AH80" s="99"/>
-      <c r="AI80" s="99"/>
-      <c r="AJ80" s="99"/>
-      <c r="AK80" s="99"/>
-      <c r="AL80" s="99"/>
-      <c r="AM80" s="99"/>
+      <c r="AH80" s="98"/>
+      <c r="AI80" s="98"/>
+      <c r="AJ80" s="98"/>
+      <c r="AK80" s="98"/>
+      <c r="AL80" s="98"/>
+      <c r="AM80" s="98"/>
       <c r="AN80" s="5"/>
       <c r="AO80" s="5"/>
       <c r="AP80" s="5"/>
@@ -7641,12 +7659,12 @@
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="6"/>
-      <c r="AH81" s="99"/>
-      <c r="AI81" s="99"/>
-      <c r="AJ81" s="99"/>
-      <c r="AK81" s="99"/>
-      <c r="AL81" s="99"/>
-      <c r="AM81" s="99"/>
+      <c r="AH81" s="98"/>
+      <c r="AI81" s="98"/>
+      <c r="AJ81" s="98"/>
+      <c r="AK81" s="98"/>
+      <c r="AL81" s="98"/>
+      <c r="AM81" s="98"/>
       <c r="AN81" s="5"/>
       <c r="AO81" s="5"/>
       <c r="AP81" s="5"/>
@@ -7708,12 +7726,12 @@
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="6"/>
-      <c r="AH82" s="99"/>
-      <c r="AI82" s="99"/>
-      <c r="AJ82" s="99"/>
-      <c r="AK82" s="99"/>
-      <c r="AL82" s="99"/>
-      <c r="AM82" s="99"/>
+      <c r="AH82" s="98"/>
+      <c r="AI82" s="98"/>
+      <c r="AJ82" s="98"/>
+      <c r="AK82" s="98"/>
+      <c r="AL82" s="98"/>
+      <c r="AM82" s="98"/>
       <c r="AN82" s="5"/>
       <c r="AO82" s="5"/>
       <c r="AP82" s="5"/>
@@ -7775,12 +7793,12 @@
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="6"/>
-      <c r="AH83" s="99"/>
-      <c r="AI83" s="99"/>
-      <c r="AJ83" s="99"/>
-      <c r="AK83" s="99"/>
-      <c r="AL83" s="99"/>
-      <c r="AM83" s="99"/>
+      <c r="AH83" s="98"/>
+      <c r="AI83" s="98"/>
+      <c r="AJ83" s="98"/>
+      <c r="AK83" s="98"/>
+      <c r="AL83" s="98"/>
+      <c r="AM83" s="98"/>
       <c r="AN83" s="5"/>
       <c r="AO83" s="5"/>
       <c r="AP83" s="5"/>
@@ -7842,12 +7860,12 @@
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="6"/>
-      <c r="AH84" s="99"/>
-      <c r="AI84" s="99"/>
-      <c r="AJ84" s="99"/>
-      <c r="AK84" s="99"/>
-      <c r="AL84" s="99"/>
-      <c r="AM84" s="99"/>
+      <c r="AH84" s="98"/>
+      <c r="AI84" s="98"/>
+      <c r="AJ84" s="98"/>
+      <c r="AK84" s="98"/>
+      <c r="AL84" s="98"/>
+      <c r="AM84" s="98"/>
       <c r="AN84" s="5"/>
       <c r="AO84" s="5"/>
       <c r="AP84" s="5"/>
@@ -7909,12 +7927,12 @@
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AG85" s="6"/>
-      <c r="AH85" s="99"/>
-      <c r="AI85" s="99"/>
-      <c r="AJ85" s="99"/>
-      <c r="AK85" s="99"/>
-      <c r="AL85" s="99"/>
-      <c r="AM85" s="99"/>
+      <c r="AH85" s="98"/>
+      <c r="AI85" s="98"/>
+      <c r="AJ85" s="98"/>
+      <c r="AK85" s="98"/>
+      <c r="AL85" s="98"/>
+      <c r="AM85" s="98"/>
       <c r="AN85" s="5"/>
       <c r="AO85" s="5"/>
       <c r="AP85" s="5"/>
@@ -7976,12 +7994,12 @@
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
       <c r="AG86" s="6"/>
-      <c r="AH86" s="99"/>
-      <c r="AI86" s="99"/>
-      <c r="AJ86" s="99"/>
-      <c r="AK86" s="99"/>
-      <c r="AL86" s="99"/>
-      <c r="AM86" s="99"/>
+      <c r="AH86" s="98"/>
+      <c r="AI86" s="98"/>
+      <c r="AJ86" s="98"/>
+      <c r="AK86" s="98"/>
+      <c r="AL86" s="98"/>
+      <c r="AM86" s="98"/>
       <c r="AN86" s="5"/>
       <c r="AO86" s="5"/>
       <c r="AP86" s="5"/>
@@ -8043,12 +8061,12 @@
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
       <c r="AG87" s="6"/>
-      <c r="AH87" s="99"/>
-      <c r="AI87" s="99"/>
-      <c r="AJ87" s="99"/>
-      <c r="AK87" s="99"/>
-      <c r="AL87" s="99"/>
-      <c r="AM87" s="99"/>
+      <c r="AH87" s="98"/>
+      <c r="AI87" s="98"/>
+      <c r="AJ87" s="98"/>
+      <c r="AK87" s="98"/>
+      <c r="AL87" s="98"/>
+      <c r="AM87" s="98"/>
       <c r="AN87" s="5"/>
       <c r="AO87" s="5"/>
       <c r="AP87" s="5"/>
@@ -8110,12 +8128,12 @@
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="6"/>
-      <c r="AH88" s="99"/>
-      <c r="AI88" s="99"/>
-      <c r="AJ88" s="99"/>
-      <c r="AK88" s="99"/>
-      <c r="AL88" s="99"/>
-      <c r="AM88" s="99"/>
+      <c r="AH88" s="98"/>
+      <c r="AI88" s="98"/>
+      <c r="AJ88" s="98"/>
+      <c r="AK88" s="98"/>
+      <c r="AL88" s="98"/>
+      <c r="AM88" s="98"/>
       <c r="AN88" s="5"/>
       <c r="AO88" s="5"/>
       <c r="AP88" s="5"/>
@@ -8177,12 +8195,12 @@
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="6"/>
-      <c r="AH89" s="99"/>
-      <c r="AI89" s="99"/>
-      <c r="AJ89" s="99"/>
-      <c r="AK89" s="99"/>
-      <c r="AL89" s="99"/>
-      <c r="AM89" s="99"/>
+      <c r="AH89" s="98"/>
+      <c r="AI89" s="98"/>
+      <c r="AJ89" s="98"/>
+      <c r="AK89" s="98"/>
+      <c r="AL89" s="98"/>
+      <c r="AM89" s="98"/>
       <c r="AN89" s="5"/>
       <c r="AO89" s="5"/>
       <c r="AP89" s="5"/>
@@ -8244,12 +8262,12 @@
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="6"/>
-      <c r="AH90" s="99"/>
-      <c r="AI90" s="99"/>
-      <c r="AJ90" s="99"/>
-      <c r="AK90" s="99"/>
-      <c r="AL90" s="99"/>
-      <c r="AM90" s="99"/>
+      <c r="AH90" s="98"/>
+      <c r="AI90" s="98"/>
+      <c r="AJ90" s="98"/>
+      <c r="AK90" s="98"/>
+      <c r="AL90" s="98"/>
+      <c r="AM90" s="98"/>
       <c r="AN90" s="5"/>
       <c r="AO90" s="5"/>
       <c r="AP90" s="5"/>
@@ -8311,12 +8329,12 @@
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="6"/>
-      <c r="AH91" s="99"/>
-      <c r="AI91" s="99"/>
-      <c r="AJ91" s="99"/>
-      <c r="AK91" s="99"/>
-      <c r="AL91" s="99"/>
-      <c r="AM91" s="99"/>
+      <c r="AH91" s="98"/>
+      <c r="AI91" s="98"/>
+      <c r="AJ91" s="98"/>
+      <c r="AK91" s="98"/>
+      <c r="AL91" s="98"/>
+      <c r="AM91" s="98"/>
       <c r="AN91" s="5"/>
       <c r="AO91" s="5"/>
       <c r="AP91" s="5"/>
@@ -8378,12 +8396,12 @@
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="6"/>
-      <c r="AH92" s="99"/>
-      <c r="AI92" s="99"/>
-      <c r="AJ92" s="99"/>
-      <c r="AK92" s="99"/>
-      <c r="AL92" s="99"/>
-      <c r="AM92" s="99"/>
+      <c r="AH92" s="98"/>
+      <c r="AI92" s="98"/>
+      <c r="AJ92" s="98"/>
+      <c r="AK92" s="98"/>
+      <c r="AL92" s="98"/>
+      <c r="AM92" s="98"/>
       <c r="AN92" s="5"/>
       <c r="AO92" s="5"/>
       <c r="AP92" s="5"/>
@@ -8445,12 +8463,12 @@
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="6"/>
-      <c r="AH93" s="99"/>
-      <c r="AI93" s="99"/>
-      <c r="AJ93" s="99"/>
-      <c r="AK93" s="99"/>
-      <c r="AL93" s="99"/>
-      <c r="AM93" s="99"/>
+      <c r="AH93" s="98"/>
+      <c r="AI93" s="98"/>
+      <c r="AJ93" s="98"/>
+      <c r="AK93" s="98"/>
+      <c r="AL93" s="98"/>
+      <c r="AM93" s="98"/>
       <c r="AN93" s="5"/>
       <c r="AO93" s="5"/>
       <c r="AP93" s="5"/>
@@ -8512,12 +8530,12 @@
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="6"/>
-      <c r="AH94" s="99"/>
-      <c r="AI94" s="99"/>
-      <c r="AJ94" s="99"/>
-      <c r="AK94" s="99"/>
-      <c r="AL94" s="99"/>
-      <c r="AM94" s="99"/>
+      <c r="AH94" s="98"/>
+      <c r="AI94" s="98"/>
+      <c r="AJ94" s="98"/>
+      <c r="AK94" s="98"/>
+      <c r="AL94" s="98"/>
+      <c r="AM94" s="98"/>
       <c r="AN94" s="5"/>
       <c r="AO94" s="5"/>
       <c r="AP94" s="5"/>
@@ -8579,12 +8597,12 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="6"/>
-      <c r="AH95" s="99"/>
-      <c r="AI95" s="99"/>
-      <c r="AJ95" s="99"/>
-      <c r="AK95" s="99"/>
-      <c r="AL95" s="99"/>
-      <c r="AM95" s="99"/>
+      <c r="AH95" s="98"/>
+      <c r="AI95" s="98"/>
+      <c r="AJ95" s="98"/>
+      <c r="AK95" s="98"/>
+      <c r="AL95" s="98"/>
+      <c r="AM95" s="98"/>
       <c r="AN95" s="5"/>
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
@@ -8646,12 +8664,12 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="6"/>
-      <c r="AH96" s="99"/>
-      <c r="AI96" s="99"/>
-      <c r="AJ96" s="99"/>
-      <c r="AK96" s="99"/>
-      <c r="AL96" s="99"/>
-      <c r="AM96" s="99"/>
+      <c r="AH96" s="98"/>
+      <c r="AI96" s="98"/>
+      <c r="AJ96" s="98"/>
+      <c r="AK96" s="98"/>
+      <c r="AL96" s="98"/>
+      <c r="AM96" s="98"/>
       <c r="AN96" s="5"/>
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
@@ -8713,12 +8731,12 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="6"/>
-      <c r="AH97" s="99"/>
-      <c r="AI97" s="99"/>
-      <c r="AJ97" s="99"/>
-      <c r="AK97" s="99"/>
-      <c r="AL97" s="99"/>
-      <c r="AM97" s="99"/>
+      <c r="AH97" s="98"/>
+      <c r="AI97" s="98"/>
+      <c r="AJ97" s="98"/>
+      <c r="AK97" s="98"/>
+      <c r="AL97" s="98"/>
+      <c r="AM97" s="98"/>
       <c r="AN97" s="5"/>
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
@@ -8780,12 +8798,12 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="6"/>
-      <c r="AH98" s="99"/>
-      <c r="AI98" s="99"/>
-      <c r="AJ98" s="99"/>
-      <c r="AK98" s="99"/>
-      <c r="AL98" s="99"/>
-      <c r="AM98" s="99"/>
+      <c r="AH98" s="98"/>
+      <c r="AI98" s="98"/>
+      <c r="AJ98" s="98"/>
+      <c r="AK98" s="98"/>
+      <c r="AL98" s="98"/>
+      <c r="AM98" s="98"/>
       <c r="AN98" s="5"/>
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
@@ -8847,12 +8865,12 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AG99" s="6"/>
-      <c r="AH99" s="99"/>
-      <c r="AI99" s="99"/>
-      <c r="AJ99" s="99"/>
-      <c r="AK99" s="99"/>
-      <c r="AL99" s="99"/>
-      <c r="AM99" s="99"/>
+      <c r="AH99" s="98"/>
+      <c r="AI99" s="98"/>
+      <c r="AJ99" s="98"/>
+      <c r="AK99" s="98"/>
+      <c r="AL99" s="98"/>
+      <c r="AM99" s="98"/>
       <c r="AN99" s="5"/>
       <c r="AO99" s="5"/>
       <c r="AP99" s="5"/>
@@ -8914,12 +8932,12 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="6"/>
-      <c r="AH100" s="99"/>
-      <c r="AI100" s="99"/>
-      <c r="AJ100" s="99"/>
-      <c r="AK100" s="99"/>
-      <c r="AL100" s="99"/>
-      <c r="AM100" s="99"/>
+      <c r="AH100" s="98"/>
+      <c r="AI100" s="98"/>
+      <c r="AJ100" s="98"/>
+      <c r="AK100" s="98"/>
+      <c r="AL100" s="98"/>
+      <c r="AM100" s="98"/>
       <c r="AN100" s="5"/>
       <c r="AO100" s="5"/>
       <c r="AP100" s="5"/>
@@ -8981,12 +8999,12 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AG101" s="6"/>
-      <c r="AH101" s="99"/>
-      <c r="AI101" s="99"/>
-      <c r="AJ101" s="99"/>
-      <c r="AK101" s="99"/>
-      <c r="AL101" s="99"/>
-      <c r="AM101" s="99"/>
+      <c r="AH101" s="98"/>
+      <c r="AI101" s="98"/>
+      <c r="AJ101" s="98"/>
+      <c r="AK101" s="98"/>
+      <c r="AL101" s="98"/>
+      <c r="AM101" s="98"/>
       <c r="AN101" s="5"/>
       <c r="AO101" s="5"/>
       <c r="AP101" s="5"/>
@@ -9048,12 +9066,12 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="6"/>
-      <c r="AH102" s="99"/>
-      <c r="AI102" s="99"/>
-      <c r="AJ102" s="99"/>
-      <c r="AK102" s="99"/>
-      <c r="AL102" s="99"/>
-      <c r="AM102" s="99"/>
+      <c r="AH102" s="98"/>
+      <c r="AI102" s="98"/>
+      <c r="AJ102" s="98"/>
+      <c r="AK102" s="98"/>
+      <c r="AL102" s="98"/>
+      <c r="AM102" s="98"/>
       <c r="AN102" s="5"/>
       <c r="AO102" s="5"/>
       <c r="AP102" s="5"/>
@@ -9115,12 +9133,12 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AG103" s="6"/>
-      <c r="AH103" s="99"/>
-      <c r="AI103" s="99"/>
-      <c r="AJ103" s="99"/>
-      <c r="AK103" s="99"/>
-      <c r="AL103" s="99"/>
-      <c r="AM103" s="99"/>
+      <c r="AH103" s="98"/>
+      <c r="AI103" s="98"/>
+      <c r="AJ103" s="98"/>
+      <c r="AK103" s="98"/>
+      <c r="AL103" s="98"/>
+      <c r="AM103" s="98"/>
       <c r="AN103" s="5"/>
       <c r="AO103" s="5"/>
       <c r="AP103" s="5"/>
@@ -9182,12 +9200,12 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AG104" s="6"/>
-      <c r="AH104" s="99"/>
-      <c r="AI104" s="99"/>
-      <c r="AJ104" s="99"/>
-      <c r="AK104" s="99"/>
-      <c r="AL104" s="99"/>
-      <c r="AM104" s="99"/>
+      <c r="AH104" s="98"/>
+      <c r="AI104" s="98"/>
+      <c r="AJ104" s="98"/>
+      <c r="AK104" s="98"/>
+      <c r="AL104" s="98"/>
+      <c r="AM104" s="98"/>
       <c r="AN104" s="5"/>
       <c r="AO104" s="5"/>
       <c r="AP104" s="5"/>
@@ -9249,12 +9267,12 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AG105" s="6"/>
-      <c r="AH105" s="99"/>
-      <c r="AI105" s="99"/>
-      <c r="AJ105" s="99"/>
-      <c r="AK105" s="99"/>
-      <c r="AL105" s="99"/>
-      <c r="AM105" s="99"/>
+      <c r="AH105" s="98"/>
+      <c r="AI105" s="98"/>
+      <c r="AJ105" s="98"/>
+      <c r="AK105" s="98"/>
+      <c r="AL105" s="98"/>
+      <c r="AM105" s="98"/>
       <c r="AN105" s="5"/>
       <c r="AO105" s="5"/>
       <c r="AP105" s="5"/>
@@ -9316,12 +9334,12 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="6"/>
-      <c r="AH106" s="99"/>
-      <c r="AI106" s="99"/>
-      <c r="AJ106" s="99"/>
-      <c r="AK106" s="99"/>
-      <c r="AL106" s="99"/>
-      <c r="AM106" s="99"/>
+      <c r="AH106" s="98"/>
+      <c r="AI106" s="98"/>
+      <c r="AJ106" s="98"/>
+      <c r="AK106" s="98"/>
+      <c r="AL106" s="98"/>
+      <c r="AM106" s="98"/>
       <c r="AN106" s="5"/>
       <c r="AO106" s="5"/>
       <c r="AP106" s="5"/>
@@ -9383,12 +9401,12 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AG107" s="6"/>
-      <c r="AH107" s="99"/>
-      <c r="AI107" s="99"/>
-      <c r="AJ107" s="99"/>
-      <c r="AK107" s="99"/>
-      <c r="AL107" s="99"/>
-      <c r="AM107" s="99"/>
+      <c r="AH107" s="98"/>
+      <c r="AI107" s="98"/>
+      <c r="AJ107" s="98"/>
+      <c r="AK107" s="98"/>
+      <c r="AL107" s="98"/>
+      <c r="AM107" s="98"/>
       <c r="AN107" s="5"/>
       <c r="AO107" s="5"/>
       <c r="AP107" s="5"/>
@@ -9450,12 +9468,12 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="6"/>
-      <c r="AH108" s="99"/>
-      <c r="AI108" s="99"/>
-      <c r="AJ108" s="99"/>
-      <c r="AK108" s="99"/>
-      <c r="AL108" s="99"/>
-      <c r="AM108" s="99"/>
+      <c r="AH108" s="98"/>
+      <c r="AI108" s="98"/>
+      <c r="AJ108" s="98"/>
+      <c r="AK108" s="98"/>
+      <c r="AL108" s="98"/>
+      <c r="AM108" s="98"/>
       <c r="AN108" s="5"/>
       <c r="AO108" s="5"/>
       <c r="AP108" s="5"/>
@@ -9517,12 +9535,12 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="6"/>
-      <c r="AH109" s="99"/>
-      <c r="AI109" s="99"/>
-      <c r="AJ109" s="99"/>
-      <c r="AK109" s="99"/>
-      <c r="AL109" s="99"/>
-      <c r="AM109" s="99"/>
+      <c r="AH109" s="98"/>
+      <c r="AI109" s="98"/>
+      <c r="AJ109" s="98"/>
+      <c r="AK109" s="98"/>
+      <c r="AL109" s="98"/>
+      <c r="AM109" s="98"/>
       <c r="AN109" s="5"/>
       <c r="AO109" s="5"/>
       <c r="AP109" s="5"/>
@@ -9584,12 +9602,12 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="6"/>
-      <c r="AH110" s="99"/>
-      <c r="AI110" s="99"/>
-      <c r="AJ110" s="99"/>
-      <c r="AK110" s="99"/>
-      <c r="AL110" s="99"/>
-      <c r="AM110" s="99"/>
+      <c r="AH110" s="98"/>
+      <c r="AI110" s="98"/>
+      <c r="AJ110" s="98"/>
+      <c r="AK110" s="98"/>
+      <c r="AL110" s="98"/>
+      <c r="AM110" s="98"/>
       <c r="AN110" s="5"/>
       <c r="AO110" s="5"/>
       <c r="AP110" s="5"/>
@@ -9651,12 +9669,12 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AG111" s="6"/>
-      <c r="AH111" s="99"/>
-      <c r="AI111" s="99"/>
-      <c r="AJ111" s="99"/>
-      <c r="AK111" s="99"/>
-      <c r="AL111" s="99"/>
-      <c r="AM111" s="99"/>
+      <c r="AH111" s="98"/>
+      <c r="AI111" s="98"/>
+      <c r="AJ111" s="98"/>
+      <c r="AK111" s="98"/>
+      <c r="AL111" s="98"/>
+      <c r="AM111" s="98"/>
       <c r="AN111" s="5"/>
       <c r="AO111" s="5"/>
       <c r="AP111" s="5"/>
@@ -9718,12 +9736,12 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AG112" s="6"/>
-      <c r="AH112" s="99"/>
-      <c r="AI112" s="99"/>
-      <c r="AJ112" s="99"/>
-      <c r="AK112" s="99"/>
-      <c r="AL112" s="99"/>
-      <c r="AM112" s="99"/>
+      <c r="AH112" s="98"/>
+      <c r="AI112" s="98"/>
+      <c r="AJ112" s="98"/>
+      <c r="AK112" s="98"/>
+      <c r="AL112" s="98"/>
+      <c r="AM112" s="98"/>
       <c r="AN112" s="5"/>
       <c r="AO112" s="5"/>
       <c r="AP112" s="5"/>
@@ -9785,12 +9803,12 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AG113" s="6"/>
-      <c r="AH113" s="99"/>
-      <c r="AI113" s="99"/>
-      <c r="AJ113" s="99"/>
-      <c r="AK113" s="99"/>
-      <c r="AL113" s="99"/>
-      <c r="AM113" s="99"/>
+      <c r="AH113" s="98"/>
+      <c r="AI113" s="98"/>
+      <c r="AJ113" s="98"/>
+      <c r="AK113" s="98"/>
+      <c r="AL113" s="98"/>
+      <c r="AM113" s="98"/>
       <c r="AN113" s="5"/>
       <c r="AO113" s="5"/>
       <c r="AP113" s="5"/>
@@ -9852,12 +9870,12 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="6"/>
-      <c r="AH114" s="99"/>
-      <c r="AI114" s="99"/>
-      <c r="AJ114" s="99"/>
-      <c r="AK114" s="99"/>
-      <c r="AL114" s="99"/>
-      <c r="AM114" s="99"/>
+      <c r="AH114" s="98"/>
+      <c r="AI114" s="98"/>
+      <c r="AJ114" s="98"/>
+      <c r="AK114" s="98"/>
+      <c r="AL114" s="98"/>
+      <c r="AM114" s="98"/>
       <c r="AN114" s="5"/>
       <c r="AO114" s="5"/>
       <c r="AP114" s="5"/>
@@ -9919,12 +9937,12 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
       <c r="AG115" s="6"/>
-      <c r="AH115" s="99"/>
-      <c r="AI115" s="99"/>
-      <c r="AJ115" s="99"/>
-      <c r="AK115" s="99"/>
-      <c r="AL115" s="99"/>
-      <c r="AM115" s="99"/>
+      <c r="AH115" s="98"/>
+      <c r="AI115" s="98"/>
+      <c r="AJ115" s="98"/>
+      <c r="AK115" s="98"/>
+      <c r="AL115" s="98"/>
+      <c r="AM115" s="98"/>
       <c r="AN115" s="5"/>
       <c r="AO115" s="5"/>
       <c r="AP115" s="5"/>
@@ -9986,12 +10004,12 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AG116" s="6"/>
-      <c r="AH116" s="99"/>
-      <c r="AI116" s="99"/>
-      <c r="AJ116" s="99"/>
-      <c r="AK116" s="99"/>
-      <c r="AL116" s="99"/>
-      <c r="AM116" s="99"/>
+      <c r="AH116" s="98"/>
+      <c r="AI116" s="98"/>
+      <c r="AJ116" s="98"/>
+      <c r="AK116" s="98"/>
+      <c r="AL116" s="98"/>
+      <c r="AM116" s="98"/>
       <c r="AN116" s="5"/>
       <c r="AO116" s="5"/>
       <c r="AP116" s="5"/>
@@ -10053,12 +10071,12 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
       <c r="AG117" s="6"/>
-      <c r="AH117" s="99"/>
-      <c r="AI117" s="99"/>
-      <c r="AJ117" s="99"/>
-      <c r="AK117" s="99"/>
-      <c r="AL117" s="99"/>
-      <c r="AM117" s="99"/>
+      <c r="AH117" s="98"/>
+      <c r="AI117" s="98"/>
+      <c r="AJ117" s="98"/>
+      <c r="AK117" s="98"/>
+      <c r="AL117" s="98"/>
+      <c r="AM117" s="98"/>
       <c r="AN117" s="5"/>
       <c r="AO117" s="5"/>
       <c r="AP117" s="5"/>
@@ -10120,12 +10138,12 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
       <c r="AG118" s="6"/>
-      <c r="AH118" s="99"/>
-      <c r="AI118" s="99"/>
-      <c r="AJ118" s="99"/>
-      <c r="AK118" s="99"/>
-      <c r="AL118" s="99"/>
-      <c r="AM118" s="99"/>
+      <c r="AH118" s="98"/>
+      <c r="AI118" s="98"/>
+      <c r="AJ118" s="98"/>
+      <c r="AK118" s="98"/>
+      <c r="AL118" s="98"/>
+      <c r="AM118" s="98"/>
       <c r="AN118" s="5"/>
       <c r="AO118" s="5"/>
       <c r="AP118" s="5"/>
@@ -10187,12 +10205,12 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
       <c r="AG119" s="6"/>
-      <c r="AH119" s="99"/>
-      <c r="AI119" s="99"/>
-      <c r="AJ119" s="99"/>
-      <c r="AK119" s="99"/>
-      <c r="AL119" s="99"/>
-      <c r="AM119" s="99"/>
+      <c r="AH119" s="98"/>
+      <c r="AI119" s="98"/>
+      <c r="AJ119" s="98"/>
+      <c r="AK119" s="98"/>
+      <c r="AL119" s="98"/>
+      <c r="AM119" s="98"/>
       <c r="AN119" s="5"/>
       <c r="AO119" s="5"/>
       <c r="AP119" s="5"/>
@@ -10254,12 +10272,12 @@
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
       <c r="AG120" s="6"/>
-      <c r="AH120" s="99"/>
-      <c r="AI120" s="99"/>
-      <c r="AJ120" s="99"/>
-      <c r="AK120" s="99"/>
-      <c r="AL120" s="99"/>
-      <c r="AM120" s="99"/>
+      <c r="AH120" s="98"/>
+      <c r="AI120" s="98"/>
+      <c r="AJ120" s="98"/>
+      <c r="AK120" s="98"/>
+      <c r="AL120" s="98"/>
+      <c r="AM120" s="98"/>
       <c r="AN120" s="5"/>
       <c r="AO120" s="5"/>
       <c r="AP120" s="5"/>
@@ -10321,12 +10339,12 @@
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
       <c r="AG121" s="6"/>
-      <c r="AH121" s="99"/>
-      <c r="AI121" s="99"/>
-      <c r="AJ121" s="99"/>
-      <c r="AK121" s="99"/>
-      <c r="AL121" s="99"/>
-      <c r="AM121" s="99"/>
+      <c r="AH121" s="98"/>
+      <c r="AI121" s="98"/>
+      <c r="AJ121" s="98"/>
+      <c r="AK121" s="98"/>
+      <c r="AL121" s="98"/>
+      <c r="AM121" s="98"/>
       <c r="AN121" s="5"/>
       <c r="AO121" s="5"/>
       <c r="AP121" s="5"/>
@@ -10356,12 +10374,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="BG13:BM13"/>
@@ -10374,6 +10386,12 @@
     <mergeCell ref="AW13:AW15"/>
     <mergeCell ref="AX13:AX15"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -10441,11 +10459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10455,7 +10473,7 @@
     <col min="3" max="3" width="20.85546875" style="22" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="22" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="90" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="89" customWidth="1"/>
     <col min="7" max="11" width="6.28515625" style="22" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="22"/>
     <col min="13" max="13" width="3.7109375" style="22" customWidth="1"/>
@@ -10475,2651 +10493,2649 @@
     <col min="48" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:46" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="205" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="140"/>
+    </row>
+    <row r="2" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="144"/>
+    </row>
+    <row r="3" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="152"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="144"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="148"/>
+    </row>
+    <row r="5" spans="1:46" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="206" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="154"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="149"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <f>Psikogram!$A$16</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="str">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$B$16)</f>
         <v>: xxxx</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="H10" s="36" t="str">
+      <c r="D10" s="35"/>
+      <c r="E10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="H10" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$C$16)</f>
         <v>: 12345</v>
       </c>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="39"/>
-    </row>
-    <row r="11" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="str">
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+    </row>
+    <row r="11" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$F$16)</f>
         <v>: 1977-08-28</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="36" t="str">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$H$16)</f>
         <v>: Penelusuran Kompetensi</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="36"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-    </row>
-    <row r="12" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="str">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="35"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+    </row>
+    <row r="12" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$E$16)</f>
         <v>: S1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="41" t="str">
+      <c r="D12" s="35"/>
+      <c r="E12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="40" t="str">
         <f>CONCATENATE(": ",Psikogram!$I$16)</f>
         <v>: 6 Februari 2020</v>
       </c>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-    </row>
-    <row r="13" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-    </row>
-    <row r="14" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-    </row>
-    <row r="15" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="145" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="45"/>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="39"/>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-    </row>
-    <row r="16" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-    </row>
-    <row r="17" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="148" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="157" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="42"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-    </row>
-    <row r="18" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="160" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="162" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="163"/>
-      <c r="I18" s="162" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="164"/>
-      <c r="K18" s="42"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-    </row>
-    <row r="19" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="47">
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+    </row>
+    <row r="13" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+    </row>
+    <row r="14" spans="1:46" s="37" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+    </row>
+    <row r="15" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="44"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+    </row>
+    <row r="16" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+    </row>
+    <row r="17" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="41"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+    </row>
+    <row r="18" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="168"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="178"/>
+      <c r="G18" s="179" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="180"/>
+      <c r="I18" s="179" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="181"/>
+      <c r="K18" s="41"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+    </row>
+    <row r="19" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="171"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="46">
         <v>1</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="47">
         <v>2</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <v>3</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="47">
         <v>4</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="47">
         <v>5</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="48">
         <v>6</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="N19" s="50">
+      <c r="K19" s="41"/>
+      <c r="N19" s="49">
         <v>1</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="49">
         <v>2</v>
       </c>
-      <c r="P19" s="50">
+      <c r="P19" s="49">
         <v>3</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="49">
         <v>4</v>
       </c>
-      <c r="R19" s="50">
+      <c r="R19" s="49">
         <v>5</v>
       </c>
-      <c r="S19" s="50">
+      <c r="S19" s="49">
         <v>6</v>
       </c>
-      <c r="T19" s="50">
+      <c r="T19" s="49">
         <v>7</v>
       </c>
-      <c r="U19" s="50">
+      <c r="U19" s="49">
         <v>8</v>
       </c>
-      <c r="W19" s="50">
+      <c r="W19" s="49">
         <v>1</v>
       </c>
-      <c r="X19" s="50">
+      <c r="X19" s="49">
         <v>2</v>
       </c>
-      <c r="Y19" s="50">
+      <c r="Y19" s="49">
         <v>3</v>
       </c>
-      <c r="Z19" s="50">
+      <c r="Z19" s="49">
         <v>4</v>
       </c>
-      <c r="AB19" s="50">
+      <c r="AB19" s="49">
         <v>1</v>
       </c>
-      <c r="AC19" s="50">
+      <c r="AC19" s="49">
         <v>2</v>
       </c>
-      <c r="AD19" s="50">
+      <c r="AD19" s="49">
         <v>3</v>
       </c>
-      <c r="AE19" s="50">
+      <c r="AE19" s="49">
         <v>4</v>
       </c>
-      <c r="AG19" s="50">
+      <c r="AG19" s="49">
         <v>1</v>
       </c>
-      <c r="AH19" s="50">
+      <c r="AH19" s="49">
         <v>2</v>
       </c>
-      <c r="AI19" s="50">
+      <c r="AI19" s="49">
         <v>4</v>
       </c>
-      <c r="AJ19" s="50">
+      <c r="AJ19" s="49">
         <v>5</v>
       </c>
-      <c r="AL19" s="50">
+      <c r="AL19" s="49">
         <v>1</v>
       </c>
-      <c r="AM19" s="50">
+      <c r="AM19" s="49">
         <v>2</v>
       </c>
-      <c r="AN19" s="50">
+      <c r="AN19" s="49">
         <v>3</v>
       </c>
-      <c r="AO19" s="50">
+      <c r="AO19" s="49">
         <v>4</v>
       </c>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-    </row>
-    <row r="20" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="170" t="s">
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+    </row>
+    <row r="20" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="50">
         <v>1</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="109" t="str">
+      <c r="C20" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="113"/>
+      <c r="E20" s="108" t="str">
         <f>N20</f>
         <v/>
       </c>
-      <c r="F20" s="53" t="str">
+      <c r="F20" s="52" t="str">
         <f>N21</f>
         <v/>
       </c>
-      <c r="G20" s="53" t="str">
+      <c r="G20" s="52" t="str">
         <f>N22</f>
         <v/>
       </c>
-      <c r="H20" s="53" t="str">
+      <c r="H20" s="52" t="str">
         <f>N23</f>
         <v/>
       </c>
-      <c r="I20" s="53" t="str">
+      <c r="I20" s="52" t="str">
         <f>N24</f>
         <v>X</v>
       </c>
-      <c r="J20" s="54" t="str">
+      <c r="J20" s="53" t="str">
         <f>N25</f>
         <v/>
       </c>
-      <c r="K20" s="42"/>
-      <c r="M20" s="50">
+      <c r="K20" s="41"/>
+      <c r="M20" s="49">
         <v>1</v>
       </c>
-      <c r="N20" s="50" t="str">
+      <c r="N20" s="49" t="str">
         <f>IF(Psikogram!J$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="O20" s="50" t="str">
+      <c r="O20" s="49" t="str">
         <f>IF(Psikogram!K$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="P20" s="50" t="str">
+      <c r="P20" s="49" t="str">
         <f>IF(Psikogram!L$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q20" s="50" t="str">
+      <c r="Q20" s="49" t="str">
         <f>IF(Psikogram!M$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="R20" s="50" t="str">
+      <c r="R20" s="49" t="str">
         <f>IF(Psikogram!N$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="S20" s="50" t="str">
+      <c r="S20" s="49" t="str">
         <f>IF(Psikogram!O$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="T20" s="50" t="str">
+      <c r="T20" s="49" t="str">
         <f>IF(Psikogram!P$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="U20" s="50" t="str">
+      <c r="U20" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="V20" s="55">
+      <c r="V20" s="54">
         <f>Psikogram!R$16</f>
         <v>4.5</v>
       </c>
-      <c r="W20" s="50" t="str">
+      <c r="W20" s="49" t="str">
         <f>IF(Psikogram!S$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="X20" s="50" t="str">
+      <c r="X20" s="49" t="str">
         <f>IF(Psikogram!T$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y20" s="50" t="str">
+      <c r="Y20" s="49" t="str">
         <f>IF(Psikogram!U$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z20" s="50" t="str">
+      <c r="Z20" s="49" t="str">
         <f>IF(Psikogram!V$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AA20" s="56">
+      <c r="AA20" s="55">
         <f>Psikogram!W$16</f>
         <v>3.75</v>
       </c>
-      <c r="AB20" s="50" t="str">
+      <c r="AB20" s="49" t="str">
         <f>IF(Psikogram!X$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC20" s="50" t="str">
+      <c r="AC20" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD20" s="50" t="str">
+      <c r="AD20" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE20" s="50" t="str">
+      <c r="AE20" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AF20" s="56">
+      <c r="AF20" s="55">
         <f>Psikogram!AB$16</f>
         <v>3</v>
       </c>
-      <c r="AG20" s="50" t="str">
+      <c r="AG20" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH20" s="50" t="str">
+      <c r="AH20" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI20" s="50" t="str">
+      <c r="AI20" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ20" s="50" t="str">
+      <c r="AJ20" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AK20" s="56">
+      <c r="AK20" s="55">
         <f>Psikogram!AG$16</f>
         <v>3.75</v>
       </c>
-      <c r="AL20" s="50" t="str">
+      <c r="AL20" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM20" s="50" t="str">
+      <c r="AM20" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN20" s="50" t="str">
+      <c r="AN20" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO20" s="50" t="str">
+      <c r="AO20" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AP20" s="56">
+      <c r="AP20" s="55">
         <f>Psikogram!AR$16</f>
         <v>3.5</v>
       </c>
-      <c r="AQ20" s="56">
+      <c r="AQ20" s="55">
         <f>Psikogram!AS$16</f>
         <v>3.75</v>
       </c>
-      <c r="AR20" s="56">
+      <c r="AR20" s="55">
         <f>Psikogram!AT$16</f>
         <v>3.9</v>
       </c>
-      <c r="AS20" s="56">
+      <c r="AS20" s="55">
         <f>Psikogram!AU$16</f>
         <v>3.6</v>
       </c>
-      <c r="AT20" s="56">
+      <c r="AT20" s="55">
         <f>Psikogram!AV$16</f>
         <v>3.5</v>
       </c>
-      <c r="AU20" s="56">
+      <c r="AU20" s="55">
         <f>Psikogram!AW$16</f>
         <v>3.6875</v>
       </c>
-      <c r="AV20" s="56" t="str">
+      <c r="AV20" s="55" t="str">
         <f>Psikogram!AX$16</f>
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="171"/>
-      <c r="B21" s="57">
+    <row r="21" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="185"/>
+      <c r="B21" s="56">
         <v>2</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="107" t="str">
+      <c r="D21" s="114"/>
+      <c r="E21" s="106" t="str">
         <f>O20</f>
         <v/>
       </c>
-      <c r="F21" s="50" t="str">
+      <c r="F21" s="49" t="str">
         <f>O21</f>
         <v/>
       </c>
-      <c r="G21" s="50" t="str">
+      <c r="G21" s="49" t="str">
         <f>O22</f>
         <v/>
       </c>
-      <c r="H21" s="50" t="str">
+      <c r="H21" s="49" t="str">
         <f>O23</f>
         <v>X</v>
       </c>
-      <c r="I21" s="50" t="str">
+      <c r="I21" s="49" t="str">
         <f>O24</f>
         <v/>
       </c>
-      <c r="J21" s="59" t="str">
+      <c r="J21" s="58" t="str">
         <f>O25</f>
         <v/>
       </c>
-      <c r="K21" s="42"/>
-      <c r="M21" s="50">
+      <c r="K21" s="41"/>
+      <c r="M21" s="49">
         <v>2</v>
       </c>
-      <c r="N21" s="50" t="str">
+      <c r="N21" s="49" t="str">
         <f>IF(Psikogram!J$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="O21" s="50" t="str">
+      <c r="O21" s="49" t="str">
         <f>IF(Psikogram!K$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="P21" s="50" t="str">
+      <c r="P21" s="49" t="str">
         <f>IF(Psikogram!L$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q21" s="50" t="str">
+      <c r="Q21" s="49" t="str">
         <f>IF(Psikogram!M$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="R21" s="50" t="str">
+      <c r="R21" s="49" t="str">
         <f>IF(Psikogram!N$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="S21" s="50" t="str">
+      <c r="S21" s="49" t="str">
         <f>IF(Psikogram!O$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="T21" s="50" t="str">
+      <c r="T21" s="49" t="str">
         <f>IF(Psikogram!P$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="U21" s="50" t="str">
+      <c r="U21" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="W21" s="50" t="str">
+      <c r="W21" s="49" t="str">
         <f>IF(Psikogram!S$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="X21" s="50" t="str">
+      <c r="X21" s="49" t="str">
         <f>IF(Psikogram!T$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y21" s="50" t="str">
+      <c r="Y21" s="49" t="str">
         <f>IF(Psikogram!U$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z21" s="50" t="str">
+      <c r="Z21" s="49" t="str">
         <f>IF(Psikogram!V$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB21" s="50" t="str">
+      <c r="AB21" s="49" t="str">
         <f>IF(Psikogram!X$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC21" s="50" t="str">
+      <c r="AC21" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M20+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD21" s="50" t="str">
+      <c r="AD21" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE21" s="50" t="str">
+      <c r="AE21" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG21" s="50" t="str">
+      <c r="AG21" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH21" s="50" t="str">
+      <c r="AH21" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI21" s="50" t="str">
+      <c r="AI21" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ21" s="50" t="str">
+      <c r="AJ21" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL21" s="50" t="str">
+      <c r="AL21" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM21" s="50" t="str">
+      <c r="AM21" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN21" s="50" t="str">
+      <c r="AN21" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO21" s="50" t="str">
+      <c r="AO21" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-    </row>
-    <row r="22" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="171"/>
-      <c r="B22" s="57">
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+    </row>
+    <row r="22" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="185"/>
+      <c r="B22" s="56">
         <v>3</v>
       </c>
-      <c r="C22" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="107" t="str">
+      <c r="C22" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="114"/>
+      <c r="E22" s="106" t="str">
         <f>P20</f>
         <v/>
       </c>
-      <c r="F22" s="50" t="str">
+      <c r="F22" s="49" t="str">
         <f>P21</f>
         <v/>
       </c>
-      <c r="G22" s="50" t="str">
+      <c r="G22" s="49" t="str">
         <f>P22</f>
         <v/>
       </c>
-      <c r="H22" s="50" t="str">
+      <c r="H22" s="49" t="str">
         <f>P23</f>
         <v/>
       </c>
-      <c r="I22" s="50" t="str">
+      <c r="I22" s="49" t="str">
         <f>P24</f>
         <v>X</v>
       </c>
-      <c r="J22" s="59" t="str">
+      <c r="J22" s="58" t="str">
         <f>P25</f>
         <v/>
       </c>
-      <c r="K22" s="42"/>
-      <c r="M22" s="50">
+      <c r="K22" s="41"/>
+      <c r="M22" s="49">
         <v>3</v>
       </c>
-      <c r="N22" s="50" t="str">
+      <c r="N22" s="49" t="str">
         <f>IF(Psikogram!J$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="O22" s="50" t="str">
+      <c r="O22" s="49" t="str">
         <f>IF(Psikogram!K$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="P22" s="50" t="str">
+      <c r="P22" s="49" t="str">
         <f>IF(Psikogram!L$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q22" s="50" t="str">
+      <c r="Q22" s="49" t="str">
         <f>IF(Psikogram!M$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="R22" s="50" t="str">
+      <c r="R22" s="49" t="str">
         <f>IF(Psikogram!N$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="S22" s="50" t="str">
+      <c r="S22" s="49" t="str">
         <f>IF(Psikogram!O$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T22" s="50" t="str">
+      <c r="T22" s="49" t="str">
         <f>IF(Psikogram!P$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="U22" s="50" t="str">
+      <c r="U22" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="W22" s="50" t="str">
+      <c r="W22" s="49" t="str">
         <f>IF(Psikogram!S$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="X22" s="50" t="str">
+      <c r="X22" s="49" t="str">
         <f>IF(Psikogram!T$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y22" s="50" t="str">
+      <c r="Y22" s="49" t="str">
         <f>IF(Psikogram!U$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z22" s="50" t="str">
+      <c r="Z22" s="49" t="str">
         <f>IF(Psikogram!V$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB22" s="50" t="str">
+      <c r="AB22" s="49" t="str">
         <f>IF(Psikogram!X$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC22" s="50" t="str">
+      <c r="AC22" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD22" s="50" t="str">
+      <c r="AD22" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AE22" s="50" t="str">
+      <c r="AE22" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AG22" s="50" t="str">
+      <c r="AG22" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH22" s="50" t="str">
+      <c r="AH22" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI22" s="50" t="str">
+      <c r="AI22" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AJ22" s="50" t="str">
+      <c r="AJ22" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL22" s="50" t="str">
+      <c r="AL22" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AM22" s="50" t="str">
+      <c r="AM22" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN22" s="50" t="str">
+      <c r="AN22" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AO22" s="50" t="str">
+      <c r="AO22" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-    </row>
-    <row r="23" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="171"/>
-      <c r="B23" s="57">
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+    </row>
+    <row r="23" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="185"/>
+      <c r="B23" s="56">
         <v>4</v>
       </c>
-      <c r="C23" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="107" t="str">
+      <c r="C23" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="114"/>
+      <c r="E23" s="106" t="str">
         <f>Q20</f>
         <v/>
       </c>
-      <c r="F23" s="50" t="str">
+      <c r="F23" s="49" t="str">
         <f>Q21</f>
         <v/>
       </c>
-      <c r="G23" s="50" t="str">
+      <c r="G23" s="49" t="str">
         <f>Q22</f>
         <v/>
       </c>
-      <c r="H23" s="50" t="str">
+      <c r="H23" s="49" t="str">
         <f>Q23</f>
         <v/>
       </c>
-      <c r="I23" s="50" t="str">
+      <c r="I23" s="49" t="str">
         <f>Q24</f>
         <v>X</v>
       </c>
-      <c r="J23" s="59" t="str">
+      <c r="J23" s="58" t="str">
         <f>Q25</f>
         <v/>
       </c>
-      <c r="K23" s="42"/>
-      <c r="M23" s="50">
+      <c r="K23" s="41"/>
+      <c r="M23" s="49">
         <v>4</v>
       </c>
-      <c r="N23" s="50" t="str">
+      <c r="N23" s="49" t="str">
         <f>IF(Psikogram!J$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="O23" s="50" t="str">
+      <c r="O23" s="49" t="str">
         <f>IF(Psikogram!K$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="P23" s="50" t="str">
+      <c r="P23" s="49" t="str">
         <f>IF(Psikogram!L$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q23" s="50" t="str">
+      <c r="Q23" s="49" t="str">
         <f>IF(Psikogram!M$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="R23" s="50" t="str">
+      <c r="R23" s="49" t="str">
         <f>IF(Psikogram!N$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="S23" s="50" t="str">
+      <c r="S23" s="49" t="str">
         <f>IF(Psikogram!O$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="T23" s="50" t="str">
+      <c r="T23" s="49" t="str">
         <f>IF(Psikogram!P$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="U23" s="50" t="str">
+      <c r="U23" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="W23" s="50" t="str">
+      <c r="W23" s="49" t="str">
         <f>IF(Psikogram!S$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="X23" s="50" t="str">
+      <c r="X23" s="49" t="str">
         <f>IF(Psikogram!T$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Y23" s="50" t="str">
+      <c r="Y23" s="49" t="str">
         <f>IF(Psikogram!U$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Z23" s="50" t="str">
+      <c r="Z23" s="49" t="str">
         <f>IF(Psikogram!V$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AB23" s="50" t="str">
+      <c r="AB23" s="49" t="str">
         <f>IF(Psikogram!X$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC23" s="50" t="str">
+      <c r="AC23" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD23" s="50" t="str">
+      <c r="AD23" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE23" s="50" t="str">
+      <c r="AE23" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG23" s="50" t="str">
+      <c r="AG23" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH23" s="50" t="str">
+      <c r="AH23" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AI23" s="50" t="str">
+      <c r="AI23" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ23" s="50" t="str">
+      <c r="AJ23" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL23" s="50" t="str">
+      <c r="AL23" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM23" s="50" t="str">
+      <c r="AM23" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AN23" s="50" t="str">
+      <c r="AN23" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO23" s="50" t="str">
+      <c r="AO23" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="39"/>
-    </row>
-    <row r="24" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="171"/>
-      <c r="B24" s="57">
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+    </row>
+    <row r="24" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="185"/>
+      <c r="B24" s="56">
         <v>5</v>
       </c>
-      <c r="C24" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="115"/>
-      <c r="E24" s="107" t="str">
+      <c r="C24" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="114"/>
+      <c r="E24" s="106" t="str">
         <f>R20</f>
         <v/>
       </c>
-      <c r="F24" s="50" t="str">
+      <c r="F24" s="49" t="str">
         <f>R21</f>
         <v/>
       </c>
-      <c r="G24" s="50" t="str">
+      <c r="G24" s="49" t="str">
         <f>R22</f>
         <v/>
       </c>
-      <c r="H24" s="50" t="str">
+      <c r="H24" s="49" t="str">
         <f>R23</f>
         <v/>
       </c>
-      <c r="I24" s="50" t="str">
+      <c r="I24" s="49" t="str">
         <f>R24</f>
         <v>X</v>
       </c>
-      <c r="J24" s="59" t="str">
+      <c r="J24" s="58" t="str">
         <f>R25</f>
         <v/>
       </c>
-      <c r="K24" s="60"/>
-      <c r="M24" s="50">
+      <c r="K24" s="59"/>
+      <c r="M24" s="49">
         <v>5</v>
       </c>
-      <c r="N24" s="50" t="str">
+      <c r="N24" s="49" t="str">
         <f>IF(Psikogram!J$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="O24" s="50" t="str">
+      <c r="O24" s="49" t="str">
         <f>IF(Psikogram!K$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="P24" s="50" t="str">
+      <c r="P24" s="49" t="str">
         <f>IF(Psikogram!L$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q24" s="50" t="str">
+      <c r="Q24" s="49" t="str">
         <f>IF(Psikogram!M$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="R24" s="50" t="str">
+      <c r="R24" s="49" t="str">
         <f>IF(Psikogram!N$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="S24" s="50" t="str">
+      <c r="S24" s="49" t="str">
         <f>IF(Psikogram!O$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="T24" s="50" t="str">
+      <c r="T24" s="49" t="str">
         <f>IF(Psikogram!P$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="U24" s="50" t="str">
+      <c r="U24" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="W24" s="50" t="str">
+      <c r="W24" s="49" t="str">
         <f>IF(Psikogram!S$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="X24" s="50" t="str">
+      <c r="X24" s="49" t="str">
         <f>IF(Psikogram!T$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y24" s="50" t="str">
+      <c r="Y24" s="49" t="str">
         <f>IF(Psikogram!U$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z24" s="50" t="str">
+      <c r="Z24" s="49" t="str">
         <f>IF(Psikogram!V$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB24" s="50" t="str">
+      <c r="AB24" s="49" t="str">
         <f>IF(Psikogram!X$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC24" s="50" t="str">
+      <c r="AC24" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD24" s="50" t="str">
+      <c r="AD24" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE24" s="50" t="str">
+      <c r="AE24" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG24" s="50" t="str">
+      <c r="AG24" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH24" s="50" t="str">
+      <c r="AH24" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI24" s="50" t="str">
+      <c r="AI24" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ24" s="50" t="str">
+      <c r="AJ24" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AL24" s="50" t="str">
+      <c r="AL24" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM24" s="50" t="str">
+      <c r="AM24" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN24" s="50" t="str">
+      <c r="AN24" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO24" s="50" t="str">
+      <c r="AO24" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-    </row>
-    <row r="25" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="171"/>
-      <c r="B25" s="57">
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+    </row>
+    <row r="25" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="185"/>
+      <c r="B25" s="56">
         <v>6</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="107" t="str">
+      <c r="C25" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="106" t="str">
         <f>S20</f>
         <v/>
       </c>
-      <c r="F25" s="50" t="str">
+      <c r="F25" s="49" t="str">
         <f>S21</f>
         <v/>
       </c>
-      <c r="G25" s="50" t="str">
+      <c r="G25" s="49" t="str">
         <f>S22</f>
         <v>X</v>
       </c>
-      <c r="H25" s="50" t="str">
+      <c r="H25" s="49" t="str">
         <f>S23</f>
         <v/>
       </c>
-      <c r="I25" s="50" t="str">
+      <c r="I25" s="49" t="str">
         <f>S24</f>
         <v/>
       </c>
-      <c r="J25" s="59" t="str">
+      <c r="J25" s="58" t="str">
         <f>S25</f>
         <v/>
       </c>
-      <c r="K25" s="60"/>
-      <c r="M25" s="50">
+      <c r="K25" s="59"/>
+      <c r="M25" s="49">
         <v>6</v>
       </c>
-      <c r="N25" s="50" t="str">
+      <c r="N25" s="49" t="str">
         <f>IF(Psikogram!J$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="O25" s="50" t="str">
+      <c r="O25" s="49" t="str">
         <f>IF(Psikogram!K$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="P25" s="50" t="str">
+      <c r="P25" s="49" t="str">
         <f>IF(Psikogram!L$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q25" s="50" t="str">
+      <c r="Q25" s="49" t="str">
         <f>IF(Psikogram!M$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="R25" s="50" t="str">
+      <c r="R25" s="49" t="str">
         <f>IF(Psikogram!N$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="S25" s="50" t="str">
+      <c r="S25" s="49" t="str">
         <f>IF(Psikogram!O$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="T25" s="50" t="str">
+      <c r="T25" s="49" t="str">
         <f>IF(Psikogram!P$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="U25" s="50" t="str">
+      <c r="U25" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="W25" s="50" t="str">
+      <c r="W25" s="49" t="str">
         <f>IF(Psikogram!S$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="X25" s="50" t="str">
+      <c r="X25" s="49" t="str">
         <f>IF(Psikogram!T$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y25" s="50" t="str">
+      <c r="Y25" s="49" t="str">
         <f>IF(Psikogram!U$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z25" s="50" t="str">
+      <c r="Z25" s="49" t="str">
         <f>IF(Psikogram!V$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB25" s="50" t="str">
+      <c r="AB25" s="49" t="str">
         <f>IF(Psikogram!X$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC25" s="50" t="str">
+      <c r="AC25" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD25" s="50" t="str">
+      <c r="AD25" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE25" s="50" t="str">
+      <c r="AE25" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG25" s="50" t="str">
+      <c r="AG25" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH25" s="50" t="str">
+      <c r="AH25" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI25" s="50" t="str">
+      <c r="AI25" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ25" s="50" t="str">
+      <c r="AJ25" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL25" s="50" t="str">
+      <c r="AL25" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM25" s="50" t="str">
+      <c r="AM25" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN25" s="50" t="str">
+      <c r="AN25" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO25" s="50" t="str">
+      <c r="AO25" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-    </row>
-    <row r="26" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="172"/>
-      <c r="B26" s="57">
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+    </row>
+    <row r="26" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="186"/>
+      <c r="B26" s="56">
         <v>7</v>
       </c>
-      <c r="C26" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="107" t="str">
+      <c r="C26" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="106" t="str">
         <f>T20</f>
         <v/>
       </c>
-      <c r="F26" s="50" t="str">
+      <c r="F26" s="49" t="str">
         <f>T21</f>
         <v/>
       </c>
-      <c r="G26" s="50" t="str">
+      <c r="G26" s="49" t="str">
         <f>T22</f>
         <v/>
       </c>
-      <c r="H26" s="50" t="str">
+      <c r="H26" s="49" t="str">
         <f>T23</f>
         <v/>
       </c>
-      <c r="I26" s="50" t="str">
+      <c r="I26" s="49" t="str">
         <f>T24</f>
         <v>X</v>
       </c>
-      <c r="J26" s="59" t="str">
+      <c r="J26" s="58" t="str">
         <f>T25</f>
         <v/>
       </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="60"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="39"/>
-      <c r="AT26" s="39"/>
-    </row>
-    <row r="27" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173"/>
-      <c r="B27" s="57">
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+    </row>
+    <row r="27" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="187"/>
+      <c r="B27" s="56">
         <v>8</v>
       </c>
-      <c r="C27" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="107" t="str">
+      <c r="C27" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="114"/>
+      <c r="E27" s="106" t="str">
         <f>U20</f>
         <v/>
       </c>
-      <c r="F27" s="50" t="str">
+      <c r="F27" s="49" t="str">
         <f>U21</f>
         <v/>
       </c>
-      <c r="G27" s="50" t="str">
+      <c r="G27" s="49" t="str">
         <f>U22</f>
         <v/>
       </c>
-      <c r="H27" s="50" t="str">
+      <c r="H27" s="49" t="str">
         <f>U23</f>
         <v>X</v>
       </c>
-      <c r="I27" s="50" t="str">
+      <c r="I27" s="49" t="str">
         <f>U24</f>
         <v/>
       </c>
-      <c r="J27" s="59" t="str">
+      <c r="J27" s="58" t="str">
         <f>U25</f>
         <v/>
       </c>
-      <c r="K27" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-    </row>
-    <row r="28" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="106">
+      <c r="K27" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+    </row>
+    <row r="28" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="188"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="105">
         <f>V20</f>
         <v>4.5</v>
       </c>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="39"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-    </row>
-    <row r="29" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="175" t="s">
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+    </row>
+    <row r="29" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="52">
         <v>1</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="109" t="str">
+      <c r="D29" s="113"/>
+      <c r="E29" s="108" t="str">
         <f>W20</f>
         <v/>
       </c>
-      <c r="F29" s="53" t="str">
+      <c r="F29" s="52" t="str">
         <f>W21</f>
         <v/>
       </c>
-      <c r="G29" s="53" t="str">
+      <c r="G29" s="52" t="str">
         <f>W22</f>
         <v>X</v>
       </c>
-      <c r="H29" s="53" t="str">
+      <c r="H29" s="52" t="str">
         <f>W23</f>
         <v/>
       </c>
-      <c r="I29" s="53" t="str">
+      <c r="I29" s="52" t="str">
         <f>W24</f>
         <v/>
       </c>
-      <c r="J29" s="54" t="str">
+      <c r="J29" s="53" t="str">
         <f>W25</f>
         <v/>
       </c>
-      <c r="K29" s="68"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="39"/>
-    </row>
-    <row r="30" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
-      <c r="B30" s="50">
+      <c r="K29" s="67"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+    </row>
+    <row r="30" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="190"/>
+      <c r="B30" s="49">
         <v>2</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="107" t="str">
+      <c r="D30" s="114"/>
+      <c r="E30" s="106" t="str">
         <f>X20</f>
         <v/>
       </c>
-      <c r="F30" s="50" t="str">
+      <c r="F30" s="49" t="str">
         <f>X21</f>
         <v/>
       </c>
-      <c r="G30" s="50" t="str">
+      <c r="G30" s="49" t="str">
         <f>X22</f>
         <v/>
       </c>
-      <c r="H30" s="50" t="str">
+      <c r="H30" s="49" t="str">
         <f>X23</f>
         <v>X</v>
       </c>
-      <c r="I30" s="50" t="str">
+      <c r="I30" s="49" t="str">
         <f>X24</f>
         <v/>
       </c>
-      <c r="J30" s="59" t="str">
+      <c r="J30" s="58" t="str">
         <f>X25</f>
         <v/>
       </c>
-      <c r="K30" s="68"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-    </row>
-    <row r="31" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="176"/>
-      <c r="B31" s="50">
+      <c r="K30" s="67"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+    </row>
+    <row r="31" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="190"/>
+      <c r="B31" s="49">
         <v>3</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="107" t="str">
+      <c r="D31" s="114"/>
+      <c r="E31" s="106" t="str">
         <f>Y20</f>
         <v/>
       </c>
-      <c r="F31" s="50" t="str">
+      <c r="F31" s="49" t="str">
         <f>Y21</f>
         <v/>
       </c>
-      <c r="G31" s="50" t="str">
+      <c r="G31" s="49" t="str">
         <f>Y22</f>
         <v/>
       </c>
-      <c r="H31" s="50" t="str">
+      <c r="H31" s="49" t="str">
         <f>Y23</f>
         <v>X</v>
       </c>
-      <c r="I31" s="50" t="str">
+      <c r="I31" s="49" t="str">
         <f>Y24</f>
         <v/>
       </c>
-      <c r="J31" s="59" t="str">
+      <c r="J31" s="58" t="str">
         <f>Y25</f>
         <v/>
       </c>
-      <c r="K31" s="68"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="39"/>
-    </row>
-    <row r="32" spans="1:48" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="176"/>
-      <c r="B32" s="50">
+      <c r="K31" s="67"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+    </row>
+    <row r="32" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="190"/>
+      <c r="B32" s="49">
         <v>4</v>
       </c>
-      <c r="C32" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="107" t="str">
+      <c r="C32" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="114"/>
+      <c r="E32" s="106" t="str">
         <f>Z20</f>
         <v/>
       </c>
-      <c r="F32" s="50" t="str">
+      <c r="F32" s="49" t="str">
         <f>Z21</f>
         <v/>
       </c>
-      <c r="G32" s="50" t="str">
+      <c r="G32" s="49" t="str">
         <f>Z22</f>
         <v/>
       </c>
-      <c r="H32" s="50" t="str">
+      <c r="H32" s="49" t="str">
         <f>Z23</f>
         <v>X</v>
       </c>
-      <c r="I32" s="50" t="str">
+      <c r="I32" s="49" t="str">
         <f>Z24</f>
         <v/>
       </c>
-      <c r="J32" s="59" t="str">
+      <c r="J32" s="58" t="str">
         <f>Z25</f>
         <v/>
       </c>
-      <c r="K32" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-    </row>
-    <row r="33" spans="1:46" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="177"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="106">
+      <c r="K32" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ32" s="38"/>
+      <c r="AR32" s="38"/>
+      <c r="AS32" s="38"/>
+      <c r="AT32" s="38"/>
+    </row>
+    <row r="33" spans="1:46" s="37" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="191"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="105">
         <f>AA20</f>
         <v>3.75</v>
       </c>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="39"/>
-    </row>
-    <row r="34" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="175" t="s">
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+    </row>
+    <row r="34" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="52">
         <v>1</v>
       </c>
-      <c r="C34" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="168"/>
-      <c r="E34" s="109" t="str">
+      <c r="C34" s="160" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="161"/>
+      <c r="E34" s="108" t="str">
         <f>AB20</f>
         <v/>
       </c>
-      <c r="F34" s="53" t="str">
+      <c r="F34" s="52" t="str">
         <f>AB21</f>
         <v/>
       </c>
-      <c r="G34" s="53" t="str">
+      <c r="G34" s="52" t="str">
         <f>AB22</f>
         <v/>
       </c>
-      <c r="H34" s="53" t="str">
+      <c r="H34" s="52" t="str">
         <f>AB23</f>
         <v>X</v>
       </c>
-      <c r="I34" s="53" t="str">
+      <c r="I34" s="52" t="str">
         <f>AB24</f>
         <v/>
       </c>
-      <c r="J34" s="54" t="str">
+      <c r="J34" s="53" t="str">
         <f>AB25</f>
         <v/>
       </c>
-      <c r="K34" s="105"/>
-      <c r="AQ34" s="39"/>
-      <c r="AR34" s="39"/>
-      <c r="AS34" s="39"/>
-      <c r="AT34" s="39"/>
-    </row>
-    <row r="35" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="50">
+      <c r="K34" s="104"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+    </row>
+    <row r="35" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="190"/>
+      <c r="B35" s="49">
         <v>2</v>
       </c>
-      <c r="C35" s="143" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="144"/>
-      <c r="E35" s="107" t="str">
+      <c r="C35" s="197" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="198"/>
+      <c r="E35" s="106" t="str">
         <f>AC20</f>
         <v/>
       </c>
-      <c r="F35" s="50" t="str">
+      <c r="F35" s="49" t="str">
         <f>AC21</f>
         <v>X</v>
       </c>
-      <c r="G35" s="50" t="str">
+      <c r="G35" s="49" t="str">
         <f>AC22</f>
         <v/>
       </c>
-      <c r="H35" s="50" t="str">
+      <c r="H35" s="49" t="str">
         <f>AC23</f>
         <v/>
       </c>
-      <c r="I35" s="50" t="str">
+      <c r="I35" s="49" t="str">
         <f>AC24</f>
         <v/>
       </c>
-      <c r="J35" s="59" t="str">
+      <c r="J35" s="58" t="str">
         <f>AC25</f>
         <v/>
       </c>
-      <c r="K35" s="105"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39"/>
-      <c r="AT35" s="39"/>
-    </row>
-    <row r="36" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="176"/>
-      <c r="B36" s="50">
+      <c r="K35" s="104"/>
+      <c r="AQ35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="38"/>
+    </row>
+    <row r="36" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="190"/>
+      <c r="B36" s="49">
         <v>3</v>
       </c>
-      <c r="C36" s="143" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="107" t="str">
+      <c r="C36" s="197" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="198"/>
+      <c r="E36" s="106" t="str">
         <f>AD20</f>
         <v/>
       </c>
-      <c r="F36" s="50" t="str">
+      <c r="F36" s="49" t="str">
         <f>AD21</f>
         <v/>
       </c>
-      <c r="G36" s="50" t="str">
+      <c r="G36" s="49" t="str">
         <f>AD22</f>
         <v>X</v>
       </c>
-      <c r="H36" s="50" t="str">
+      <c r="H36" s="49" t="str">
         <f>AD23</f>
         <v/>
       </c>
-      <c r="I36" s="50" t="str">
+      <c r="I36" s="49" t="str">
         <f>AD24</f>
         <v/>
       </c>
-      <c r="J36" s="59" t="str">
+      <c r="J36" s="58" t="str">
         <f>AD25</f>
         <v/>
       </c>
-      <c r="K36" s="105"/>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="39"/>
-    </row>
-    <row r="37" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="50">
+      <c r="K36" s="104"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="38"/>
+    </row>
+    <row r="37" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="190"/>
+      <c r="B37" s="49">
         <v>4</v>
       </c>
-      <c r="C37" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="144"/>
-      <c r="E37" s="107" t="str">
+      <c r="C37" s="197" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="198"/>
+      <c r="E37" s="106" t="str">
         <f>AE20</f>
         <v/>
       </c>
-      <c r="F37" s="50" t="str">
+      <c r="F37" s="49" t="str">
         <f>AE21</f>
         <v/>
       </c>
-      <c r="G37" s="50" t="str">
+      <c r="G37" s="49" t="str">
         <f>AE22</f>
         <v>X</v>
       </c>
-      <c r="H37" s="50" t="str">
+      <c r="H37" s="49" t="str">
         <f>AE23</f>
         <v/>
       </c>
-      <c r="I37" s="50" t="str">
+      <c r="I37" s="49" t="str">
         <f>AE24</f>
         <v/>
       </c>
-      <c r="J37" s="59" t="str">
+      <c r="J37" s="58" t="str">
         <f>AE25</f>
         <v/>
       </c>
-      <c r="K37" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39"/>
-      <c r="AT37" s="39"/>
-    </row>
-    <row r="38" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="178"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="106">
+      <c r="K37" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+    </row>
+    <row r="38" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="192"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="105">
         <f>AF20</f>
         <v>3</v>
       </c>
-      <c r="AQ38" s="39"/>
-      <c r="AR38" s="39"/>
-      <c r="AS38" s="39"/>
-      <c r="AT38" s="39"/>
-    </row>
-    <row r="39" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="179" t="s">
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+    </row>
+    <row r="39" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="53">
+      <c r="B39" s="52">
         <v>1</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="109" t="str">
+      <c r="C39" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="113"/>
+      <c r="E39" s="108" t="str">
         <f>AG20</f>
         <v/>
       </c>
-      <c r="F39" s="53" t="str">
+      <c r="F39" s="52" t="str">
         <f>AG21</f>
         <v/>
       </c>
-      <c r="G39" s="53" t="str">
+      <c r="G39" s="52" t="str">
         <f>AG22</f>
         <v>X</v>
       </c>
-      <c r="H39" s="53" t="str">
+      <c r="H39" s="52" t="str">
         <f>AG23</f>
         <v/>
       </c>
-      <c r="I39" s="53" t="str">
+      <c r="I39" s="52" t="str">
         <f>AG24</f>
         <v/>
       </c>
-      <c r="J39" s="54" t="str">
+      <c r="J39" s="53" t="str">
         <f>AG25</f>
         <v/>
       </c>
-      <c r="K39" s="68"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39"/>
-      <c r="AT39" s="39"/>
-    </row>
-    <row r="40" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="165"/>
-      <c r="B40" s="50">
+      <c r="K39" s="67"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
+      <c r="AT39" s="38"/>
+    </row>
+    <row r="40" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="182"/>
+      <c r="B40" s="49">
         <v>2</v>
       </c>
-      <c r="C40" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="107" t="str">
+      <c r="C40" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="114"/>
+      <c r="E40" s="106" t="str">
         <f>AH20</f>
         <v/>
       </c>
-      <c r="F40" s="50" t="str">
+      <c r="F40" s="49" t="str">
         <f>AH21</f>
         <v/>
       </c>
-      <c r="G40" s="50" t="str">
+      <c r="G40" s="49" t="str">
         <f>AH22</f>
         <v/>
       </c>
-      <c r="H40" s="50" t="str">
+      <c r="H40" s="49" t="str">
         <f>AH23</f>
         <v>X</v>
       </c>
-      <c r="I40" s="50" t="str">
+      <c r="I40" s="49" t="str">
         <f>AH24</f>
         <v/>
       </c>
-      <c r="J40" s="59" t="str">
+      <c r="J40" s="58" t="str">
         <f>AH25</f>
         <v/>
       </c>
-      <c r="K40" s="68"/>
-      <c r="AQ40" s="39"/>
-      <c r="AR40" s="39"/>
-      <c r="AS40" s="39"/>
-      <c r="AT40" s="39"/>
-    </row>
-    <row r="41" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="165"/>
-      <c r="B41" s="50">
+      <c r="K40" s="67"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="38"/>
+    </row>
+    <row r="41" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="182"/>
+      <c r="B41" s="49">
         <v>4</v>
       </c>
-      <c r="C41" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="107" t="str">
+      <c r="C41" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="114"/>
+      <c r="E41" s="106" t="str">
         <f>AI20</f>
         <v/>
       </c>
-      <c r="F41" s="50" t="str">
+      <c r="F41" s="49" t="str">
         <f>AI21</f>
         <v/>
       </c>
-      <c r="G41" s="50" t="str">
+      <c r="G41" s="49" t="str">
         <f>AI22</f>
         <v>X</v>
       </c>
-      <c r="H41" s="50" t="str">
+      <c r="H41" s="49" t="str">
         <f>AI23</f>
         <v/>
       </c>
-      <c r="I41" s="50" t="str">
+      <c r="I41" s="49" t="str">
         <f>AI24</f>
         <v/>
       </c>
-      <c r="J41" s="59" t="str">
+      <c r="J41" s="58" t="str">
         <f>AI25</f>
         <v/>
       </c>
-      <c r="K41" s="68"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39"/>
-      <c r="AT41" s="39"/>
-    </row>
-    <row r="42" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="165"/>
-      <c r="B42" s="50">
+      <c r="K41" s="67"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="38"/>
+      <c r="AS41" s="38"/>
+      <c r="AT41" s="38"/>
+    </row>
+    <row r="42" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="182"/>
+      <c r="B42" s="49">
         <v>5</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="107" t="str">
+      <c r="D42" s="114"/>
+      <c r="E42" s="106" t="str">
         <f>AJ20</f>
         <v/>
       </c>
-      <c r="F42" s="50" t="str">
+      <c r="F42" s="49" t="str">
         <f>AJ21</f>
         <v/>
       </c>
-      <c r="G42" s="50" t="str">
+      <c r="G42" s="49" t="str">
         <f>AJ22</f>
         <v/>
       </c>
-      <c r="H42" s="50" t="str">
+      <c r="H42" s="49" t="str">
         <f>AJ23</f>
         <v/>
       </c>
-      <c r="I42" s="50" t="str">
+      <c r="I42" s="49" t="str">
         <f>AJ24</f>
         <v>X</v>
       </c>
-      <c r="J42" s="59" t="str">
+      <c r="J42" s="58" t="str">
         <f>AJ25</f>
         <v/>
       </c>
-      <c r="K42" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ42" s="39"/>
-      <c r="AR42" s="39"/>
-      <c r="AS42" s="39"/>
-      <c r="AT42" s="39"/>
-    </row>
-    <row r="43" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="166"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="106">
+      <c r="K42" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="38"/>
+      <c r="AS42" s="38"/>
+      <c r="AT42" s="38"/>
+    </row>
+    <row r="43" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="183"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="105">
         <f>AK20</f>
         <v>3.75</v>
       </c>
-      <c r="AQ43" s="39"/>
-      <c r="AR43" s="39"/>
-      <c r="AS43" s="39"/>
-      <c r="AT43" s="39"/>
-    </row>
-    <row r="44" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="165" t="s">
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="38"/>
+      <c r="AS43" s="38"/>
+      <c r="AT43" s="38"/>
+    </row>
+    <row r="44" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="65">
+      <c r="B44" s="64">
         <v>1</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="110" t="str">
+      <c r="D44" s="115"/>
+      <c r="E44" s="109" t="str">
         <f>AL20</f>
         <v/>
       </c>
-      <c r="F44" s="65" t="str">
+      <c r="F44" s="64" t="str">
         <f>AL21</f>
         <v/>
       </c>
-      <c r="G44" s="65" t="str">
+      <c r="G44" s="64" t="str">
         <f>AL22</f>
         <v>X</v>
       </c>
-      <c r="H44" s="65" t="str">
+      <c r="H44" s="64" t="str">
         <f>AL23</f>
         <v/>
       </c>
-      <c r="I44" s="65" t="str">
+      <c r="I44" s="64" t="str">
         <f>AL24</f>
         <v/>
       </c>
-      <c r="J44" s="67" t="str">
+      <c r="J44" s="66" t="str">
         <f>AL25</f>
         <v/>
       </c>
-      <c r="K44" s="68"/>
-      <c r="AQ44" s="39"/>
-      <c r="AR44" s="39"/>
-      <c r="AS44" s="39"/>
-      <c r="AT44" s="39"/>
-    </row>
-    <row r="45" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="165"/>
-      <c r="B45" s="50">
+      <c r="K44" s="67"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="38"/>
+      <c r="AS44" s="38"/>
+      <c r="AT44" s="38"/>
+    </row>
+    <row r="45" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="182"/>
+      <c r="B45" s="49">
         <v>2</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="107" t="str">
+      <c r="D45" s="114"/>
+      <c r="E45" s="106" t="str">
         <f>AM20</f>
         <v/>
       </c>
-      <c r="F45" s="50" t="str">
+      <c r="F45" s="49" t="str">
         <f>AM21</f>
         <v/>
       </c>
-      <c r="G45" s="50" t="str">
+      <c r="G45" s="49" t="str">
         <f>AM22</f>
         <v/>
       </c>
-      <c r="H45" s="50" t="str">
+      <c r="H45" s="49" t="str">
         <f>AM23</f>
         <v>X</v>
       </c>
-      <c r="I45" s="50" t="str">
+      <c r="I45" s="49" t="str">
         <f>AM24</f>
         <v/>
       </c>
-      <c r="J45" s="59" t="str">
+      <c r="J45" s="58" t="str">
         <f>AM25</f>
         <v/>
       </c>
-      <c r="K45" s="68"/>
-      <c r="AQ45" s="39"/>
-      <c r="AR45" s="39"/>
-      <c r="AS45" s="39"/>
-      <c r="AT45" s="39"/>
-    </row>
-    <row r="46" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
-      <c r="B46" s="50">
+      <c r="K45" s="67"/>
+      <c r="AQ45" s="38"/>
+      <c r="AR45" s="38"/>
+      <c r="AS45" s="38"/>
+      <c r="AT45" s="38"/>
+    </row>
+    <row r="46" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="182"/>
+      <c r="B46" s="49">
         <v>3</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="107" t="str">
+      <c r="D46" s="114"/>
+      <c r="E46" s="106" t="str">
         <f>AN20</f>
         <v/>
       </c>
-      <c r="F46" s="50" t="str">
+      <c r="F46" s="49" t="str">
         <f>AN21</f>
         <v/>
       </c>
-      <c r="G46" s="50" t="str">
+      <c r="G46" s="49" t="str">
         <f>AN22</f>
         <v>X</v>
       </c>
-      <c r="H46" s="50" t="str">
+      <c r="H46" s="49" t="str">
         <f>AN23</f>
         <v/>
       </c>
-      <c r="I46" s="50" t="str">
+      <c r="I46" s="49" t="str">
         <f>AN24</f>
         <v/>
       </c>
-      <c r="J46" s="59" t="str">
+      <c r="J46" s="58" t="str">
         <f>AN25</f>
         <v/>
       </c>
-      <c r="K46" s="68"/>
-      <c r="AQ46" s="39"/>
-      <c r="AR46" s="39"/>
-      <c r="AS46" s="39"/>
-      <c r="AT46" s="39"/>
-    </row>
-    <row r="47" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="165"/>
-      <c r="B47" s="50">
+      <c r="K46" s="67"/>
+      <c r="AQ46" s="38"/>
+      <c r="AR46" s="38"/>
+      <c r="AS46" s="38"/>
+      <c r="AT46" s="38"/>
+    </row>
+    <row r="47" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="182"/>
+      <c r="B47" s="49">
         <v>4</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="107" t="str">
+      <c r="D47" s="114"/>
+      <c r="E47" s="106" t="str">
         <f>AO20</f>
         <v/>
       </c>
-      <c r="F47" s="50" t="str">
+      <c r="F47" s="49" t="str">
         <f>AO21</f>
         <v/>
       </c>
-      <c r="G47" s="50" t="str">
+      <c r="G47" s="49" t="str">
         <f>AO22</f>
         <v/>
       </c>
-      <c r="H47" s="50" t="str">
+      <c r="H47" s="49" t="str">
         <f>AO23</f>
         <v>X</v>
       </c>
-      <c r="I47" s="50" t="str">
+      <c r="I47" s="49" t="str">
         <f>AO24</f>
         <v/>
       </c>
-      <c r="J47" s="59" t="str">
+      <c r="J47" s="58" t="str">
         <f>AO25</f>
         <v/>
       </c>
-      <c r="K47" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ47" s="39"/>
-      <c r="AR47" s="39"/>
-      <c r="AS47" s="39"/>
-      <c r="AT47" s="39"/>
-    </row>
-    <row r="48" spans="1:46" s="38" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="166"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="64">
+      <c r="K47" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
+      <c r="AS47" s="38"/>
+      <c r="AT47" s="38"/>
+    </row>
+    <row r="48" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="183"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="63">
         <f>AP20</f>
         <v>3.5</v>
       </c>
-      <c r="AQ48" s="39"/>
-      <c r="AR48" s="39"/>
-      <c r="AS48" s="39"/>
-      <c r="AT48" s="39"/>
-    </row>
-    <row r="49" spans="1:46" s="38" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="184"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="184"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="60"/>
-      <c r="AQ49" s="39"/>
-      <c r="AR49" s="39"/>
-      <c r="AS49" s="39"/>
-      <c r="AT49" s="39"/>
-    </row>
-    <row r="50" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="146" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="147"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="74"/>
-      <c r="AQ50" s="39"/>
-      <c r="AR50" s="39"/>
-      <c r="AS50" s="39"/>
-      <c r="AT50" s="39"/>
-    </row>
-    <row r="51" spans="1:46" s="38" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="79"/>
-      <c r="AQ51" s="39"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="39"/>
-      <c r="AT51" s="39"/>
-    </row>
-    <row r="52" spans="1:46" s="38" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="186"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="80">
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+    </row>
+    <row r="49" spans="1:46" s="37" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="201"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
+      <c r="F49" s="201"/>
+      <c r="G49" s="201"/>
+      <c r="H49" s="201"/>
+      <c r="I49" s="201"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="59"/>
+      <c r="AQ49" s="38"/>
+      <c r="AR49" s="38"/>
+      <c r="AS49" s="38"/>
+      <c r="AT49" s="38"/>
+    </row>
+    <row r="50" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="163" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="73"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="38"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+    </row>
+    <row r="51" spans="1:46" s="37" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="74"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="78"/>
+      <c r="AQ51" s="38"/>
+      <c r="AR51" s="38"/>
+      <c r="AS51" s="38"/>
+      <c r="AT51" s="38"/>
+    </row>
+    <row r="52" spans="1:46" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="203"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="79">
         <f>AQ20</f>
         <v>3.75</v>
       </c>
-      <c r="E52" s="81"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="70"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="85">
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="69"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="84">
         <f>D52</f>
         <v>3.75</v>
       </c>
-      <c r="O52" s="69"/>
-      <c r="AQ52" s="39"/>
-      <c r="AR52" s="39"/>
-      <c r="AS52" s="39"/>
-      <c r="AT52" s="39"/>
-    </row>
-    <row r="53" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="180" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="181"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="85">
+      <c r="O52" s="68"/>
+      <c r="AQ52" s="38"/>
+      <c r="AR52" s="38"/>
+      <c r="AS52" s="38"/>
+      <c r="AT52" s="38"/>
+    </row>
+    <row r="53" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="195" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="196"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="84">
         <f>AR20</f>
         <v>3.9</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="85">
+      <c r="E53" s="38"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="84">
         <f>D53</f>
         <v>3.9</v>
       </c>
-      <c r="O53" s="85"/>
-      <c r="AQ53" s="39"/>
-      <c r="AR53" s="39"/>
-      <c r="AS53" s="39"/>
-      <c r="AT53" s="39"/>
-    </row>
-    <row r="54" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="180" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="181"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="85">
+      <c r="O53" s="84"/>
+      <c r="AQ53" s="38"/>
+      <c r="AR53" s="38"/>
+      <c r="AS53" s="38"/>
+      <c r="AT53" s="38"/>
+    </row>
+    <row r="54" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="195" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="196"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="84">
         <f>AS20</f>
         <v>3.6</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="85">
+      <c r="E54" s="38"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="84">
         <f>D54</f>
         <v>3.6</v>
       </c>
-      <c r="O54" s="85"/>
-      <c r="AQ54" s="39"/>
-      <c r="AR54" s="39"/>
-      <c r="AS54" s="39"/>
-      <c r="AT54" s="39"/>
-    </row>
-    <row r="55" spans="1:46" s="39" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="182" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="183"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="88">
+      <c r="O54" s="84"/>
+      <c r="AQ54" s="38"/>
+      <c r="AR54" s="38"/>
+      <c r="AS54" s="38"/>
+      <c r="AT54" s="38"/>
+    </row>
+    <row r="55" spans="1:46" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="199" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="200"/>
+      <c r="C55" s="200"/>
+      <c r="D55" s="87">
         <f>AT20</f>
         <v>3.5</v>
       </c>
-      <c r="E55" s="89"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="70"/>
-      <c r="N55" s="85">
+      <c r="E55" s="88"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="69"/>
+      <c r="N55" s="84">
         <f>D55</f>
         <v>3.5</v>
       </c>
-      <c r="O55" s="69"/>
-    </row>
-    <row r="56" spans="1:46" s="39" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="63"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-    </row>
-    <row r="57" spans="1:46" s="39" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-    </row>
-    <row r="58" spans="1:46" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="93" t="s">
+      <c r="O55" s="68"/>
+    </row>
+    <row r="56" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="85"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="62"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+    </row>
+    <row r="57" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="77"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+    </row>
+    <row r="58" spans="1:46" s="37" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="AQ58" s="38"/>
+      <c r="AR58" s="38"/>
+      <c r="AS58" s="38"/>
+      <c r="AT58" s="38"/>
+    </row>
+    <row r="59" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="77"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="AQ59" s="38"/>
+      <c r="AR59" s="38"/>
+      <c r="AS59" s="38"/>
+      <c r="AT59" s="38"/>
+    </row>
+    <row r="60" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="59"/>
+      <c r="B60" s="49">
+        <v>1</v>
+      </c>
+      <c r="C60" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="194"/>
+      <c r="E60" s="194"/>
+      <c r="F60" s="194"/>
+      <c r="G60" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="AQ58" s="39"/>
-      <c r="AR58" s="39"/>
-      <c r="AS58" s="39"/>
-      <c r="AT58" s="39"/>
-    </row>
-    <row r="59" spans="1:46" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="124"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="39"/>
-    </row>
-    <row r="60" spans="1:46" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
-      <c r="B60" s="50">
-        <v>1</v>
-      </c>
-      <c r="C60" s="169" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="169"/>
-      <c r="E60" s="169"/>
-      <c r="F60" s="169"/>
-      <c r="G60" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="39"/>
-    </row>
-    <row r="61" spans="1:46" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
-      <c r="B61" s="50">
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="AQ60" s="38"/>
+      <c r="AR60" s="38"/>
+      <c r="AS60" s="38"/>
+      <c r="AT60" s="38"/>
+    </row>
+    <row r="61" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="59"/>
+      <c r="B61" s="49">
         <v>2</v>
       </c>
-      <c r="C61" s="169" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="69"/>
-      <c r="AQ61" s="39"/>
-      <c r="AR61" s="39"/>
-      <c r="AS61" s="39"/>
-      <c r="AT61" s="39"/>
-    </row>
-    <row r="62" spans="1:46" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="60"/>
-      <c r="B62" s="50">
+      <c r="C61" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="194"/>
+      <c r="E61" s="194"/>
+      <c r="F61" s="194"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="38"/>
+      <c r="AS61" s="38"/>
+      <c r="AT61" s="38"/>
+    </row>
+    <row r="62" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="59"/>
+      <c r="B62" s="49">
         <v>3</v>
       </c>
-      <c r="C62" s="169" t="s">
+      <c r="C62" s="194" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="194"/>
+      <c r="E62" s="194"/>
+      <c r="F62" s="194"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="38"/>
+      <c r="AT62" s="38"/>
+    </row>
+    <row r="63" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="59"/>
+      <c r="B63" s="49">
+        <v>4</v>
+      </c>
+      <c r="C63" s="194" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="194"/>
+      <c r="E63" s="194"/>
+      <c r="F63" s="194"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="AQ63" s="38"/>
+      <c r="AR63" s="38"/>
+      <c r="AS63" s="38"/>
+      <c r="AT63" s="38"/>
+    </row>
+    <row r="64" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="59"/>
+      <c r="B64" s="49">
+        <v>5</v>
+      </c>
+      <c r="C64" s="194" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="194"/>
+      <c r="E64" s="194"/>
+      <c r="F64" s="194"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="AQ64" s="38"/>
+      <c r="AR64" s="38"/>
+      <c r="AS64" s="38"/>
+      <c r="AT64" s="38"/>
+    </row>
+    <row r="65" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="124"/>
+      <c r="B65" s="49">
+        <v>6</v>
+      </c>
+      <c r="C65" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="194"/>
+      <c r="E65" s="194"/>
+      <c r="F65" s="194"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="124"/>
+      <c r="B66" s="49">
+        <v>7</v>
+      </c>
+      <c r="C66" s="194" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="194"/>
+      <c r="E66" s="194"/>
+      <c r="F66" s="194"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+    </row>
+    <row r="67" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="124"/>
+      <c r="B67" s="49">
+        <v>8</v>
+      </c>
+      <c r="C67" s="194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="194"/>
+      <c r="E67" s="194"/>
+      <c r="F67" s="194"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+    </row>
+    <row r="68" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="125"/>
+      <c r="B68" s="49">
+        <v>9</v>
+      </c>
+      <c r="C68" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
-      <c r="AQ62" s="39"/>
-      <c r="AR62" s="39"/>
-      <c r="AS62" s="39"/>
-      <c r="AT62" s="39"/>
-    </row>
-    <row r="63" spans="1:46" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="60"/>
-      <c r="B63" s="50">
-        <v>4</v>
-      </c>
-      <c r="C63" s="169" t="s">
+      <c r="D68" s="194"/>
+      <c r="E68" s="194"/>
+      <c r="F68" s="194"/>
+      <c r="G68" s="127"/>
+    </row>
+    <row r="69" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="125"/>
+      <c r="B69" s="49">
+        <v>10</v>
+      </c>
+      <c r="C69" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="69"/>
-      <c r="AQ63" s="39"/>
-      <c r="AR63" s="39"/>
-      <c r="AS63" s="39"/>
-      <c r="AT63" s="39"/>
-    </row>
-    <row r="64" spans="1:46" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="60"/>
-      <c r="B64" s="50">
-        <v>5</v>
-      </c>
-      <c r="C64" s="169" t="s">
+      <c r="D69" s="194"/>
+      <c r="E69" s="194"/>
+      <c r="F69" s="194"/>
+      <c r="G69" s="127"/>
+    </row>
+    <row r="70" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="125"/>
+      <c r="B70" s="49">
+        <v>11</v>
+      </c>
+      <c r="C70" s="194" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="194"/>
+      <c r="E70" s="194"/>
+      <c r="F70" s="194"/>
+      <c r="G70" s="127"/>
+    </row>
+    <row r="71" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="125"/>
+      <c r="B71" s="49">
+        <v>12</v>
+      </c>
+      <c r="C71" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="169"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="69"/>
-      <c r="AQ64" s="39"/>
-      <c r="AR64" s="39"/>
-      <c r="AS64" s="39"/>
-      <c r="AT64" s="39"/>
-    </row>
-    <row r="65" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="125"/>
-      <c r="B65" s="50">
-        <v>6</v>
-      </c>
-      <c r="C65" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="169"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-    </row>
-    <row r="66" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="125"/>
-      <c r="B66" s="50">
-        <v>7</v>
-      </c>
-      <c r="C66" s="169" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="169"/>
-      <c r="E66" s="169"/>
-      <c r="F66" s="169"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-    </row>
-    <row r="67" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="125"/>
-      <c r="B67" s="50">
-        <v>8</v>
-      </c>
-      <c r="C67" s="169" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="169"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-    </row>
-    <row r="68" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="126"/>
-      <c r="B68" s="50">
-        <v>9</v>
-      </c>
-      <c r="C68" s="169" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="128"/>
-    </row>
-    <row r="69" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="126"/>
-      <c r="B69" s="50">
-        <v>10</v>
-      </c>
-      <c r="C69" s="169" t="s">
-        <v>109</v>
-      </c>
-      <c r="D69" s="169"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="169"/>
-      <c r="G69" s="128"/>
-    </row>
-    <row r="70" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="126"/>
-      <c r="B70" s="50">
-        <v>11</v>
-      </c>
-      <c r="C70" s="169" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="169"/>
-      <c r="E70" s="169"/>
-      <c r="F70" s="169"/>
-      <c r="G70" s="128"/>
-    </row>
-    <row r="71" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="126"/>
-      <c r="B71" s="50">
-        <v>12</v>
-      </c>
-      <c r="C71" s="169" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="169"/>
-      <c r="E71" s="169"/>
-      <c r="F71" s="169"/>
-      <c r="G71" s="50" t="s">
-        <v>126</v>
+      <c r="D71" s="194"/>
+      <c r="E71" s="194"/>
+      <c r="F71" s="194"/>
+      <c r="G71" s="49" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="H73" s="127"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="127"/>
-      <c r="L73" s="127"/>
-      <c r="M73" s="127"/>
-      <c r="N73" s="127"/>
-      <c r="O73" s="127"/>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="127"/>
+        <v>37</v>
+      </c>
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="126"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="126"/>
+      <c r="M73" s="126"/>
+      <c r="N73" s="126"/>
+      <c r="O73" s="126"/>
+      <c r="P73" s="126"/>
+      <c r="Q73" s="126"/>
       <c r="R73" s="23"/>
     </row>
     <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
-      <c r="F74" s="126"/>
+      <c r="F74" s="125"/>
       <c r="G74" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
@@ -13139,18 +13155,18 @@
     <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13174,24 +13190,20 @@
     <mergeCell ref="C68:F68"/>
     <mergeCell ref="C69:F69"/>
     <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A55:C55"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A17:C19"/>
@@ -13200,6 +13212,10 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13213,58 +13229,5 @@
     <brk id="56" max="10" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.8" shapeId="6146" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.8" shapeId="6146" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Picture.8" shapeId="6170" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Picture.8" shapeId="6170" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
--- a/storage/app/templates/laporan_template.xlsx
+++ b/storage/app/templates/laporan_template.xlsx
@@ -1,50 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\pmo-project\storage\app\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E9ADC-F238-47E4-9E4A-5727B494A4E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Psikogram" sheetId="2" r:id="rId1"/>
-    <sheet name="x" sheetId="6" r:id="rId2"/>
+    <sheet name="Psikogram" sheetId="1" r:id="rId1"/>
+    <sheet name="x" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Psikogram!$A$13:$BM$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Psikogram!$A$1:$AX$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">x!$A$1:$K$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Psikogram!$13:$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
+  <si>
+    <t>NO</t>
+  </si>
   <si>
     <t>Nama</t>
+  </si>
+  <si>
+    <t>NIP</t>
+  </si>
+  <si>
+    <t>Unit Kerja</t>
+  </si>
+  <si>
+    <t>Tingkat Pendidikan</t>
+  </si>
+  <si>
+    <t>Tempat Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>Tujuan Pemeriksaan</t>
+  </si>
+  <si>
+    <t>Tanggal Pelaksanaan</t>
+  </si>
+  <si>
+    <t>A. Fungsi Kognitif</t>
+  </si>
+  <si>
+    <t>B. Fungsi Interaksional</t>
+  </si>
+  <si>
+    <t>C. Fungsi Emosional</t>
+  </si>
+  <si>
+    <t>D. Fungsi Sikap Kerja</t>
+  </si>
+  <si>
+    <t>E. Fungsi Manajerial</t>
+  </si>
+  <si>
+    <t>Nilai Prediksi</t>
+  </si>
+  <si>
+    <t>Rekomendasi</t>
+  </si>
+  <si>
+    <t>PROGRAM PENGEMBANGAN</t>
+  </si>
+  <si>
+    <t>Taraf Kecerdasan Umum</t>
   </si>
   <si>
     <t>Daya Nalar</t>
   </si>
   <si>
-    <t>Penempatan Diri</t>
+    <t>Daya Asosiasi</t>
   </si>
   <si>
-    <t>Percaya Diri</t>
-  </si>
-  <si>
-    <t>Daya Kooperatif</t>
-  </si>
-  <si>
-    <t>Penelusuran Kompetensi</t>
-  </si>
-  <si>
-    <t>D. Fungsi Sikap Kerja</t>
-  </si>
-  <si>
-    <t>Taraf Kecerdasan Umum</t>
+    <t>Daya Analitis</t>
   </si>
   <si>
     <t>Daya Abstraksi</t>
@@ -59,22 +103,58 @@
     <t>Fleksibilitas Berpikir</t>
   </si>
   <si>
-    <t>A. Fungsi Kognitif</t>
+    <t>Rata - rata</t>
   </si>
   <si>
-    <t>B. Fungsi Interaksional</t>
+    <t>Penempatan Diri</t>
   </si>
   <si>
-    <t>C. Fungsi Emosional</t>
+    <t>Percaya Diri</t>
+  </si>
+  <si>
+    <t>Daya Kooperatif</t>
+  </si>
+  <si>
+    <t>Penyesuaian Perasaan</t>
+  </si>
+  <si>
+    <t>Rata -rata</t>
+  </si>
+  <si>
+    <t>Stabilitas Emosi</t>
   </si>
   <si>
     <t>Toleransi terhadap Stress</t>
+  </si>
+  <si>
+    <t>Pengendalian Diri</t>
+  </si>
+  <si>
+    <t>Kemantapan Konsentrasi</t>
+  </si>
+  <si>
+    <t>Hasrat Berpretasi</t>
+  </si>
+  <si>
+    <t>Daya Tahan</t>
   </si>
   <si>
     <t>Potensi Energi Kerja</t>
   </si>
   <si>
     <t>Pengerahan Energi Kerja</t>
+  </si>
+  <si>
+    <t>A. Potensi Keberhasilan</t>
+  </si>
+  <si>
+    <t>B. Potensi Pengembangan Diri</t>
+  </si>
+  <si>
+    <t>C. Loyalitas Terhadap Tugas</t>
+  </si>
+  <si>
+    <t>Konversi</t>
   </si>
   <si>
     <t>Efektivitas Perencanaan</t>
@@ -89,63 +169,6 @@
     <t>Kekuatan Pengawasan</t>
   </si>
   <si>
-    <t>E. Fungsi Manajerial</t>
-  </si>
-  <si>
-    <t>No :</t>
-  </si>
-  <si>
-    <t>Tempat/tgl lahir</t>
-  </si>
-  <si>
-    <t>Tujuan pemeriksaan</t>
-  </si>
-  <si>
-    <t>Pendidikan</t>
-  </si>
-  <si>
-    <t>Tanggal pemeriksaan</t>
-  </si>
-  <si>
-    <t>Rendah</t>
-  </si>
-  <si>
-    <t>Sedang</t>
-  </si>
-  <si>
-    <t>Tinggi</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Penyesuaian perasaan</t>
-  </si>
-  <si>
-    <t>Stabilitas emosi</t>
-  </si>
-  <si>
-    <t>Hasrat berprestasi</t>
-  </si>
-  <si>
-    <t>Daya tahan</t>
-  </si>
-  <si>
-    <t>PROFIL</t>
-  </si>
-  <si>
-    <t>Mengetahui,</t>
-  </si>
-  <si>
-    <t>Toleransi terhadap stress</t>
-  </si>
-  <si>
-    <t>A. POTENSI KEBERHASILAN</t>
-  </si>
-  <si>
-    <t>B. POTENSI PENGEMBANGAN DIRI</t>
-  </si>
-  <si>
     <t>POTENSI KEBERHASILAN</t>
   </si>
   <si>
@@ -156,102 +179,6 @@
   </si>
   <si>
     <t>EFEKTIVITAS MANAJERIAL</t>
-  </si>
-  <si>
-    <t>C. LOYALITAS TERHADAP TUGAS</t>
-  </si>
-  <si>
-    <t>D. EFEKTIVITAS MANAJERIAL</t>
-  </si>
-  <si>
-    <t>Penyesuaian Perasaan</t>
-  </si>
-  <si>
-    <t>Stabilitas Emosi</t>
-  </si>
-  <si>
-    <t>Pengendalian Diri</t>
-  </si>
-  <si>
-    <t>Kemantapan Konsentrasi</t>
-  </si>
-  <si>
-    <t>Hasrat Berpretasi</t>
-  </si>
-  <si>
-    <t>Daya Tahan</t>
-  </si>
-  <si>
-    <t>Rata - rata</t>
-  </si>
-  <si>
-    <t>Rata -rata</t>
-  </si>
-  <si>
-    <t>Rekomendasi</t>
-  </si>
-  <si>
-    <t>Nilai Prediksi</t>
-  </si>
-  <si>
-    <t>Jabatan</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
-    <t>Unit Kerja</t>
-  </si>
-  <si>
-    <t>Daya Analitis</t>
-  </si>
-  <si>
-    <t>Daya Asosiasi</t>
-  </si>
-  <si>
-    <t>Tingkat Pendidikan</t>
-  </si>
-  <si>
-    <t>Tanggal Pelaksanaan</t>
-  </si>
-  <si>
-    <t>Tempat Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Tujuan Pemeriksaan</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>ASPEK PSIKOLOGIS</t>
-  </si>
-  <si>
-    <t>RATING</t>
-  </si>
-  <si>
-    <t>Nopeg. 106 000 589</t>
-  </si>
-  <si>
-    <t>A. Potensi Keberhasilan</t>
-  </si>
-  <si>
-    <t>B. Potensi Pengembangan Diri</t>
-  </si>
-  <si>
-    <t>C. Loyalitas Terhadap Tugas</t>
-  </si>
-  <si>
-    <t>Konversi</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>PROGRAM PENGEMBANGAN</t>
   </si>
   <si>
     <t>POLICY DEPLOYMENT</t>
@@ -299,22 +226,136 @@
     <t>TIME MANAGEMEN T</t>
   </si>
   <si>
-    <t>TIME MANAGEMENT</t>
+    <t>Aditya Gleason II</t>
   </si>
   <si>
-    <t>Kepala UPT PMO ITB</t>
+    <t>049369780057157125</t>
   </si>
   <si>
-    <t xml:space="preserve">Yassierli, ST.,MT.,Ph.D. </t>
+    <t>UPT Layanan Kesehatan</t>
   </si>
   <si>
-    <t>NIP. 19760422 199903 1 003</t>
+    <t>SMP</t>
   </si>
   <si>
-    <t>Kepala Bidang Asesmen</t>
+    <t>1972-01-08</t>
   </si>
   <si>
-    <t>Satiarsiatun</t>
+    <t>Staf</t>
+  </si>
+  <si>
+    <t>Temporibus qui aliquam porro aut mollitia.</t>
+  </si>
+  <si>
+    <t>2013-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>INSTITUT TEKNOLOGI BANDUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPT PENGEMBANGAN MANUSIA DAN ORGANISASI </t>
+  </si>
+  <si>
+    <t>Gedung Sabuga ITB, Lt. III, JL. Tamansari No.73 Bandung 40132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telp/Fax. (022) 2532081 </t>
+  </si>
+  <si>
+    <t>No :</t>
+  </si>
+  <si>
+    <t>Tempat/tgl lahir</t>
+  </si>
+  <si>
+    <t>Tujuan pemeriksaan</t>
+  </si>
+  <si>
+    <t>Pendidikan</t>
+  </si>
+  <si>
+    <t>Tanggal pemeriksaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASIL ASESMEN PSIKOLOGI </t>
+  </si>
+  <si>
+    <t>ASPEK PSIKOLOGIS</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>Rendah</t>
+  </si>
+  <si>
+    <t>Sedang</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Efisiensi Kecerdasan</t>
+  </si>
+  <si>
+    <t>Daya Antisipasi</t>
+  </si>
+  <si>
+    <t>Kemandirian Berpikir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleksibilitas </t>
+  </si>
+  <si>
+    <t>Daya Tangkap</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Penyesuaian perasaan</t>
+  </si>
+  <si>
+    <t>Stabilitas emosi</t>
+  </si>
+  <si>
+    <t>Toleransi terhadap stress</t>
+  </si>
+  <si>
+    <t>Hasrat berprestasi</t>
+  </si>
+  <si>
+    <t>Daya tahan</t>
+  </si>
+  <si>
+    <t>Keteratuaran Kerja</t>
+  </si>
+  <si>
+    <t>PROFIL</t>
+  </si>
+  <si>
+    <t>A. POTENSI KEBERHASILAN</t>
+  </si>
+  <si>
+    <t>B. POTENSI PENGEMBANGAN DIRI</t>
+  </si>
+  <si>
+    <t>C. LOYALITAS TERHADAP TUGAS</t>
+  </si>
+  <si>
+    <t>D. EFEKTIVITAS MANAJERIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REKOMENDASI PROGRAM PELATIHAN </t>
+  </si>
+  <si>
+    <t>STRATEGIC MANAGEMENT</t>
+  </si>
+  <si>
+    <t>PERFORMANCE MANAGEMENT</t>
   </si>
   <si>
     <t>ACHIEVEMENT MOTIVATION TRAINING</t>
@@ -338,149 +379,75 @@
     <t>STRESS MANAGEMENT</t>
   </si>
   <si>
+    <t>TIME MANAGEMENT</t>
+  </si>
+  <si>
     <t>EXTRA ORDINARY PRODUCTIVITY</t>
   </si>
   <si>
-    <t>1977-08-28</t>
-  </si>
-  <si>
-    <t>Efisiensi Kecerdasan</t>
-  </si>
-  <si>
-    <t>Daya Antisipasi</t>
-  </si>
-  <si>
-    <t>Kemandirian Berpikir</t>
-  </si>
-  <si>
-    <t>Daya Tangkap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleksibilitas </t>
-  </si>
-  <si>
-    <t>Keteratuaran Kerja</t>
-  </si>
-  <si>
-    <t>STRATEGIC MANAGEMENT</t>
-  </si>
-  <si>
-    <t>PERFORMANCE MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HASIL ASESMEN PSIKOLOGI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REKOMENDASI PROGRAM PELATIHAN </t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>Administrasi</t>
-  </si>
-  <si>
-    <t>6 Februari 2020</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>Mengetahui,</t>
   </si>
   <si>
     <t>Bandung, 16 Maret 2020</t>
   </si>
   <si>
-    <t>INSTITUT TEKNOLOGI BANDUNG</t>
+    <t>Kepala UPT PMO ITB</t>
   </si>
   <si>
-    <t xml:space="preserve">UPT PENGEMBANGAN MANUSIA DAN ORGANISASI </t>
+    <t>Kepala Bidang Asesmen</t>
   </si>
   <si>
-    <t>Gedung Sabuga ITB, Lt. III, JL. Tamansari No.73 Bandung 40132</t>
+    <t xml:space="preserve">Yassierli, ST.,MT.,Ph.D. </t>
   </si>
   <si>
-    <t xml:space="preserve">Telp/Fax. (022) 2532081 </t>
+    <t>Satiarsiatun</t>
+  </si>
+  <si>
+    <t>NIP. 19760422 199903 1 003</t>
+  </si>
+  <si>
+    <t>Nopeg. 106 000 589</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -488,35 +455,52 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -528,17 +512,46 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,9 +559,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -562,16 +578,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,206 +596,206 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -789,40 +805,40 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -833,29 +849,29 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -863,97 +879,97 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -962,7 +978,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -970,10 +986,10 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -982,127 +998,77 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,625 +1076,711 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="210">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="7"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="7"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Psikogram Pejabat UKS" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{F09113F7-14DC-4945-A094-898022D38544}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1746,10 +1798,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9455252918287941E-2"/>
-          <c:y val="6.0240963855421721E-2"/>
-          <c:w val="0.9649805447470815"/>
-          <c:h val="0.89156626506024028"/>
+          <c:x val="1.9455252918288E-2"/>
+          <c:y val="6.0240963855421999E-2"/>
+          <c:w val="0.96498054474707995"/>
+          <c:h val="0.89156626506023995"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1759,17 +1811,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9999FF"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -1778,20 +1819,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.75</c:v>
+                  <c:v>3.2250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9</c:v>
+                  <c:v>2.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6</c:v>
+                  <c:v>2.7250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52F8-44C9-BC1E-06F4BA883960}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1802,28 +1848,29 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="244600832"/>
-        <c:axId val="238282432"/>
+        <c:axId val="75091328"/>
+        <c:axId val="75089408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244600832"/>
+        <c:axId val="75091328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238282432"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="75089408"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238282432"/>
+        <c:axId val="75089408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1833,157 +1880,71 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244600832"/>
+        <c:crossAx val="75089408"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9525">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1790700</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>438150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466725" cy="638175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1999,7 +1960,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6250" name="Chart 1"/>
+        <xdr:cNvPr id="2050" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2010,65 +1977,10 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>610870</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="142875" y="123825"/>
-          <a:ext cx="467995" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2360,14 +2272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BN121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="AD16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BC16" sqref="BC16"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="29" ySplit="15" topLeftCell="AD16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2401,7 +2313,7 @@
     <col min="54" max="58" width="7.140625" style="9" customWidth="1"/>
     <col min="59" max="59" width="7.5703125" style="4" customWidth="1"/>
     <col min="60" max="65" width="7.5703125" style="7" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="1"/>
+    <col min="66" max="66" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,7 +2380,7 @@
       <c r="AR4" s="23"/>
       <c r="AS4" s="23"/>
     </row>
-    <row r="5" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -2488,58 +2400,58 @@
     <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="129"/>
-      <c r="AJ9" s="129"/>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="129"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="129"/>
-      <c r="AO9" s="129"/>
-      <c r="AP9" s="129"/>
-      <c r="AQ9" s="129"/>
-      <c r="AR9" s="129"/>
-      <c r="AS9" s="129"/>
-      <c r="AT9" s="129"/>
-      <c r="AU9" s="129"/>
-      <c r="AV9" s="129"/>
-      <c r="AW9" s="129"/>
-      <c r="AX9" s="129"/>
-      <c r="AY9" s="129"/>
-      <c r="AZ9" s="128"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="128"/>
+      <c r="AJ9" s="128"/>
+      <c r="AK9" s="128"/>
+      <c r="AL9" s="128"/>
+      <c r="AM9" s="128"/>
+      <c r="AN9" s="128"/>
+      <c r="AO9" s="128"/>
+      <c r="AP9" s="128"/>
+      <c r="AQ9" s="128"/>
+      <c r="AR9" s="128"/>
+      <c r="AS9" s="128"/>
+      <c r="AT9" s="128"/>
+      <c r="AU9" s="128"/>
+      <c r="AV9" s="128"/>
+      <c r="AW9" s="128"/>
+      <c r="AX9" s="128"/>
+      <c r="AY9" s="128"/>
+      <c r="AZ9" s="127"/>
       <c r="BA9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="10"/>
@@ -2550,58 +2462,58 @@
       <c r="BM9" s="10"/>
     </row>
     <row r="10" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="130"/>
-      <c r="AK10" s="130"/>
-      <c r="AL10" s="130"/>
-      <c r="AM10" s="130"/>
-      <c r="AN10" s="130"/>
-      <c r="AO10" s="130"/>
-      <c r="AP10" s="130"/>
-      <c r="AQ10" s="130"/>
-      <c r="AR10" s="130"/>
-      <c r="AS10" s="130"/>
-      <c r="AT10" s="130"/>
-      <c r="AU10" s="130"/>
-      <c r="AV10" s="130"/>
-      <c r="AW10" s="130"/>
-      <c r="AX10" s="130"/>
-      <c r="AY10" s="130"/>
-      <c r="AZ10" s="130"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="129"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="129"/>
+      <c r="AO10" s="129"/>
+      <c r="AP10" s="129"/>
+      <c r="AQ10" s="129"/>
+      <c r="AR10" s="129"/>
+      <c r="AS10" s="129"/>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="129"/>
+      <c r="AV10" s="129"/>
+      <c r="AW10" s="129"/>
+      <c r="AX10" s="129"/>
+      <c r="AY10" s="129"/>
+      <c r="AZ10" s="129"/>
       <c r="BA10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="10"/>
@@ -2612,58 +2524,58 @@
       <c r="BM10" s="10"/>
     </row>
     <row r="11" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="130"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="130"/>
-      <c r="AJ11" s="130"/>
-      <c r="AK11" s="130"/>
-      <c r="AL11" s="130"/>
-      <c r="AM11" s="130"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="130"/>
-      <c r="AR11" s="130"/>
-      <c r="AS11" s="130"/>
-      <c r="AT11" s="130"/>
-      <c r="AU11" s="130"/>
-      <c r="AV11" s="130"/>
-      <c r="AW11" s="130"/>
-      <c r="AX11" s="130"/>
-      <c r="AY11" s="130"/>
-      <c r="AZ11" s="130"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="129"/>
+      <c r="AK11" s="129"/>
+      <c r="AL11" s="129"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="129"/>
+      <c r="AO11" s="129"/>
+      <c r="AP11" s="129"/>
+      <c r="AQ11" s="129"/>
+      <c r="AR11" s="129"/>
+      <c r="AS11" s="129"/>
+      <c r="AT11" s="129"/>
+      <c r="AU11" s="129"/>
+      <c r="AV11" s="129"/>
+      <c r="AW11" s="129"/>
+      <c r="AX11" s="129"/>
+      <c r="AY11" s="129"/>
+      <c r="AZ11" s="129"/>
       <c r="BA11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="10"/>
@@ -2733,291 +2645,291 @@
       <c r="BM12" s="10"/>
     </row>
     <row r="13" spans="1:65" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="158" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="158" t="s">
+      <c r="A13" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="158" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="158" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="158" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="158" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="158" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="158" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="158" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="158" t="s">
+      <c r="B13" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="161" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="161" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="161" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="161"/>
+      <c r="U13" s="161"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="161"/>
+      <c r="AA13" s="161"/>
+      <c r="AB13" s="161"/>
+      <c r="AC13" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="158" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
+      <c r="AD13" s="161"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="161"/>
       <c r="AH13" s="94"/>
       <c r="AI13" s="94"/>
       <c r="AJ13" s="94"/>
       <c r="AK13" s="94"/>
       <c r="AL13" s="94"/>
       <c r="AM13" s="94"/>
-      <c r="AN13" s="158" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO13" s="158"/>
-      <c r="AP13" s="158"/>
-      <c r="AQ13" s="158"/>
-      <c r="AR13" s="158"/>
+      <c r="AN13" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO13" s="161"/>
+      <c r="AP13" s="161"/>
+      <c r="AQ13" s="161"/>
+      <c r="AR13" s="161"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="15"/>
       <c r="AU13" s="15"/>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="159" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX13" s="159" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY13" s="155" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ13" s="156"/>
-      <c r="BA13" s="156"/>
-      <c r="BB13" s="156"/>
-      <c r="BC13" s="156"/>
-      <c r="BD13" s="156"/>
-      <c r="BE13" s="156"/>
-      <c r="BF13" s="157"/>
-      <c r="BG13" s="155" t="s">
-        <v>76</v>
-      </c>
-      <c r="BH13" s="156"/>
-      <c r="BI13" s="156"/>
-      <c r="BJ13" s="156"/>
-      <c r="BK13" s="156"/>
-      <c r="BL13" s="156"/>
-      <c r="BM13" s="157"/>
+      <c r="AW13" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX13" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY13" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ13" s="163"/>
+      <c r="BA13" s="163"/>
+      <c r="BB13" s="163"/>
+      <c r="BC13" s="163"/>
+      <c r="BD13" s="163"/>
+      <c r="BE13" s="163"/>
+      <c r="BF13" s="164"/>
+      <c r="BG13" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH13" s="163"/>
+      <c r="BI13" s="163"/>
+      <c r="BJ13" s="163"/>
+      <c r="BK13" s="163"/>
+      <c r="BL13" s="163"/>
+      <c r="BM13" s="164"/>
     </row>
     <row r="14" spans="1:65" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="158"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
       <c r="J14" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AG14" s="12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AH14" s="95" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="AI14" s="95" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AJ14" s="95" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="AK14" s="96" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="AL14" s="96"/>
       <c r="AM14" s="96" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AN14" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="AO14" s="11" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AQ14" s="11" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AR14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS14" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT14" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU14" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV14" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW14" s="165"/>
+      <c r="AX14" s="165"/>
+      <c r="AY14" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ14" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA14" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="AS14" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT14" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU14" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV14" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW14" s="159"/>
-      <c r="AX14" s="159"/>
-      <c r="AY14" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ14" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA14" s="103" t="s">
-        <v>79</v>
-      </c>
       <c r="BB14" s="103" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="BC14" s="103" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="BD14" s="103" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="BE14" s="103" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="BF14" s="103" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="BG14" s="103" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="BH14" s="103" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="BI14" s="103" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="BJ14" s="103" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="BK14" s="103" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="BL14" s="103" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="BM14" s="103" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
       <c r="J15" s="14">
         <v>1</v>
       </c>
@@ -3119,8 +3031,8 @@
       <c r="AV15" s="90">
         <v>4</v>
       </c>
-      <c r="AW15" s="159"/>
-      <c r="AX15" s="159"/>
+      <c r="AW15" s="165"/>
+      <c r="AX15" s="165"/>
       <c r="AY15" s="14">
         <v>1</v>
       </c>
@@ -3171,154 +3083,154 @@
       <c r="A16" s="17">
         <v>1</v>
       </c>
-      <c r="B16" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="132">
-        <v>12345</v>
-      </c>
-      <c r="D16" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="132" t="s">
+      <c r="B16" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="134" t="s">
-        <v>119</v>
+      <c r="D16" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="133" t="s">
+        <v>71</v>
       </c>
       <c r="H16" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="136" t="s">
-        <v>120</v>
+        <v>72</v>
+      </c>
+      <c r="I16" s="135" t="s">
+        <v>73</v>
       </c>
       <c r="J16" s="99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" s="99">
+        <v>2</v>
+      </c>
+      <c r="L16" s="99">
         <v>4</v>
       </c>
-      <c r="L16" s="99">
-        <v>5</v>
-      </c>
       <c r="M16" s="99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" s="99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O16" s="99">
+        <v>1</v>
+      </c>
+      <c r="P16" s="99">
         <v>3</v>
       </c>
-      <c r="P16" s="99">
-        <v>5</v>
-      </c>
       <c r="Q16" s="99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16" s="100">
         <f>AVERAGE(J16:Q16)</f>
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="S16" s="99">
         <v>3</v>
       </c>
       <c r="T16" s="99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U16" s="99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V16" s="99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W16" s="100">
         <f>AVERAGE(S16:V16)</f>
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="X16" s="99">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="99">
         <v>4</v>
-      </c>
-      <c r="Y16" s="99">
-        <v>2</v>
       </c>
       <c r="Z16" s="99">
         <v>3</v>
       </c>
       <c r="AA16" s="99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="100">
         <f>AVERAGE(X16:AA16)</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AC16" s="99">
         <v>3</v>
       </c>
       <c r="AD16" s="99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="99">
         <v>3</v>
       </c>
       <c r="AF16" s="99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" s="100">
         <f>AVERAGE(AC16:AF16)</f>
-        <v>3.75</v>
-      </c>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="135"/>
-      <c r="AJ16" s="135"/>
-      <c r="AK16" s="135"/>
-      <c r="AL16" s="135"/>
-      <c r="AM16" s="135"/>
+        <v>3.25</v>
+      </c>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="134"/>
+      <c r="AJ16" s="134"/>
+      <c r="AK16" s="134"/>
+      <c r="AL16" s="134"/>
+      <c r="AM16" s="134"/>
       <c r="AN16" s="99">
         <v>3</v>
       </c>
       <c r="AO16" s="99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP16" s="99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ16" s="99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" s="100">
         <f>AVERAGE(AN16:AQ16)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AS16" s="100">
         <f>(2*R16+2*AB16+AG16)/5</f>
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT16" s="100">
         <f>(R16+2*W16+2*AG16)/5</f>
-        <v>3.9</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="AU16" s="100">
         <f>(R16+2*AB16+2*AG16)/5</f>
-        <v>3.6</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="AV16" s="100">
         <f>(R16+2*AB16+2*AR16)/5</f>
-        <v>3.5</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="AW16" s="101">
         <f>AVERAGE(AS16:AV16)</f>
-        <v>3.6875</v>
+        <v>2.9187500000000002</v>
       </c>
       <c r="AX16" s="101" t="str">
         <f>IF(AND(AW16&gt;=5,AW16&lt;=6),"A",IF(AND(AW16&gt;=3,AW16&lt;=4.99),"B",IF(AND(AW16&gt;=2.75,AW16&lt;=2.99),"C",IF(AND(AW16&gt;=2.5,AW16&lt;=2.74),"D",IF(AND(AW16&gt;=1,AW16&lt;=2.5),"E","ADA YANG SALAH")))))</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="AY16" s="102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ16" s="102"/>
       <c r="BA16" s="102"/>
@@ -3331,7 +3243,7 @@
       <c r="BH16" s="102"/>
       <c r="BI16" s="102"/>
       <c r="BJ16" s="102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BK16" s="102"/>
       <c r="BL16" s="102"/>
@@ -10373,7 +10285,11 @@
       <c r="BM121" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="BG13:BM13"/>
@@ -10389,81 +10305,23 @@
     <mergeCell ref="AC13:AG13"/>
     <mergeCell ref="J13:R13"/>
     <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="C13:C15"/>
   </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.43307086614173002" right="0.23622047244093999" top="0.98425196850394003" bottom="0.78740157480314998" header="0.51181102362205" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;"Arial,Bold"&amp;14RAHASIA</oddHeader>
     <oddFooter>&amp;L&amp;"Tahoma,Regular"PPMO: Rekap Hasil Psikotes Penelusuran Kompetensi&amp;R&amp;"Tahoma,Regular"Hal &amp;P dari &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Picture.8" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Picture.8" shapeId="2049" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.8" shapeId="2059" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1790700</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>438150</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.8" shapeId="2059" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10475,7 +10333,7 @@
     <col min="5" max="5" width="6.28515625" style="22" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="89" customWidth="1"/>
     <col min="7" max="11" width="6.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="22"/>
+    <col min="12" max="12" width="9.140625" style="22" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="22" customWidth="1"/>
     <col min="14" max="14" width="4.85546875" style="22" customWidth="1"/>
     <col min="15" max="21" width="3.7109375" style="22" customWidth="1"/>
@@ -10489,73 +10347,73 @@
     <col min="38" max="41" width="3.7109375" style="22" customWidth="1"/>
     <col min="42" max="42" width="4.28515625" style="22" customWidth="1"/>
     <col min="43" max="46" width="4.42578125" style="23" customWidth="1"/>
-    <col min="47" max="47" width="4.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="22"/>
+    <col min="47" max="47" width="4.5703125" style="22" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="205" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="140"/>
+    <row r="1" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="139"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
-        <v>124</v>
+      <c r="A2" s="150" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="144"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="143"/>
     </row>
     <row r="3" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="143"/>
     </row>
     <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="153" t="s">
-        <v>125</v>
+      <c r="A4" s="152" t="s">
+        <v>77</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="148"/>
-    </row>
-    <row r="5" spans="1:46" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="206" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="154"/>
+      <c r="K4" s="147"/>
+    </row>
+    <row r="5" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="153"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -10564,7 +10422,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="149"/>
+      <c r="K5" s="148"/>
     </row>
     <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
@@ -10577,7 +10435,7 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="K6" s="33">
         <f>Psikogram!$A$16</f>
@@ -10625,21 +10483,21 @@
     </row>
     <row r="10" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$B$16)</f>
-        <v>: xxxx</v>
+        <v>: Aditya Gleason II</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="34" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F10" s="34"/>
       <c r="H10" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$C$16)</f>
-        <v>: 12345</v>
+        <v>: 049369780057157125</v>
       </c>
       <c r="AQ10" s="38"/>
       <c r="AR10" s="38"/>
@@ -10648,22 +10506,22 @@
     </row>
     <row r="11" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$F$16)</f>
-        <v>: 1977-08-28</v>
+        <v>: 1972-01-08</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$H$16)</f>
-        <v>: Penelusuran Kompetensi</v>
+        <v>: Temporibus qui aliquam porro aut mollitia.</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -10676,22 +10534,22 @@
     </row>
     <row r="12" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="35" t="str">
         <f>CONCATENATE(": ",Psikogram!$E$16)</f>
-        <v>: S1</v>
+        <v>: SMP</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="40" t="str">
         <f>CONCATENATE(": ",Psikogram!$I$16)</f>
-        <v>: 6 Februari 2020</v>
+        <v>: 2013-12-13 00:00:00</v>
       </c>
       <c r="AQ12" s="38"/>
       <c r="AR12" s="38"/>
@@ -10724,25 +10582,25 @@
       <c r="AT14" s="38"/>
     </row>
     <row r="15" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="162" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
+      <c r="A15" s="178" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="44"/>
       <c r="AQ15" s="38"/>
       <c r="AR15" s="38"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
     </row>
-    <row r="16" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="43"/>
@@ -10760,20 +10618,20 @@
       <c r="AT16" s="38"/>
     </row>
     <row r="17" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
+      <c r="A17" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="182"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="110"/>
-      <c r="E17" s="174" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="176"/>
+      <c r="E17" s="190" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
       <c r="K17" s="41"/>
       <c r="AQ17" s="38"/>
       <c r="AR17" s="38"/>
@@ -10781,32 +10639,32 @@
       <c r="AT17" s="38"/>
     </row>
     <row r="18" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="168"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="186"/>
       <c r="D18" s="111"/>
-      <c r="E18" s="177" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="178"/>
-      <c r="G18" s="179" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="180"/>
-      <c r="I18" s="179" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="181"/>
+      <c r="E18" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="194"/>
+      <c r="G18" s="195" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="196"/>
+      <c r="I18" s="195" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="197"/>
       <c r="K18" s="41"/>
       <c r="AQ18" s="38"/>
       <c r="AR18" s="38"/>
       <c r="AS18" s="38"/>
       <c r="AT18" s="38"/>
     </row>
-    <row r="19" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="171"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
+    <row r="19" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="187"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="112"/>
       <c r="E19" s="46">
         <v>1</v>
@@ -10905,14 +10763,14 @@
       <c r="AT19" s="38"/>
     </row>
     <row r="20" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="184" t="s">
-        <v>12</v>
+      <c r="A20" s="200" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="50">
         <v>1</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D20" s="113"/>
       <c r="E20" s="108" t="str">
@@ -10921,7 +10779,7 @@
       </c>
       <c r="F20" s="52" t="str">
         <f>N21</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G20" s="52" t="str">
         <f>N22</f>
@@ -10933,7 +10791,7 @@
       </c>
       <c r="I20" s="52" t="str">
         <f>N24</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J20" s="53" t="str">
         <f>N25</f>
@@ -10965,7 +10823,7 @@
       </c>
       <c r="S20" s="49" t="str">
         <f>IF(Psikogram!O$16=($M19+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T20" s="49" t="str">
         <f>IF(Psikogram!P$16=($M19+1),"X","")</f>
@@ -10977,7 +10835,7 @@
       </c>
       <c r="V20" s="54">
         <f>Psikogram!R$16</f>
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="W20" s="49" t="str">
         <f>IF(Psikogram!S$16=($M19+1),"X","")</f>
@@ -10997,7 +10855,7 @@
       </c>
       <c r="AA20" s="55">
         <f>Psikogram!W$16</f>
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="AB20" s="49" t="str">
         <f>IF(Psikogram!X$16=($M19+1),"X","")</f>
@@ -11013,11 +10871,11 @@
       </c>
       <c r="AE20" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M19+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AF20" s="55">
         <f>Psikogram!AB$16</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AG20" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M19+1),"X","")</f>
@@ -11037,7 +10895,7 @@
       </c>
       <c r="AK20" s="55">
         <f>Psikogram!AG$16</f>
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AL20" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M19+1),"X","")</f>
@@ -11057,40 +10915,40 @@
       </c>
       <c r="AP20" s="55">
         <f>Psikogram!AR$16</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AQ20" s="55">
         <f>Psikogram!AS$16</f>
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="AR20" s="55">
         <f>Psikogram!AT$16</f>
-        <v>3.9</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="AS20" s="55">
         <f>Psikogram!AU$16</f>
-        <v>3.6</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="AT20" s="55">
         <f>Psikogram!AV$16</f>
-        <v>3.5</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="AU20" s="55">
         <f>Psikogram!AW$16</f>
-        <v>3.6875</v>
+        <v>2.9187500000000002</v>
       </c>
       <c r="AV20" s="55" t="str">
         <f>Psikogram!AX$16</f>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="21" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="185"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="56">
         <v>2</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D21" s="114"/>
       <c r="E21" s="106" t="str">
@@ -11099,7 +10957,7 @@
       </c>
       <c r="F21" s="49" t="str">
         <f>O21</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G21" s="49" t="str">
         <f>O22</f>
@@ -11107,7 +10965,7 @@
       </c>
       <c r="H21" s="49" t="str">
         <f>O23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I21" s="49" t="str">
         <f>O24</f>
@@ -11123,11 +10981,11 @@
       </c>
       <c r="N21" s="49" t="str">
         <f>IF(Psikogram!J$16=($M20+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O21" s="49" t="str">
         <f>IF(Psikogram!K$16=($M20+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P21" s="49" t="str">
         <f>IF(Psikogram!L$16=($M20+1),"X","")</f>
@@ -11151,7 +11009,7 @@
       </c>
       <c r="U21" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M20+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="W21" s="49" t="str">
         <f>IF(Psikogram!S$16=($M20+1),"X","")</f>
@@ -11159,15 +11017,15 @@
       </c>
       <c r="X21" s="49" t="str">
         <f>IF(Psikogram!T$16=($M20+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Y21" s="49" t="str">
         <f>IF(Psikogram!U$16=($M20+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Z21" s="49" t="str">
         <f>IF(Psikogram!V$16=($M20+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AB21" s="49" t="str">
         <f>IF(Psikogram!X$16=($M20+1),"X","")</f>
@@ -11175,7 +11033,7 @@
       </c>
       <c r="AC21" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M20+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AD21" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M20+1),"X","")</f>
@@ -11223,12 +11081,12 @@
       <c r="AT21" s="38"/>
     </row>
     <row r="22" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="185"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="56">
         <v>3</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D22" s="114"/>
       <c r="E22" s="106" t="str">
@@ -11245,11 +11103,11 @@
       </c>
       <c r="H22" s="49" t="str">
         <f>P23</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>P24</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J22" s="58" t="str">
         <f>P25</f>
@@ -11273,7 +11131,7 @@
       </c>
       <c r="Q22" s="49" t="str">
         <f>IF(Psikogram!M$16=($M21+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="R22" s="49" t="str">
         <f>IF(Psikogram!N$16=($M21+1),"X","")</f>
@@ -11281,11 +11139,11 @@
       </c>
       <c r="S22" s="49" t="str">
         <f>IF(Psikogram!O$16=($M21+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="T22" s="49" t="str">
         <f>IF(Psikogram!P$16=($M21+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U22" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M21+1),"X","")</f>
@@ -11309,7 +11167,7 @@
       </c>
       <c r="AB22" s="49" t="str">
         <f>IF(Psikogram!X$16=($M21+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AC22" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M21+1),"X","")</f>
@@ -11321,7 +11179,7 @@
       </c>
       <c r="AE22" s="49" t="str">
         <f>IF(Psikogram!AA$16=($M21+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AG22" s="49" t="str">
         <f>IF(Psikogram!AC$16=($M21+1),"X","")</f>
@@ -11329,7 +11187,7 @@
       </c>
       <c r="AH22" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M21+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AI22" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M21+1),"X","")</f>
@@ -11345,11 +11203,11 @@
       </c>
       <c r="AM22" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M21+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN22" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M21+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AO22" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M21+1),"X","")</f>
@@ -11361,12 +11219,12 @@
       <c r="AT22" s="38"/>
     </row>
     <row r="23" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="185"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="56">
         <v>4</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D23" s="114"/>
       <c r="E23" s="106" t="str">
@@ -11379,7 +11237,7 @@
       </c>
       <c r="G23" s="49" t="str">
         <f>Q22</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H23" s="49" t="str">
         <f>Q23</f>
@@ -11387,7 +11245,7 @@
       </c>
       <c r="I23" s="49" t="str">
         <f>Q24</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J23" s="58" t="str">
         <f>Q25</f>
@@ -11403,11 +11261,11 @@
       </c>
       <c r="O23" s="49" t="str">
         <f>IF(Psikogram!K$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="P23" s="49" t="str">
         <f>IF(Psikogram!L$16=($M22+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q23" s="49" t="str">
         <f>IF(Psikogram!M$16=($M22+1),"X","")</f>
@@ -11415,7 +11273,7 @@
       </c>
       <c r="R23" s="49" t="str">
         <f>IF(Psikogram!N$16=($M22+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S23" s="49" t="str">
         <f>IF(Psikogram!O$16=($M22+1),"X","")</f>
@@ -11427,7 +11285,7 @@
       </c>
       <c r="U23" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="W23" s="49" t="str">
         <f>IF(Psikogram!S$16=($M22+1),"X","")</f>
@@ -11435,23 +11293,23 @@
       </c>
       <c r="X23" s="49" t="str">
         <f>IF(Psikogram!T$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Y23" s="49" t="str">
         <f>IF(Psikogram!U$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Z23" s="49" t="str">
         <f>IF(Psikogram!V$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AB23" s="49" t="str">
         <f>IF(Psikogram!X$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AC23" s="49" t="str">
         <f>IF(Psikogram!Y$16=($M22+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AD23" s="49" t="str">
         <f>IF(Psikogram!Z$16=($M22+1),"X","")</f>
@@ -11467,7 +11325,7 @@
       </c>
       <c r="AH23" s="49" t="str">
         <f>IF(Psikogram!AD$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AI23" s="49" t="str">
         <f>IF(Psikogram!AE$16=($M22+1),"X","")</f>
@@ -11475,7 +11333,7 @@
       </c>
       <c r="AJ23" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M22+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL23" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M22+1),"X","")</f>
@@ -11483,7 +11341,7 @@
       </c>
       <c r="AM23" s="49" t="str">
         <f>IF(Psikogram!AO$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AN23" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M22+1),"X","")</f>
@@ -11491,7 +11349,7 @@
       </c>
       <c r="AO23" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M22+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AQ23" s="38"/>
       <c r="AR23" s="38"/>
@@ -11499,12 +11357,12 @@
       <c r="AT23" s="38"/>
     </row>
     <row r="24" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="185"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="56">
         <v>5</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D24" s="114"/>
       <c r="E24" s="106" t="str">
@@ -11521,11 +11379,11 @@
       </c>
       <c r="H24" s="49" t="str">
         <f>R23</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>R24</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J24" s="58" t="str">
         <f>R25</f>
@@ -11537,7 +11395,7 @@
       </c>
       <c r="N24" s="49" t="str">
         <f>IF(Psikogram!J$16=($M23+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="O24" s="49" t="str">
         <f>IF(Psikogram!K$16=($M23+1),"X","")</f>
@@ -11545,15 +11403,15 @@
       </c>
       <c r="P24" s="49" t="str">
         <f>IF(Psikogram!L$16=($M23+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Q24" s="49" t="str">
         <f>IF(Psikogram!M$16=($M23+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="R24" s="49" t="str">
         <f>IF(Psikogram!N$16=($M23+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S24" s="49" t="str">
         <f>IF(Psikogram!O$16=($M23+1),"X","")</f>
@@ -11561,7 +11419,7 @@
       </c>
       <c r="T24" s="49" t="str">
         <f>IF(Psikogram!P$16=($M23+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="U24" s="49" t="str">
         <f>IF(Psikogram!Q$16=($M23+1),"X","")</f>
@@ -11613,7 +11471,7 @@
       </c>
       <c r="AJ24" s="49" t="str">
         <f>IF(Psikogram!AF$16=($M23+1),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="AL24" s="49" t="str">
         <f>IF(Psikogram!AN$16=($M23+1),"X","")</f>
@@ -11625,11 +11483,11 @@
       </c>
       <c r="AN24" s="49" t="str">
         <f>IF(Psikogram!AP$16=($M23+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AO24" s="49" t="str">
         <f>IF(Psikogram!AQ$16=($M23+1),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ24" s="38"/>
       <c r="AR24" s="38"/>
@@ -11637,17 +11495,17 @@
       <c r="AT24" s="38"/>
     </row>
     <row r="25" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="185"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="56">
         <v>6</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D25" s="114"/>
       <c r="E25" s="106" t="str">
         <f>S20</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F25" s="49" t="str">
         <f>S21</f>
@@ -11655,7 +11513,7 @@
       </c>
       <c r="G25" s="49" t="str">
         <f>S22</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H25" s="49" t="str">
         <f>S23</f>
@@ -11774,13 +11632,13 @@
       <c r="AS25" s="38"/>
       <c r="AT25" s="38"/>
     </row>
-    <row r="26" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="186"/>
+    <row r="26" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="202"/>
       <c r="B26" s="56">
         <v>7</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D26" s="114"/>
       <c r="E26" s="106" t="str">
@@ -11793,7 +11651,7 @@
       </c>
       <c r="G26" s="49" t="str">
         <f>T22</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H26" s="49" t="str">
         <f>T23</f>
@@ -11801,7 +11659,7 @@
       </c>
       <c r="I26" s="49" t="str">
         <f>T24</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J26" s="58" t="str">
         <f>T25</f>
@@ -11838,12 +11696,12 @@
       <c r="AT26" s="38"/>
     </row>
     <row r="27" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="187"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="56">
         <v>8</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D27" s="114"/>
       <c r="E27" s="106" t="str">
@@ -11852,7 +11710,7 @@
       </c>
       <c r="F27" s="49" t="str">
         <f>U21</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G27" s="49" t="str">
         <f>U22</f>
@@ -11860,7 +11718,7 @@
       </c>
       <c r="H27" s="49" t="str">
         <f>U23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I27" s="49" t="str">
         <f>U24</f>
@@ -11871,7 +11729,7 @@
         <v/>
       </c>
       <c r="K27" s="116" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M27" s="59"/>
       <c r="N27" s="59"/>
@@ -11903,8 +11761,8 @@
       <c r="AS27" s="38"/>
       <c r="AT27" s="38"/>
     </row>
-    <row r="28" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="188"/>
+    <row r="28" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="204"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
       <c r="D28" s="62"/>
@@ -11916,7 +11774,7 @@
       <c r="J28" s="62"/>
       <c r="K28" s="105">
         <f>V20</f>
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="AQ28" s="38"/>
       <c r="AR28" s="38"/>
@@ -11924,14 +11782,14 @@
       <c r="AT28" s="38"/>
     </row>
     <row r="29" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="189" t="s">
-        <v>13</v>
+      <c r="A29" s="205" t="s">
+        <v>10</v>
       </c>
       <c r="B29" s="52">
         <v>1</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D29" s="113"/>
       <c r="E29" s="108" t="str">
@@ -11965,12 +11823,12 @@
       <c r="AT29" s="38"/>
     </row>
     <row r="30" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="190"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="49">
         <v>2</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D30" s="114"/>
       <c r="E30" s="106" t="str">
@@ -11979,7 +11837,7 @@
       </c>
       <c r="F30" s="49" t="str">
         <f>X21</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G30" s="49" t="str">
         <f>X22</f>
@@ -11987,7 +11845,7 @@
       </c>
       <c r="H30" s="49" t="str">
         <f>X23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I30" s="49" t="str">
         <f>X24</f>
@@ -12003,13 +11861,13 @@
       <c r="AS30" s="38"/>
       <c r="AT30" s="38"/>
     </row>
-    <row r="31" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="190"/>
+    <row r="31" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="206"/>
       <c r="B31" s="49">
         <v>3</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D31" s="114"/>
       <c r="E31" s="106" t="str">
@@ -12018,7 +11876,7 @@
       </c>
       <c r="F31" s="49" t="str">
         <f>Y21</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G31" s="49" t="str">
         <f>Y22</f>
@@ -12026,7 +11884,7 @@
       </c>
       <c r="H31" s="49" t="str">
         <f>Y23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I31" s="49" t="str">
         <f>Y24</f>
@@ -12043,12 +11901,12 @@
       <c r="AT31" s="38"/>
     </row>
     <row r="32" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="190"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="49">
         <v>4</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D32" s="114"/>
       <c r="E32" s="106" t="str">
@@ -12057,7 +11915,7 @@
       </c>
       <c r="F32" s="49" t="str">
         <f>Z21</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G32" s="49" t="str">
         <f>Z22</f>
@@ -12065,7 +11923,7 @@
       </c>
       <c r="H32" s="49" t="str">
         <f>Z23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I32" s="49" t="str">
         <f>Z24</f>
@@ -12076,15 +11934,15 @@
         <v/>
       </c>
       <c r="K32" s="116" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="AQ32" s="38"/>
       <c r="AR32" s="38"/>
       <c r="AS32" s="38"/>
       <c r="AT32" s="38"/>
     </row>
-    <row r="33" spans="1:46" s="37" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="191"/>
+    <row r="33" spans="1:46" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="207"/>
       <c r="B33" s="60"/>
       <c r="C33" s="61"/>
       <c r="D33" s="62"/>
@@ -12096,7 +11954,7 @@
       <c r="J33" s="62"/>
       <c r="K33" s="105">
         <f>AA20</f>
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33" s="38"/>
       <c r="AR33" s="38"/>
@@ -12104,16 +11962,16 @@
       <c r="AT33" s="38"/>
     </row>
     <row r="34" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="189" t="s">
-        <v>14</v>
+      <c r="A34" s="205" t="s">
+        <v>11</v>
       </c>
       <c r="B34" s="52">
         <v>1</v>
       </c>
-      <c r="C34" s="160" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="161"/>
+      <c r="C34" s="176" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="177"/>
       <c r="E34" s="108" t="str">
         <f>AB20</f>
         <v/>
@@ -12124,11 +11982,11 @@
       </c>
       <c r="G34" s="52" t="str">
         <f>AB22</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H34" s="52" t="str">
         <f>AB23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I34" s="52" t="str">
         <f>AB24</f>
@@ -12145,21 +12003,21 @@
       <c r="AT34" s="38"/>
     </row>
     <row r="35" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="190"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="49">
         <v>2</v>
       </c>
-      <c r="C35" s="197" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="198"/>
+      <c r="C35" s="169" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="170"/>
       <c r="E35" s="106" t="str">
         <f>AC20</f>
         <v/>
       </c>
       <c r="F35" s="49" t="str">
         <f>AC21</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G35" s="49" t="str">
         <f>AC22</f>
@@ -12167,7 +12025,7 @@
       </c>
       <c r="H35" s="49" t="str">
         <f>AC23</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>AC24</f>
@@ -12183,15 +12041,15 @@
       <c r="AS35" s="38"/>
       <c r="AT35" s="38"/>
     </row>
-    <row r="36" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="190"/>
+    <row r="36" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="206"/>
       <c r="B36" s="49">
         <v>3</v>
       </c>
-      <c r="C36" s="197" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="198"/>
+      <c r="C36" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="170"/>
       <c r="E36" s="106" t="str">
         <f>AD20</f>
         <v/>
@@ -12223,17 +12081,17 @@
       <c r="AT36" s="38"/>
     </row>
     <row r="37" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="190"/>
+      <c r="A37" s="206"/>
       <c r="B37" s="49">
         <v>4</v>
       </c>
-      <c r="C37" s="197" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="198"/>
+      <c r="C37" s="169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="170"/>
       <c r="E37" s="106" t="str">
         <f>AE20</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F37" s="49" t="str">
         <f>AE21</f>
@@ -12241,7 +12099,7 @@
       </c>
       <c r="G37" s="49" t="str">
         <f>AE22</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H37" s="49" t="str">
         <f>AE23</f>
@@ -12256,15 +12114,15 @@
         <v/>
       </c>
       <c r="K37" s="116" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="AQ37" s="38"/>
       <c r="AR37" s="38"/>
       <c r="AS37" s="38"/>
       <c r="AT37" s="38"/>
     </row>
-    <row r="38" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="192"/>
+    <row r="38" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="208"/>
       <c r="B38" s="107"/>
       <c r="C38" s="121"/>
       <c r="D38" s="122"/>
@@ -12276,7 +12134,7 @@
       <c r="J38" s="120"/>
       <c r="K38" s="105">
         <f>AF20</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ38" s="38"/>
       <c r="AR38" s="38"/>
@@ -12284,14 +12142,14 @@
       <c r="AT38" s="38"/>
     </row>
     <row r="39" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="193" t="s">
-        <v>6</v>
+      <c r="A39" s="209" t="s">
+        <v>12</v>
       </c>
       <c r="B39" s="52">
         <v>1</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D39" s="113"/>
       <c r="E39" s="108" t="str">
@@ -12325,12 +12183,12 @@
       <c r="AT39" s="38"/>
     </row>
     <row r="40" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="182"/>
+      <c r="A40" s="198"/>
       <c r="B40" s="49">
         <v>2</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D40" s="114"/>
       <c r="E40" s="106" t="str">
@@ -12343,11 +12201,11 @@
       </c>
       <c r="G40" s="49" t="str">
         <f>AH22</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H40" s="49" t="str">
         <f>AH23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I40" s="49" t="str">
         <f>AH24</f>
@@ -12363,13 +12221,13 @@
       <c r="AS40" s="38"/>
       <c r="AT40" s="38"/>
     </row>
-    <row r="41" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="182"/>
+    <row r="41" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="198"/>
       <c r="B41" s="49">
         <v>4</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D41" s="114"/>
       <c r="E41" s="106" t="str">
@@ -12403,12 +12261,12 @@
       <c r="AT41" s="38"/>
     </row>
     <row r="42" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="182"/>
+      <c r="A42" s="198"/>
       <c r="B42" s="49">
         <v>5</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D42" s="114"/>
       <c r="E42" s="106" t="str">
@@ -12425,26 +12283,26 @@
       </c>
       <c r="H42" s="49" t="str">
         <f>AJ23</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>AJ24</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J42" s="58" t="str">
         <f>AJ25</f>
         <v/>
       </c>
       <c r="K42" s="116" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="AQ42" s="38"/>
       <c r="AR42" s="38"/>
       <c r="AS42" s="38"/>
       <c r="AT42" s="38"/>
     </row>
-    <row r="43" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="183"/>
+    <row r="43" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="199"/>
       <c r="B43" s="70"/>
       <c r="C43" s="70"/>
       <c r="D43" s="62"/>
@@ -12456,7 +12314,7 @@
       <c r="J43" s="62"/>
       <c r="K43" s="105">
         <f>AK20</f>
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AQ43" s="38"/>
       <c r="AR43" s="38"/>
@@ -12464,14 +12322,14 @@
       <c r="AT43" s="38"/>
     </row>
     <row r="44" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="182" t="s">
-        <v>22</v>
+      <c r="A44" s="198" t="s">
+        <v>13</v>
       </c>
       <c r="B44" s="64">
         <v>1</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D44" s="115"/>
       <c r="E44" s="109" t="str">
@@ -12505,12 +12363,12 @@
       <c r="AT44" s="38"/>
     </row>
     <row r="45" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="182"/>
+      <c r="A45" s="198"/>
       <c r="B45" s="49">
         <v>2</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="106" t="str">
@@ -12523,11 +12381,11 @@
       </c>
       <c r="G45" s="49" t="str">
         <f>AM22</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H45" s="49" t="str">
         <f>AM23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I45" s="49" t="str">
         <f>AM24</f>
@@ -12543,13 +12401,13 @@
       <c r="AS45" s="38"/>
       <c r="AT45" s="38"/>
     </row>
-    <row r="46" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
+    <row r="46" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="198"/>
       <c r="B46" s="49">
         <v>3</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D46" s="114"/>
       <c r="E46" s="106" t="str">
@@ -12562,7 +12420,7 @@
       </c>
       <c r="G46" s="49" t="str">
         <f>AN22</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H46" s="49" t="str">
         <f>AN23</f>
@@ -12570,7 +12428,7 @@
       </c>
       <c r="I46" s="49" t="str">
         <f>AN24</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J46" s="58" t="str">
         <f>AN25</f>
@@ -12583,12 +12441,12 @@
       <c r="AT46" s="38"/>
     </row>
     <row r="47" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="182"/>
+      <c r="A47" s="198"/>
       <c r="B47" s="49">
         <v>4</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D47" s="114"/>
       <c r="E47" s="106" t="str">
@@ -12605,26 +12463,26 @@
       </c>
       <c r="H47" s="49" t="str">
         <f>AO23</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I47" s="49" t="str">
         <f>AO24</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J47" s="58" t="str">
         <f>AO25</f>
         <v/>
       </c>
       <c r="K47" s="116" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="AQ47" s="38"/>
       <c r="AR47" s="38"/>
       <c r="AS47" s="38"/>
       <c r="AT47" s="38"/>
     </row>
-    <row r="48" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="183"/>
+    <row r="48" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="199"/>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
       <c r="D48" s="62"/>
@@ -12636,24 +12494,24 @@
       <c r="J48" s="72"/>
       <c r="K48" s="63">
         <f>AP20</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AQ48" s="38"/>
       <c r="AR48" s="38"/>
       <c r="AS48" s="38"/>
       <c r="AT48" s="38"/>
     </row>
-    <row r="49" spans="1:46" s="37" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="201"/>
-      <c r="B49" s="201"/>
-      <c r="C49" s="201"/>
-      <c r="D49" s="201"/>
-      <c r="E49" s="201"/>
-      <c r="F49" s="201"/>
-      <c r="G49" s="201"/>
-      <c r="H49" s="201"/>
-      <c r="I49" s="201"/>
-      <c r="J49" s="201"/>
+    <row r="49" spans="1:46" s="37" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="173"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
+      <c r="J49" s="173"/>
       <c r="K49" s="59"/>
       <c r="AQ49" s="38"/>
       <c r="AR49" s="38"/>
@@ -12661,25 +12519,25 @@
       <c r="AT49" s="38"/>
     </row>
     <row r="50" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="163" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="164"/>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="164"/>
+      <c r="A50" s="179" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="180"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="180"/>
       <c r="K50" s="73"/>
       <c r="AQ50" s="38"/>
       <c r="AR50" s="38"/>
       <c r="AS50" s="38"/>
       <c r="AT50" s="38"/>
     </row>
-    <row r="51" spans="1:46" s="37" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="74"/>
       <c r="B51" s="68"/>
       <c r="C51" s="75"/>
@@ -12697,14 +12555,14 @@
       <c r="AT51" s="38"/>
     </row>
     <row r="52" spans="1:46" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="202" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
+      <c r="A52" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="175"/>
+      <c r="C52" s="175"/>
       <c r="D52" s="79">
         <f>AQ20</f>
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="E52" s="80"/>
       <c r="F52" s="81"/>
@@ -12715,8 +12573,8 @@
       <c r="K52" s="69"/>
       <c r="M52" s="38"/>
       <c r="N52" s="84">
-        <f>D52</f>
-        <v>3.75</v>
+        <f>D55</f>
+        <v>3.2250000000000001</v>
       </c>
       <c r="O52" s="68"/>
       <c r="AQ52" s="38"/>
@@ -12725,14 +12583,14 @@
       <c r="AT52" s="38"/>
     </row>
     <row r="53" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="195" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="196"/>
-      <c r="C53" s="196"/>
+      <c r="A53" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
       <c r="D53" s="84">
         <f>AR20</f>
-        <v>3.9</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="59"/>
@@ -12743,8 +12601,8 @@
       <c r="K53" s="69"/>
       <c r="M53" s="38"/>
       <c r="N53" s="84">
-        <f>D53</f>
-        <v>3.9</v>
+        <f>D54</f>
+        <v>2.9249999999999998</v>
       </c>
       <c r="O53" s="84"/>
       <c r="AQ53" s="38"/>
@@ -12753,14 +12611,14 @@
       <c r="AT53" s="38"/>
     </row>
     <row r="54" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="195" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="196"/>
-      <c r="C54" s="196"/>
+      <c r="A54" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
       <c r="D54" s="84">
         <f>AS20</f>
-        <v>3.6</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="59"/>
@@ -12771,8 +12629,8 @@
       <c r="K54" s="69"/>
       <c r="M54" s="38"/>
       <c r="N54" s="84">
-        <f>D54</f>
-        <v>3.6</v>
+        <f>D53</f>
+        <v>2.7250000000000001</v>
       </c>
       <c r="O54" s="84"/>
       <c r="AQ54" s="38"/>
@@ -12780,15 +12638,15 @@
       <c r="AS54" s="38"/>
       <c r="AT54" s="38"/>
     </row>
-    <row r="55" spans="1:46" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="199" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="200"/>
-      <c r="C55" s="200"/>
+    <row r="55" spans="1:46" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="172"/>
+      <c r="C55" s="172"/>
       <c r="D55" s="87">
         <f>AT20</f>
-        <v>3.5</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="E55" s="88"/>
       <c r="F55" s="60"/>
@@ -12798,12 +12656,12 @@
       <c r="J55" s="62"/>
       <c r="K55" s="69"/>
       <c r="N55" s="84">
-        <f>D55</f>
-        <v>3.5</v>
+        <f>D52</f>
+        <v>2.8</v>
       </c>
       <c r="O55" s="68"/>
     </row>
-    <row r="56" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="85"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86"/>
@@ -12835,7 +12693,7 @@
     </row>
     <row r="58" spans="1:46" s="37" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B58" s="77"/>
       <c r="C58" s="77"/>
@@ -12880,14 +12738,14 @@
       <c r="B60" s="49">
         <v>1</v>
       </c>
-      <c r="C60" s="194" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="194"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="55" t="s">
-        <v>121</v>
+      <c r="C60" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="166"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="158" t="s">
+        <v>74</v>
       </c>
       <c r="H60" s="68"/>
       <c r="I60" s="68"/>
@@ -12906,13 +12764,13 @@
       <c r="B61" s="49">
         <v>2</v>
       </c>
-      <c r="C61" s="194" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="194"/>
-      <c r="E61" s="194"/>
-      <c r="F61" s="194"/>
-      <c r="G61" s="55"/>
+      <c r="C61" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="166"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="166"/>
+      <c r="G61" s="158"/>
       <c r="H61" s="68"/>
       <c r="I61" s="68"/>
       <c r="J61" s="68"/>
@@ -12930,13 +12788,13 @@
       <c r="B62" s="49">
         <v>3</v>
       </c>
-      <c r="C62" s="194" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="194"/>
-      <c r="E62" s="194"/>
-      <c r="F62" s="194"/>
-      <c r="G62" s="55"/>
+      <c r="C62" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="166"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="158"/>
       <c r="H62" s="68"/>
       <c r="I62" s="68"/>
       <c r="J62" s="68"/>
@@ -12954,13 +12812,13 @@
       <c r="B63" s="49">
         <v>4</v>
       </c>
-      <c r="C63" s="194" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="194"/>
-      <c r="E63" s="194"/>
-      <c r="F63" s="194"/>
-      <c r="G63" s="55"/>
+      <c r="C63" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="166"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="166"/>
+      <c r="G63" s="158"/>
       <c r="H63" s="68"/>
       <c r="I63" s="68"/>
       <c r="J63" s="68"/>
@@ -12978,13 +12836,13 @@
       <c r="B64" s="49">
         <v>5</v>
       </c>
-      <c r="C64" s="194" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="194"/>
-      <c r="E64" s="194"/>
-      <c r="F64" s="194"/>
-      <c r="G64" s="55"/>
+      <c r="C64" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="166"/>
+      <c r="E64" s="166"/>
+      <c r="F64" s="166"/>
+      <c r="G64" s="158"/>
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
       <c r="J64" s="68"/>
@@ -13002,13 +12860,13 @@
       <c r="B65" s="49">
         <v>6</v>
       </c>
-      <c r="C65" s="194" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="194"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="49"/>
+      <c r="C65" s="166" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="166"/>
+      <c r="E65" s="166"/>
+      <c r="F65" s="166"/>
+      <c r="G65" s="159"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
@@ -13019,13 +12877,13 @@
       <c r="B66" s="49">
         <v>7</v>
       </c>
-      <c r="C66" s="194" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="194"/>
-      <c r="E66" s="194"/>
-      <c r="F66" s="194"/>
-      <c r="G66" s="49"/>
+      <c r="C66" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="166"/>
+      <c r="E66" s="166"/>
+      <c r="F66" s="166"/>
+      <c r="G66" s="159"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
@@ -13036,83 +12894,83 @@
       <c r="B67" s="49">
         <v>8</v>
       </c>
-      <c r="C67" s="194" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="194"/>
-      <c r="E67" s="194"/>
-      <c r="F67" s="194"/>
-      <c r="G67" s="49"/>
+      <c r="C67" s="166" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="166"/>
+      <c r="E67" s="166"/>
+      <c r="F67" s="166"/>
+      <c r="G67" s="159"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
     </row>
-    <row r="68" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="125"/>
       <c r="B68" s="49">
         <v>9</v>
       </c>
-      <c r="C68" s="194" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="194"/>
-      <c r="E68" s="194"/>
-      <c r="F68" s="194"/>
-      <c r="G68" s="127"/>
-    </row>
-    <row r="69" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="166"/>
+      <c r="E68" s="166"/>
+      <c r="F68" s="166"/>
+      <c r="G68" s="160"/>
+    </row>
+    <row r="69" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="125"/>
       <c r="B69" s="49">
         <v>10</v>
       </c>
-      <c r="C69" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="194"/>
-      <c r="G69" s="127"/>
-    </row>
-    <row r="70" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="166"/>
+      <c r="E69" s="166"/>
+      <c r="F69" s="166"/>
+      <c r="G69" s="160"/>
+    </row>
+    <row r="70" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="125"/>
       <c r="B70" s="49">
         <v>11</v>
       </c>
-      <c r="C70" s="194" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="194"/>
-      <c r="E70" s="194"/>
-      <c r="F70" s="194"/>
-      <c r="G70" s="127"/>
+      <c r="C70" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="166"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="166"/>
+      <c r="G70" s="160"/>
     </row>
     <row r="71" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="125"/>
       <c r="B71" s="49">
         <v>12</v>
       </c>
-      <c r="C71" s="194" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="194"/>
-      <c r="G71" s="49" t="s">
-        <v>121</v>
+      <c r="C71" s="166" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="166"/>
+      <c r="E71" s="166"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="159" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C73" s="126"/>
       <c r="D73" s="126"/>
       <c r="E73" s="126"/>
       <c r="F73" s="126"/>
-      <c r="G73" s="131" t="s">
-        <v>122</v>
+      <c r="G73" s="130" t="s">
+        <v>120</v>
       </c>
       <c r="H73" s="126"/>
       <c r="I73" s="126"/>
@@ -13128,14 +12986,14 @@
     </row>
     <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="125"/>
       <c r="G74" s="23" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
@@ -13155,18 +13013,18 @@
     <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13182,27 +13040,8 @@
     <row r="91" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="33">
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A54:C54"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A50:J50"/>
@@ -13216,17 +13055,36 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C65:F65"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.55118110236220497" right="0.55118110236220497" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.55118110236219997" right="0.55118110236219997" top="0.98425196850394003" bottom="0.98425196850394003" header="0.51181102362205" footer="0.51181102362205"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;"Trebuchet MS,Bold"&amp;12RAHASIA</oddHeader>
     <oddFooter>&amp;R&amp;"Tahoma,Regular"&amp;9Halaman &amp;P dari  &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="56" max="10" man="1"/>
+    <brk id="56" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/storage/app/templates/laporan_template.xlsx
+++ b/storage/app/templates/laporan_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\pmo-project\storage\app\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\pmo-project\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E9ADC-F238-47E4-9E4A-5727B494A4E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17875526-ED0C-476C-8D38-494FB756EE85}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Psikogram" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>NO</t>
   </si>
@@ -340,9 +340,6 @@
     <t>A. POTENSI KEBERHASILAN</t>
   </si>
   <si>
-    <t>B. POTENSI PENGEMBANGAN DIRI</t>
-  </si>
-  <si>
     <t>C. LOYALITAS TERHADAP TUGAS</t>
   </si>
   <si>
@@ -407,6 +404,12 @@
   </si>
   <si>
     <t>Nopeg. 106 000 589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. POTENSI PENGEMBANGAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DIRI</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1133,11 +1136,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1280,12 +1389,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,9 +1428,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1337,50 +1437,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1589,6 +1651,63 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,32 +1726,56 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1641,12 +1784,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,41 +1833,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1777,133 +1890,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.9455252918288E-2"/>
-          <c:y val="6.0240963855421999E-2"/>
-          <c:w val="0.96498054474707995"/>
-          <c:h val="0.89156626506023995"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>x!$N$52:$N$55</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.2250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-52F8-44C9-BC1E-06F4BA883960}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="75091328"/>
-        <c:axId val="75089408"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="75091328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75089408"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75089408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75089408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1945,44 +1931,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2050" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2282,41 +2230,41 @@
       <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="8" customWidth="1"/>
-    <col min="10" max="17" width="5.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="6" customWidth="1"/>
-    <col min="19" max="22" width="5.7109375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="6" customWidth="1"/>
-    <col min="24" max="27" width="5.7109375" style="5" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" style="6" customWidth="1"/>
-    <col min="29" max="32" width="5.7109375" style="5" customWidth="1"/>
-    <col min="33" max="33" width="5.7109375" style="6" customWidth="1"/>
-    <col min="34" max="37" width="5.7109375" style="98" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="9.85546875" style="98" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.7109375" style="98" hidden="1" customWidth="1"/>
-    <col min="40" max="43" width="5.7109375" style="5" customWidth="1"/>
-    <col min="44" max="48" width="5.7109375" style="6" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" style="7" customWidth="1"/>
-    <col min="50" max="50" width="9.85546875" style="6" customWidth="1"/>
-    <col min="51" max="51" width="7.140625" style="6" customWidth="1"/>
-    <col min="52" max="53" width="7.140625" style="4" customWidth="1"/>
-    <col min="54" max="58" width="7.140625" style="9" customWidth="1"/>
-    <col min="59" max="59" width="7.5703125" style="4" customWidth="1"/>
-    <col min="60" max="65" width="7.5703125" style="7" customWidth="1"/>
-    <col min="66" max="66" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="8" customWidth="1"/>
+    <col min="10" max="17" width="5.6640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="6" customWidth="1"/>
+    <col min="19" max="22" width="5.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="6" customWidth="1"/>
+    <col min="24" max="27" width="5.6640625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="6" customWidth="1"/>
+    <col min="29" max="32" width="5.6640625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" style="6" customWidth="1"/>
+    <col min="34" max="37" width="5.6640625" style="81" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="9.88671875" style="81" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="81" hidden="1" customWidth="1"/>
+    <col min="40" max="43" width="5.6640625" style="5" customWidth="1"/>
+    <col min="44" max="48" width="5.6640625" style="6" customWidth="1"/>
+    <col min="49" max="49" width="14.5546875" style="7" customWidth="1"/>
+    <col min="50" max="50" width="9.88671875" style="6" customWidth="1"/>
+    <col min="51" max="51" width="7.109375" style="6" customWidth="1"/>
+    <col min="52" max="53" width="7.109375" style="4" customWidth="1"/>
+    <col min="54" max="58" width="7.109375" style="9" customWidth="1"/>
+    <col min="59" max="59" width="7.5546875" style="4" customWidth="1"/>
+    <col min="60" max="65" width="7.5546875" style="7" customWidth="1"/>
+    <col min="66" max="66" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2332,7 +2280,7 @@
       <c r="AR1" s="23"/>
       <c r="AS1" s="23"/>
     </row>
-    <row r="2" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -2348,7 +2296,7 @@
       <c r="AR2" s="23"/>
       <c r="AS2" s="23"/>
     </row>
-    <row r="3" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" s="22" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2364,7 +2312,7 @@
       <c r="AR3" s="23"/>
       <c r="AS3" s="23"/>
     </row>
-    <row r="4" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -2380,7 +2328,7 @@
       <c r="AR4" s="23"/>
       <c r="AS4" s="23"/>
     </row>
-    <row r="5" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -2396,62 +2344,62 @@
       <c r="AR5" s="23"/>
       <c r="AS5" s="23"/>
     </row>
-    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="128"/>
-      <c r="AP9" s="128"/>
-      <c r="AQ9" s="128"/>
-      <c r="AR9" s="128"/>
-      <c r="AS9" s="128"/>
-      <c r="AT9" s="128"/>
-      <c r="AU9" s="128"/>
-      <c r="AV9" s="128"/>
-      <c r="AW9" s="128"/>
-      <c r="AX9" s="128"/>
-      <c r="AY9" s="128"/>
-      <c r="AZ9" s="127"/>
+    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="110"/>
       <c r="BA9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="10"/>
@@ -2461,59 +2409,59 @@
       <c r="BL9" s="10"/>
       <c r="BM9" s="10"/>
     </row>
-    <row r="10" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="129"/>
-      <c r="AJ10" s="129"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="129"/>
-      <c r="AO10" s="129"/>
-      <c r="AP10" s="129"/>
-      <c r="AQ10" s="129"/>
-      <c r="AR10" s="129"/>
-      <c r="AS10" s="129"/>
-      <c r="AT10" s="129"/>
-      <c r="AU10" s="129"/>
-      <c r="AV10" s="129"/>
-      <c r="AW10" s="129"/>
-      <c r="AX10" s="129"/>
-      <c r="AY10" s="129"/>
-      <c r="AZ10" s="129"/>
+    <row r="10" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="112"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="112"/>
+      <c r="AM10" s="112"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="112"/>
+      <c r="AR10" s="112"/>
+      <c r="AS10" s="112"/>
+      <c r="AT10" s="112"/>
+      <c r="AU10" s="112"/>
+      <c r="AV10" s="112"/>
+      <c r="AW10" s="112"/>
+      <c r="AX10" s="112"/>
+      <c r="AY10" s="112"/>
+      <c r="AZ10" s="112"/>
       <c r="BA10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="10"/>
@@ -2523,59 +2471,59 @@
       <c r="BL10" s="10"/>
       <c r="BM10" s="10"/>
     </row>
-    <row r="11" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="129"/>
-      <c r="AJ11" s="129"/>
-      <c r="AK11" s="129"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="129"/>
-      <c r="AO11" s="129"/>
-      <c r="AP11" s="129"/>
-      <c r="AQ11" s="129"/>
-      <c r="AR11" s="129"/>
-      <c r="AS11" s="129"/>
-      <c r="AT11" s="129"/>
-      <c r="AU11" s="129"/>
-      <c r="AV11" s="129"/>
-      <c r="AW11" s="129"/>
-      <c r="AX11" s="129"/>
-      <c r="AY11" s="129"/>
-      <c r="AZ11" s="129"/>
+    <row r="11" spans="1:65" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="112"/>
+      <c r="AM11" s="112"/>
+      <c r="AN11" s="112"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="112"/>
+      <c r="AQ11" s="112"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
       <c r="BA11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="10"/>
@@ -2585,7 +2533,7 @@
       <c r="BL11" s="10"/>
       <c r="BM11" s="10"/>
     </row>
-    <row r="12" spans="1:65" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2616,12 +2564,12 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
       <c r="AP12" s="10"/>
@@ -2644,119 +2592,119 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
     </row>
-    <row r="13" spans="1:65" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="161" t="s">
+    <row r="13" spans="1:65" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="161" t="s">
+      <c r="F13" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="161" t="s">
+      <c r="G13" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="161" t="s">
+      <c r="H13" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="161" t="s">
+      <c r="I13" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="161" t="s">
+      <c r="J13" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161" t="s">
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
+      <c r="S13" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161" t="s">
+      <c r="T13" s="165"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="165"/>
+      <c r="W13" s="165"/>
+      <c r="X13" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
-      <c r="AA13" s="161"/>
-      <c r="AB13" s="161"/>
-      <c r="AC13" s="161" t="s">
+      <c r="Y13" s="165"/>
+      <c r="Z13" s="165"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="AD13" s="161"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="161"/>
-      <c r="AG13" s="161"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="94"/>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="94"/>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="161" t="s">
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="165"/>
+      <c r="AF13" s="165"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="AO13" s="161"/>
-      <c r="AP13" s="161"/>
-      <c r="AQ13" s="161"/>
-      <c r="AR13" s="161"/>
+      <c r="AO13" s="165"/>
+      <c r="AP13" s="165"/>
+      <c r="AQ13" s="165"/>
+      <c r="AR13" s="165"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="15"/>
       <c r="AU13" s="15"/>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="165" t="s">
+      <c r="AW13" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AX13" s="165" t="s">
+      <c r="AX13" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AY13" s="162" t="s">
+      <c r="AY13" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="AZ13" s="163"/>
-      <c r="BA13" s="163"/>
-      <c r="BB13" s="163"/>
-      <c r="BC13" s="163"/>
-      <c r="BD13" s="163"/>
-      <c r="BE13" s="163"/>
-      <c r="BF13" s="164"/>
-      <c r="BG13" s="162" t="s">
+      <c r="AZ13" s="167"/>
+      <c r="BA13" s="167"/>
+      <c r="BB13" s="167"/>
+      <c r="BC13" s="167"/>
+      <c r="BD13" s="167"/>
+      <c r="BE13" s="167"/>
+      <c r="BF13" s="168"/>
+      <c r="BG13" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="BH13" s="163"/>
-      <c r="BI13" s="163"/>
-      <c r="BJ13" s="163"/>
-      <c r="BK13" s="163"/>
-      <c r="BL13" s="163"/>
-      <c r="BM13" s="164"/>
-    </row>
-    <row r="14" spans="1:65" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="161"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
+      <c r="BH13" s="167"/>
+      <c r="BI13" s="167"/>
+      <c r="BJ13" s="167"/>
+      <c r="BK13" s="167"/>
+      <c r="BL13" s="167"/>
+      <c r="BM13" s="168"/>
+    </row>
+    <row r="14" spans="1:65" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="165"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
       <c r="J14" s="11" t="s">
         <v>17</v>
       </c>
@@ -2829,20 +2777,20 @@
       <c r="AG14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AH14" s="95" t="s">
+      <c r="AH14" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="95" t="s">
+      <c r="AI14" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="95" t="s">
+      <c r="AJ14" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="96" t="s">
+      <c r="AK14" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96" t="s">
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79" t="s">
         <v>42</v>
       </c>
       <c r="AN14" s="11" t="s">
@@ -2860,76 +2808,76 @@
       <c r="AR14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AS14" s="91" t="s">
+      <c r="AS14" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="AT14" s="91" t="s">
+      <c r="AT14" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AU14" s="91" t="s">
+      <c r="AU14" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="AV14" s="91" t="s">
+      <c r="AV14" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AW14" s="165"/>
-      <c r="AX14" s="165"/>
-      <c r="AY14" s="103" t="s">
+      <c r="AW14" s="169"/>
+      <c r="AX14" s="169"/>
+      <c r="AY14" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="AZ14" s="103" t="s">
+      <c r="AZ14" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="BA14" s="103" t="s">
+      <c r="BA14" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="BB14" s="103" t="s">
+      <c r="BB14" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="BC14" s="103" t="s">
+      <c r="BC14" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="BD14" s="103" t="s">
+      <c r="BD14" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="BE14" s="103" t="s">
+      <c r="BE14" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="BF14" s="103" t="s">
+      <c r="BF14" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="BG14" s="103" t="s">
+      <c r="BG14" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="BH14" s="103" t="s">
+      <c r="BH14" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="BI14" s="103" t="s">
+      <c r="BI14" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="BJ14" s="103" t="s">
+      <c r="BJ14" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="BK14" s="103" t="s">
+      <c r="BK14" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="BL14" s="103" t="s">
+      <c r="BL14" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="BM14" s="103" t="s">
+      <c r="BM14" s="86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="161"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
+    <row r="15" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="165"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
       <c r="J15" s="14">
         <v>1</v>
       </c>
@@ -2994,18 +2942,18 @@
         <v>4</v>
       </c>
       <c r="AG15" s="16"/>
-      <c r="AH15" s="94">
+      <c r="AH15" s="77">
         <v>1</v>
       </c>
-      <c r="AI15" s="94">
+      <c r="AI15" s="77">
         <v>2</v>
       </c>
-      <c r="AJ15" s="94">
+      <c r="AJ15" s="77">
         <v>3</v>
       </c>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
+      <c r="AK15" s="80"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="80"/>
       <c r="AN15" s="14">
         <v>1</v>
       </c>
@@ -3019,20 +2967,20 @@
         <v>4</v>
       </c>
       <c r="AR15" s="16"/>
-      <c r="AS15" s="90">
+      <c r="AS15" s="73">
         <v>1</v>
       </c>
-      <c r="AT15" s="90">
+      <c r="AT15" s="73">
         <v>2</v>
       </c>
-      <c r="AU15" s="90">
+      <c r="AU15" s="73">
         <v>3</v>
       </c>
-      <c r="AV15" s="90">
+      <c r="AV15" s="73">
         <v>4</v>
       </c>
-      <c r="AW15" s="165"/>
-      <c r="AX15" s="165"/>
+      <c r="AW15" s="169"/>
+      <c r="AX15" s="169"/>
       <c r="AY15" s="14">
         <v>1</v>
       </c>
@@ -3079,177 +3027,177 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>1</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="132" t="s">
+      <c r="D16" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="131" t="s">
+      <c r="F16" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="99" t="s">
+      <c r="H16" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="135" t="s">
+      <c r="I16" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="99">
+      <c r="J16" s="82">
         <v>2</v>
       </c>
-      <c r="K16" s="99">
+      <c r="K16" s="82">
         <v>2</v>
       </c>
-      <c r="L16" s="99">
+      <c r="L16" s="82">
         <v>4</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="82">
         <v>3</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="82">
         <v>4</v>
       </c>
-      <c r="O16" s="99">
+      <c r="O16" s="82">
         <v>1</v>
       </c>
-      <c r="P16" s="99">
+      <c r="P16" s="82">
         <v>3</v>
       </c>
-      <c r="Q16" s="99">
+      <c r="Q16" s="82">
         <v>2</v>
       </c>
-      <c r="R16" s="100">
+      <c r="R16" s="83">
         <f>AVERAGE(J16:Q16)</f>
         <v>2.625</v>
       </c>
-      <c r="S16" s="99">
+      <c r="S16" s="82">
         <v>3</v>
       </c>
-      <c r="T16" s="99">
+      <c r="T16" s="82">
         <v>2</v>
       </c>
-      <c r="U16" s="99">
+      <c r="U16" s="82">
         <v>2</v>
       </c>
-      <c r="V16" s="99">
+      <c r="V16" s="82">
         <v>2</v>
       </c>
-      <c r="W16" s="100">
+      <c r="W16" s="83">
         <f>AVERAGE(S16:V16)</f>
         <v>2.25</v>
       </c>
-      <c r="X16" s="99">
+      <c r="X16" s="82">
         <v>3</v>
       </c>
-      <c r="Y16" s="99">
+      <c r="Y16" s="82">
         <v>4</v>
       </c>
-      <c r="Z16" s="99">
+      <c r="Z16" s="82">
         <v>3</v>
       </c>
-      <c r="AA16" s="99">
+      <c r="AA16" s="82">
         <v>1</v>
       </c>
-      <c r="AB16" s="100">
+      <c r="AB16" s="83">
         <f>AVERAGE(X16:AA16)</f>
         <v>2.75</v>
       </c>
-      <c r="AC16" s="99">
+      <c r="AC16" s="82">
         <v>3</v>
       </c>
-      <c r="AD16" s="99">
+      <c r="AD16" s="82">
         <v>3</v>
       </c>
-      <c r="AE16" s="99">
+      <c r="AE16" s="82">
         <v>3</v>
       </c>
-      <c r="AF16" s="99">
+      <c r="AF16" s="82">
         <v>4</v>
       </c>
-      <c r="AG16" s="100">
+      <c r="AG16" s="83">
         <f>AVERAGE(AC16:AF16)</f>
         <v>3.25</v>
       </c>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="134"/>
-      <c r="AJ16" s="134"/>
-      <c r="AK16" s="134"/>
-      <c r="AL16" s="134"/>
-      <c r="AM16" s="134"/>
-      <c r="AN16" s="99">
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="82">
         <v>3</v>
       </c>
-      <c r="AO16" s="99">
+      <c r="AO16" s="82">
         <v>3</v>
       </c>
-      <c r="AP16" s="99">
+      <c r="AP16" s="82">
         <v>5</v>
       </c>
-      <c r="AQ16" s="99">
+      <c r="AQ16" s="82">
         <v>5</v>
       </c>
-      <c r="AR16" s="100">
+      <c r="AR16" s="83">
         <f>AVERAGE(AN16:AQ16)</f>
         <v>4</v>
       </c>
-      <c r="AS16" s="100">
+      <c r="AS16" s="83">
         <f>(2*R16+2*AB16+AG16)/5</f>
         <v>2.8</v>
       </c>
-      <c r="AT16" s="100">
+      <c r="AT16" s="83">
         <f>(R16+2*W16+2*AG16)/5</f>
         <v>2.7250000000000001</v>
       </c>
-      <c r="AU16" s="100">
+      <c r="AU16" s="83">
         <f>(R16+2*AB16+2*AG16)/5</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="AV16" s="100">
+      <c r="AV16" s="83">
         <f>(R16+2*AB16+2*AR16)/5</f>
         <v>3.2250000000000001</v>
       </c>
-      <c r="AW16" s="101">
+      <c r="AW16" s="84">
         <f>AVERAGE(AS16:AV16)</f>
         <v>2.9187500000000002</v>
       </c>
-      <c r="AX16" s="101" t="str">
+      <c r="AX16" s="84" t="str">
         <f>IF(AND(AW16&gt;=5,AW16&lt;=6),"A",IF(AND(AW16&gt;=3,AW16&lt;=4.99),"B",IF(AND(AW16&gt;=2.75,AW16&lt;=2.99),"C",IF(AND(AW16&gt;=2.5,AW16&lt;=2.74),"D",IF(AND(AW16&gt;=1,AW16&lt;=2.5),"E","ADA YANG SALAH")))))</f>
         <v>C</v>
       </c>
-      <c r="AY16" s="102" t="s">
+      <c r="AY16" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="102"/>
-      <c r="BC16" s="102"/>
-      <c r="BD16" s="102"/>
-      <c r="BE16" s="102"/>
-      <c r="BF16" s="102"/>
-      <c r="BG16" s="102"/>
-      <c r="BH16" s="102"/>
-      <c r="BI16" s="102"/>
-      <c r="BJ16" s="102" t="s">
+      <c r="AZ16" s="85"/>
+      <c r="BA16" s="85"/>
+      <c r="BB16" s="85"/>
+      <c r="BC16" s="85"/>
+      <c r="BD16" s="85"/>
+      <c r="BE16" s="85"/>
+      <c r="BF16" s="85"/>
+      <c r="BG16" s="85"/>
+      <c r="BH16" s="85"/>
+      <c r="BI16" s="85"/>
+      <c r="BJ16" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="BK16" s="102"/>
-      <c r="BL16" s="102"/>
-      <c r="BM16" s="102"/>
-    </row>
-    <row r="17" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BK16" s="85"/>
+      <c r="BL16" s="85"/>
+      <c r="BM16" s="85"/>
+    </row>
+    <row r="17" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="5"/>
       <c r="C17" s="10"/>
@@ -3283,12 +3231,12 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="6"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="98"/>
-      <c r="AM17" s="98"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="81"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -3316,7 +3264,7 @@
       <c r="BL17" s="7"/>
       <c r="BM17" s="7"/>
     </row>
-    <row r="18" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="10"/>
@@ -3350,12 +3298,12 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="6"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="98"/>
-      <c r="AM18" s="98"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="81"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
@@ -3383,7 +3331,7 @@
       <c r="BL18" s="7"/>
       <c r="BM18" s="7"/>
     </row>
-    <row r="19" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="5"/>
       <c r="C19" s="10"/>
@@ -3417,12 +3365,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="6"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="98"/>
-      <c r="AM19" s="98"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="81"/>
+      <c r="AM19" s="81"/>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -3450,7 +3398,7 @@
       <c r="BL19" s="7"/>
       <c r="BM19" s="7"/>
     </row>
-    <row r="20" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="5"/>
       <c r="C20" s="10"/>
@@ -3484,12 +3432,12 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="6"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -3517,7 +3465,7 @@
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
     </row>
-    <row r="21" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="5"/>
       <c r="C21" s="10"/>
@@ -3551,12 +3499,12 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="6"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="81"/>
+      <c r="AM21" s="81"/>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
@@ -3584,7 +3532,7 @@
       <c r="BL21" s="7"/>
       <c r="BM21" s="7"/>
     </row>
-    <row r="22" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
@@ -3618,12 +3566,12 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="6"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="98"/>
-      <c r="AM22" s="98"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
@@ -3651,7 +3599,7 @@
       <c r="BL22" s="7"/>
       <c r="BM22" s="7"/>
     </row>
-    <row r="23" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10"/>
@@ -3685,12 +3633,12 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="6"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="98"/>
-      <c r="AM23" s="98"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81"/>
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
@@ -3718,7 +3666,7 @@
       <c r="BL23" s="7"/>
       <c r="BM23" s="7"/>
     </row>
-    <row r="24" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10"/>
@@ -3752,12 +3700,12 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="6"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="98"/>
-      <c r="AM24" s="98"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="81"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
@@ -3785,7 +3733,7 @@
       <c r="BL24" s="7"/>
       <c r="BM24" s="7"/>
     </row>
-    <row r="25" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="5"/>
       <c r="C25" s="10"/>
@@ -3819,12 +3767,12 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="6"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="98"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="98"/>
-      <c r="AM25" s="98"/>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="81"/>
+      <c r="AM25" s="81"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
@@ -3852,7 +3800,7 @@
       <c r="BL25" s="7"/>
       <c r="BM25" s="7"/>
     </row>
-    <row r="26" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="5"/>
       <c r="C26" s="10"/>
@@ -3886,12 +3834,12 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="6"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="98"/>
-      <c r="AM26" s="98"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
@@ -3919,7 +3867,7 @@
       <c r="BL26" s="7"/>
       <c r="BM26" s="7"/>
     </row>
-    <row r="27" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="5"/>
       <c r="C27" s="10"/>
@@ -3953,12 +3901,12 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="6"/>
-      <c r="AH27" s="98"/>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="98"/>
-      <c r="AK27" s="98"/>
-      <c r="AL27" s="98"/>
-      <c r="AM27" s="98"/>
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="81"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="81"/>
+      <c r="AM27" s="81"/>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
@@ -3986,7 +3934,7 @@
       <c r="BL27" s="7"/>
       <c r="BM27" s="7"/>
     </row>
-    <row r="28" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="5"/>
       <c r="C28" s="10"/>
@@ -4020,12 +3968,12 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="6"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="98"/>
-      <c r="AM28" s="98"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
@@ -4053,7 +4001,7 @@
       <c r="BL28" s="7"/>
       <c r="BM28" s="7"/>
     </row>
-    <row r="29" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="5"/>
       <c r="C29" s="10"/>
@@ -4087,12 +4035,12 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="6"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="98"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="98"/>
-      <c r="AM29" s="98"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="81"/>
+      <c r="AM29" s="81"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -4120,7 +4068,7 @@
       <c r="BL29" s="7"/>
       <c r="BM29" s="7"/>
     </row>
-    <row r="30" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="5"/>
       <c r="C30" s="10"/>
@@ -4154,12 +4102,12 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="6"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="98"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
@@ -4187,7 +4135,7 @@
       <c r="BL30" s="7"/>
       <c r="BM30" s="7"/>
     </row>
-    <row r="31" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="5"/>
       <c r="C31" s="10"/>
@@ -4221,12 +4169,12 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="6"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="98"/>
-      <c r="AM31" s="98"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="81"/>
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
@@ -4254,7 +4202,7 @@
       <c r="BL31" s="7"/>
       <c r="BM31" s="7"/>
     </row>
-    <row r="32" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="5"/>
       <c r="C32" s="10"/>
@@ -4288,12 +4236,12 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="6"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="98"/>
-      <c r="AM32" s="98"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
@@ -4321,7 +4269,7 @@
       <c r="BL32" s="7"/>
       <c r="BM32" s="7"/>
     </row>
-    <row r="33" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="5"/>
       <c r="C33" s="10"/>
@@ -4355,12 +4303,12 @@
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="6"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="98"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="98"/>
-      <c r="AM33" s="98"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
@@ -4388,7 +4336,7 @@
       <c r="BL33" s="7"/>
       <c r="BM33" s="7"/>
     </row>
-    <row r="34" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="5"/>
       <c r="C34" s="10"/>
@@ -4422,12 +4370,12 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="6"/>
-      <c r="AH34" s="98"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="98"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="98"/>
-      <c r="AM34" s="98"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
@@ -4455,7 +4403,7 @@
       <c r="BL34" s="7"/>
       <c r="BM34" s="7"/>
     </row>
-    <row r="35" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="5"/>
       <c r="C35" s="10"/>
@@ -4489,12 +4437,12 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="6"/>
-      <c r="AH35" s="98"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="98"/>
-      <c r="AM35" s="98"/>
+      <c r="AH35" s="81"/>
+      <c r="AI35" s="81"/>
+      <c r="AJ35" s="81"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="81"/>
+      <c r="AM35" s="81"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
@@ -4522,7 +4470,7 @@
       <c r="BL35" s="7"/>
       <c r="BM35" s="7"/>
     </row>
-    <row r="36" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="5"/>
       <c r="C36" s="10"/>
@@ -4556,12 +4504,12 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="6"/>
-      <c r="AH36" s="98"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="98"/>
-      <c r="AK36" s="98"/>
-      <c r="AL36" s="98"/>
-      <c r="AM36" s="98"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="81"/>
+      <c r="AK36" s="81"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="81"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
@@ -4589,7 +4537,7 @@
       <c r="BL36" s="7"/>
       <c r="BM36" s="7"/>
     </row>
-    <row r="37" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="5"/>
       <c r="C37" s="10"/>
@@ -4623,12 +4571,12 @@
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="6"/>
-      <c r="AH37" s="98"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="98"/>
-      <c r="AK37" s="98"/>
-      <c r="AL37" s="98"/>
-      <c r="AM37" s="98"/>
+      <c r="AH37" s="81"/>
+      <c r="AI37" s="81"/>
+      <c r="AJ37" s="81"/>
+      <c r="AK37" s="81"/>
+      <c r="AL37" s="81"/>
+      <c r="AM37" s="81"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
@@ -4656,7 +4604,7 @@
       <c r="BL37" s="7"/>
       <c r="BM37" s="7"/>
     </row>
-    <row r="38" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="5"/>
       <c r="C38" s="10"/>
@@ -4690,12 +4638,12 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="6"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="98"/>
+      <c r="AH38" s="81"/>
+      <c r="AI38" s="81"/>
+      <c r="AJ38" s="81"/>
+      <c r="AK38" s="81"/>
+      <c r="AL38" s="81"/>
+      <c r="AM38" s="81"/>
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
@@ -4723,7 +4671,7 @@
       <c r="BL38" s="7"/>
       <c r="BM38" s="7"/>
     </row>
-    <row r="39" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="5"/>
       <c r="C39" s="10"/>
@@ -4757,12 +4705,12 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="6"/>
-      <c r="AH39" s="98"/>
-      <c r="AI39" s="98"/>
-      <c r="AJ39" s="98"/>
-      <c r="AK39" s="98"/>
-      <c r="AL39" s="98"/>
-      <c r="AM39" s="98"/>
+      <c r="AH39" s="81"/>
+      <c r="AI39" s="81"/>
+      <c r="AJ39" s="81"/>
+      <c r="AK39" s="81"/>
+      <c r="AL39" s="81"/>
+      <c r="AM39" s="81"/>
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
@@ -4790,7 +4738,7 @@
       <c r="BL39" s="7"/>
       <c r="BM39" s="7"/>
     </row>
-    <row r="40" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="5"/>
       <c r="C40" s="10"/>
@@ -4824,12 +4772,12 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="6"/>
-      <c r="AH40" s="98"/>
-      <c r="AI40" s="98"/>
-      <c r="AJ40" s="98"/>
-      <c r="AK40" s="98"/>
-      <c r="AL40" s="98"/>
-      <c r="AM40" s="98"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="81"/>
+      <c r="AJ40" s="81"/>
+      <c r="AK40" s="81"/>
+      <c r="AL40" s="81"/>
+      <c r="AM40" s="81"/>
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
@@ -4857,7 +4805,7 @@
       <c r="BL40" s="7"/>
       <c r="BM40" s="7"/>
     </row>
-    <row r="41" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="5"/>
       <c r="C41" s="10"/>
@@ -4891,12 +4839,12 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="6"/>
-      <c r="AH41" s="98"/>
-      <c r="AI41" s="98"/>
-      <c r="AJ41" s="98"/>
-      <c r="AK41" s="98"/>
-      <c r="AL41" s="98"/>
-      <c r="AM41" s="98"/>
+      <c r="AH41" s="81"/>
+      <c r="AI41" s="81"/>
+      <c r="AJ41" s="81"/>
+      <c r="AK41" s="81"/>
+      <c r="AL41" s="81"/>
+      <c r="AM41" s="81"/>
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
       <c r="AP41" s="5"/>
@@ -4924,7 +4872,7 @@
       <c r="BL41" s="7"/>
       <c r="BM41" s="7"/>
     </row>
-    <row r="42" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="5"/>
       <c r="C42" s="10"/>
@@ -4958,12 +4906,12 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="6"/>
-      <c r="AH42" s="98"/>
-      <c r="AI42" s="98"/>
-      <c r="AJ42" s="98"/>
-      <c r="AK42" s="98"/>
-      <c r="AL42" s="98"/>
-      <c r="AM42" s="98"/>
+      <c r="AH42" s="81"/>
+      <c r="AI42" s="81"/>
+      <c r="AJ42" s="81"/>
+      <c r="AK42" s="81"/>
+      <c r="AL42" s="81"/>
+      <c r="AM42" s="81"/>
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
       <c r="AP42" s="5"/>
@@ -4991,7 +4939,7 @@
       <c r="BL42" s="7"/>
       <c r="BM42" s="7"/>
     </row>
-    <row r="43" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="5"/>
       <c r="C43" s="10"/>
@@ -5025,12 +4973,12 @@
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="6"/>
-      <c r="AH43" s="98"/>
-      <c r="AI43" s="98"/>
-      <c r="AJ43" s="98"/>
-      <c r="AK43" s="98"/>
-      <c r="AL43" s="98"/>
-      <c r="AM43" s="98"/>
+      <c r="AH43" s="81"/>
+      <c r="AI43" s="81"/>
+      <c r="AJ43" s="81"/>
+      <c r="AK43" s="81"/>
+      <c r="AL43" s="81"/>
+      <c r="AM43" s="81"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
@@ -5058,7 +5006,7 @@
       <c r="BL43" s="7"/>
       <c r="BM43" s="7"/>
     </row>
-    <row r="44" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="5"/>
       <c r="C44" s="10"/>
@@ -5092,12 +5040,12 @@
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="6"/>
-      <c r="AH44" s="98"/>
-      <c r="AI44" s="98"/>
-      <c r="AJ44" s="98"/>
-      <c r="AK44" s="98"/>
-      <c r="AL44" s="98"/>
-      <c r="AM44" s="98"/>
+      <c r="AH44" s="81"/>
+      <c r="AI44" s="81"/>
+      <c r="AJ44" s="81"/>
+      <c r="AK44" s="81"/>
+      <c r="AL44" s="81"/>
+      <c r="AM44" s="81"/>
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
@@ -5125,7 +5073,7 @@
       <c r="BL44" s="7"/>
       <c r="BM44" s="7"/>
     </row>
-    <row r="45" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="5"/>
       <c r="C45" s="10"/>
@@ -5159,12 +5107,12 @@
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="6"/>
-      <c r="AH45" s="98"/>
-      <c r="AI45" s="98"/>
-      <c r="AJ45" s="98"/>
-      <c r="AK45" s="98"/>
-      <c r="AL45" s="98"/>
-      <c r="AM45" s="98"/>
+      <c r="AH45" s="81"/>
+      <c r="AI45" s="81"/>
+      <c r="AJ45" s="81"/>
+      <c r="AK45" s="81"/>
+      <c r="AL45" s="81"/>
+      <c r="AM45" s="81"/>
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
@@ -5192,7 +5140,7 @@
       <c r="BL45" s="7"/>
       <c r="BM45" s="7"/>
     </row>
-    <row r="46" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="5"/>
       <c r="C46" s="10"/>
@@ -5226,12 +5174,12 @@
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="6"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
+      <c r="AH46" s="81"/>
+      <c r="AI46" s="81"/>
+      <c r="AJ46" s="81"/>
+      <c r="AK46" s="81"/>
+      <c r="AL46" s="81"/>
+      <c r="AM46" s="81"/>
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5"/>
@@ -5259,7 +5207,7 @@
       <c r="BL46" s="7"/>
       <c r="BM46" s="7"/>
     </row>
-    <row r="47" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="5"/>
       <c r="C47" s="10"/>
@@ -5293,12 +5241,12 @@
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="6"/>
-      <c r="AH47" s="98"/>
-      <c r="AI47" s="98"/>
-      <c r="AJ47" s="98"/>
-      <c r="AK47" s="98"/>
-      <c r="AL47" s="98"/>
-      <c r="AM47" s="98"/>
+      <c r="AH47" s="81"/>
+      <c r="AI47" s="81"/>
+      <c r="AJ47" s="81"/>
+      <c r="AK47" s="81"/>
+      <c r="AL47" s="81"/>
+      <c r="AM47" s="81"/>
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
       <c r="AP47" s="5"/>
@@ -5326,7 +5274,7 @@
       <c r="BL47" s="7"/>
       <c r="BM47" s="7"/>
     </row>
-    <row r="48" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="5"/>
       <c r="C48" s="10"/>
@@ -5360,12 +5308,12 @@
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="6"/>
-      <c r="AH48" s="98"/>
-      <c r="AI48" s="98"/>
-      <c r="AJ48" s="98"/>
-      <c r="AK48" s="98"/>
-      <c r="AL48" s="98"/>
-      <c r="AM48" s="98"/>
+      <c r="AH48" s="81"/>
+      <c r="AI48" s="81"/>
+      <c r="AJ48" s="81"/>
+      <c r="AK48" s="81"/>
+      <c r="AL48" s="81"/>
+      <c r="AM48" s="81"/>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
       <c r="AP48" s="5"/>
@@ -5393,7 +5341,7 @@
       <c r="BL48" s="7"/>
       <c r="BM48" s="7"/>
     </row>
-    <row r="49" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="5"/>
       <c r="C49" s="10"/>
@@ -5427,12 +5375,12 @@
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="6"/>
-      <c r="AH49" s="98"/>
-      <c r="AI49" s="98"/>
-      <c r="AJ49" s="98"/>
-      <c r="AK49" s="98"/>
-      <c r="AL49" s="98"/>
-      <c r="AM49" s="98"/>
+      <c r="AH49" s="81"/>
+      <c r="AI49" s="81"/>
+      <c r="AJ49" s="81"/>
+      <c r="AK49" s="81"/>
+      <c r="AL49" s="81"/>
+      <c r="AM49" s="81"/>
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
       <c r="AP49" s="5"/>
@@ -5460,7 +5408,7 @@
       <c r="BL49" s="7"/>
       <c r="BM49" s="7"/>
     </row>
-    <row r="50" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="5"/>
       <c r="C50" s="10"/>
@@ -5494,12 +5442,12 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="6"/>
-      <c r="AH50" s="98"/>
-      <c r="AI50" s="98"/>
-      <c r="AJ50" s="98"/>
-      <c r="AK50" s="98"/>
-      <c r="AL50" s="98"/>
-      <c r="AM50" s="98"/>
+      <c r="AH50" s="81"/>
+      <c r="AI50" s="81"/>
+      <c r="AJ50" s="81"/>
+      <c r="AK50" s="81"/>
+      <c r="AL50" s="81"/>
+      <c r="AM50" s="81"/>
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
@@ -5527,7 +5475,7 @@
       <c r="BL50" s="7"/>
       <c r="BM50" s="7"/>
     </row>
-    <row r="51" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="5"/>
       <c r="C51" s="10"/>
@@ -5561,12 +5509,12 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="6"/>
-      <c r="AH51" s="98"/>
-      <c r="AI51" s="98"/>
-      <c r="AJ51" s="98"/>
-      <c r="AK51" s="98"/>
-      <c r="AL51" s="98"/>
-      <c r="AM51" s="98"/>
+      <c r="AH51" s="81"/>
+      <c r="AI51" s="81"/>
+      <c r="AJ51" s="81"/>
+      <c r="AK51" s="81"/>
+      <c r="AL51" s="81"/>
+      <c r="AM51" s="81"/>
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
       <c r="AP51" s="5"/>
@@ -5594,7 +5542,7 @@
       <c r="BL51" s="7"/>
       <c r="BM51" s="7"/>
     </row>
-    <row r="52" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="5"/>
       <c r="C52" s="10"/>
@@ -5628,12 +5576,12 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="6"/>
-      <c r="AH52" s="98"/>
-      <c r="AI52" s="98"/>
-      <c r="AJ52" s="98"/>
-      <c r="AK52" s="98"/>
-      <c r="AL52" s="98"/>
-      <c r="AM52" s="98"/>
+      <c r="AH52" s="81"/>
+      <c r="AI52" s="81"/>
+      <c r="AJ52" s="81"/>
+      <c r="AK52" s="81"/>
+      <c r="AL52" s="81"/>
+      <c r="AM52" s="81"/>
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
       <c r="AP52" s="5"/>
@@ -5661,7 +5609,7 @@
       <c r="BL52" s="7"/>
       <c r="BM52" s="7"/>
     </row>
-    <row r="53" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="5"/>
       <c r="C53" s="10"/>
@@ -5695,12 +5643,12 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="6"/>
-      <c r="AH53" s="98"/>
-      <c r="AI53" s="98"/>
-      <c r="AJ53" s="98"/>
-      <c r="AK53" s="98"/>
-      <c r="AL53" s="98"/>
-      <c r="AM53" s="98"/>
+      <c r="AH53" s="81"/>
+      <c r="AI53" s="81"/>
+      <c r="AJ53" s="81"/>
+      <c r="AK53" s="81"/>
+      <c r="AL53" s="81"/>
+      <c r="AM53" s="81"/>
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
       <c r="AP53" s="5"/>
@@ -5728,7 +5676,7 @@
       <c r="BL53" s="7"/>
       <c r="BM53" s="7"/>
     </row>
-    <row r="54" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="5"/>
       <c r="C54" s="10"/>
@@ -5762,12 +5710,12 @@
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="6"/>
-      <c r="AH54" s="98"/>
-      <c r="AI54" s="98"/>
-      <c r="AJ54" s="98"/>
-      <c r="AK54" s="98"/>
-      <c r="AL54" s="98"/>
-      <c r="AM54" s="98"/>
+      <c r="AH54" s="81"/>
+      <c r="AI54" s="81"/>
+      <c r="AJ54" s="81"/>
+      <c r="AK54" s="81"/>
+      <c r="AL54" s="81"/>
+      <c r="AM54" s="81"/>
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
       <c r="AP54" s="5"/>
@@ -5795,7 +5743,7 @@
       <c r="BL54" s="7"/>
       <c r="BM54" s="7"/>
     </row>
-    <row r="55" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="5"/>
       <c r="C55" s="10"/>
@@ -5829,12 +5777,12 @@
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="6"/>
-      <c r="AH55" s="98"/>
-      <c r="AI55" s="98"/>
-      <c r="AJ55" s="98"/>
-      <c r="AK55" s="98"/>
-      <c r="AL55" s="98"/>
-      <c r="AM55" s="98"/>
+      <c r="AH55" s="81"/>
+      <c r="AI55" s="81"/>
+      <c r="AJ55" s="81"/>
+      <c r="AK55" s="81"/>
+      <c r="AL55" s="81"/>
+      <c r="AM55" s="81"/>
       <c r="AN55" s="5"/>
       <c r="AO55" s="5"/>
       <c r="AP55" s="5"/>
@@ -5862,7 +5810,7 @@
       <c r="BL55" s="7"/>
       <c r="BM55" s="7"/>
     </row>
-    <row r="56" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="5"/>
       <c r="C56" s="10"/>
@@ -5896,12 +5844,12 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="6"/>
-      <c r="AH56" s="98"/>
-      <c r="AI56" s="98"/>
-      <c r="AJ56" s="98"/>
-      <c r="AK56" s="98"/>
-      <c r="AL56" s="98"/>
-      <c r="AM56" s="98"/>
+      <c r="AH56" s="81"/>
+      <c r="AI56" s="81"/>
+      <c r="AJ56" s="81"/>
+      <c r="AK56" s="81"/>
+      <c r="AL56" s="81"/>
+      <c r="AM56" s="81"/>
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
       <c r="AP56" s="5"/>
@@ -5929,7 +5877,7 @@
       <c r="BL56" s="7"/>
       <c r="BM56" s="7"/>
     </row>
-    <row r="57" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="5"/>
       <c r="C57" s="10"/>
@@ -5963,12 +5911,12 @@
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="6"/>
-      <c r="AH57" s="98"/>
-      <c r="AI57" s="98"/>
-      <c r="AJ57" s="98"/>
-      <c r="AK57" s="98"/>
-      <c r="AL57" s="98"/>
-      <c r="AM57" s="98"/>
+      <c r="AH57" s="81"/>
+      <c r="AI57" s="81"/>
+      <c r="AJ57" s="81"/>
+      <c r="AK57" s="81"/>
+      <c r="AL57" s="81"/>
+      <c r="AM57" s="81"/>
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
       <c r="AP57" s="5"/>
@@ -5996,7 +5944,7 @@
       <c r="BL57" s="7"/>
       <c r="BM57" s="7"/>
     </row>
-    <row r="58" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="5"/>
       <c r="C58" s="10"/>
@@ -6030,12 +5978,12 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="6"/>
-      <c r="AH58" s="98"/>
-      <c r="AI58" s="98"/>
-      <c r="AJ58" s="98"/>
-      <c r="AK58" s="98"/>
-      <c r="AL58" s="98"/>
-      <c r="AM58" s="98"/>
+      <c r="AH58" s="81"/>
+      <c r="AI58" s="81"/>
+      <c r="AJ58" s="81"/>
+      <c r="AK58" s="81"/>
+      <c r="AL58" s="81"/>
+      <c r="AM58" s="81"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
       <c r="AP58" s="5"/>
@@ -6063,7 +6011,7 @@
       <c r="BL58" s="7"/>
       <c r="BM58" s="7"/>
     </row>
-    <row r="59" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="5"/>
       <c r="C59" s="10"/>
@@ -6097,12 +6045,12 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="6"/>
-      <c r="AH59" s="98"/>
-      <c r="AI59" s="98"/>
-      <c r="AJ59" s="98"/>
-      <c r="AK59" s="98"/>
-      <c r="AL59" s="98"/>
-      <c r="AM59" s="98"/>
+      <c r="AH59" s="81"/>
+      <c r="AI59" s="81"/>
+      <c r="AJ59" s="81"/>
+      <c r="AK59" s="81"/>
+      <c r="AL59" s="81"/>
+      <c r="AM59" s="81"/>
       <c r="AN59" s="5"/>
       <c r="AO59" s="5"/>
       <c r="AP59" s="5"/>
@@ -6130,7 +6078,7 @@
       <c r="BL59" s="7"/>
       <c r="BM59" s="7"/>
     </row>
-    <row r="60" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="5"/>
       <c r="C60" s="10"/>
@@ -6164,12 +6112,12 @@
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="6"/>
-      <c r="AH60" s="98"/>
-      <c r="AI60" s="98"/>
-      <c r="AJ60" s="98"/>
-      <c r="AK60" s="98"/>
-      <c r="AL60" s="98"/>
-      <c r="AM60" s="98"/>
+      <c r="AH60" s="81"/>
+      <c r="AI60" s="81"/>
+      <c r="AJ60" s="81"/>
+      <c r="AK60" s="81"/>
+      <c r="AL60" s="81"/>
+      <c r="AM60" s="81"/>
       <c r="AN60" s="5"/>
       <c r="AO60" s="5"/>
       <c r="AP60" s="5"/>
@@ -6197,7 +6145,7 @@
       <c r="BL60" s="7"/>
       <c r="BM60" s="7"/>
     </row>
-    <row r="61" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="5"/>
       <c r="C61" s="10"/>
@@ -6231,12 +6179,12 @@
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="6"/>
-      <c r="AH61" s="98"/>
-      <c r="AI61" s="98"/>
-      <c r="AJ61" s="98"/>
-      <c r="AK61" s="98"/>
-      <c r="AL61" s="98"/>
-      <c r="AM61" s="98"/>
+      <c r="AH61" s="81"/>
+      <c r="AI61" s="81"/>
+      <c r="AJ61" s="81"/>
+      <c r="AK61" s="81"/>
+      <c r="AL61" s="81"/>
+      <c r="AM61" s="81"/>
       <c r="AN61" s="5"/>
       <c r="AO61" s="5"/>
       <c r="AP61" s="5"/>
@@ -6264,7 +6212,7 @@
       <c r="BL61" s="7"/>
       <c r="BM61" s="7"/>
     </row>
-    <row r="62" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="5"/>
       <c r="C62" s="10"/>
@@ -6298,12 +6246,12 @@
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="6"/>
-      <c r="AH62" s="98"/>
-      <c r="AI62" s="98"/>
-      <c r="AJ62" s="98"/>
-      <c r="AK62" s="98"/>
-      <c r="AL62" s="98"/>
-      <c r="AM62" s="98"/>
+      <c r="AH62" s="81"/>
+      <c r="AI62" s="81"/>
+      <c r="AJ62" s="81"/>
+      <c r="AK62" s="81"/>
+      <c r="AL62" s="81"/>
+      <c r="AM62" s="81"/>
       <c r="AN62" s="5"/>
       <c r="AO62" s="5"/>
       <c r="AP62" s="5"/>
@@ -6331,7 +6279,7 @@
       <c r="BL62" s="7"/>
       <c r="BM62" s="7"/>
     </row>
-    <row r="63" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="5"/>
       <c r="C63" s="10"/>
@@ -6365,12 +6313,12 @@
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="6"/>
-      <c r="AH63" s="98"/>
-      <c r="AI63" s="98"/>
-      <c r="AJ63" s="98"/>
-      <c r="AK63" s="98"/>
-      <c r="AL63" s="98"/>
-      <c r="AM63" s="98"/>
+      <c r="AH63" s="81"/>
+      <c r="AI63" s="81"/>
+      <c r="AJ63" s="81"/>
+      <c r="AK63" s="81"/>
+      <c r="AL63" s="81"/>
+      <c r="AM63" s="81"/>
       <c r="AN63" s="5"/>
       <c r="AO63" s="5"/>
       <c r="AP63" s="5"/>
@@ -6398,7 +6346,7 @@
       <c r="BL63" s="7"/>
       <c r="BM63" s="7"/>
     </row>
-    <row r="64" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="5"/>
       <c r="C64" s="10"/>
@@ -6432,12 +6380,12 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="6"/>
-      <c r="AH64" s="98"/>
-      <c r="AI64" s="98"/>
-      <c r="AJ64" s="98"/>
-      <c r="AK64" s="98"/>
-      <c r="AL64" s="98"/>
-      <c r="AM64" s="98"/>
+      <c r="AH64" s="81"/>
+      <c r="AI64" s="81"/>
+      <c r="AJ64" s="81"/>
+      <c r="AK64" s="81"/>
+      <c r="AL64" s="81"/>
+      <c r="AM64" s="81"/>
       <c r="AN64" s="5"/>
       <c r="AO64" s="5"/>
       <c r="AP64" s="5"/>
@@ -6465,7 +6413,7 @@
       <c r="BL64" s="7"/>
       <c r="BM64" s="7"/>
     </row>
-    <row r="65" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="5"/>
       <c r="C65" s="10"/>
@@ -6499,12 +6447,12 @@
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="6"/>
-      <c r="AH65" s="98"/>
-      <c r="AI65" s="98"/>
-      <c r="AJ65" s="98"/>
-      <c r="AK65" s="98"/>
-      <c r="AL65" s="98"/>
-      <c r="AM65" s="98"/>
+      <c r="AH65" s="81"/>
+      <c r="AI65" s="81"/>
+      <c r="AJ65" s="81"/>
+      <c r="AK65" s="81"/>
+      <c r="AL65" s="81"/>
+      <c r="AM65" s="81"/>
       <c r="AN65" s="5"/>
       <c r="AO65" s="5"/>
       <c r="AP65" s="5"/>
@@ -6532,7 +6480,7 @@
       <c r="BL65" s="7"/>
       <c r="BM65" s="7"/>
     </row>
-    <row r="66" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="5"/>
       <c r="C66" s="10"/>
@@ -6566,12 +6514,12 @@
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="6"/>
-      <c r="AH66" s="98"/>
-      <c r="AI66" s="98"/>
-      <c r="AJ66" s="98"/>
-      <c r="AK66" s="98"/>
-      <c r="AL66" s="98"/>
-      <c r="AM66" s="98"/>
+      <c r="AH66" s="81"/>
+      <c r="AI66" s="81"/>
+      <c r="AJ66" s="81"/>
+      <c r="AK66" s="81"/>
+      <c r="AL66" s="81"/>
+      <c r="AM66" s="81"/>
       <c r="AN66" s="5"/>
       <c r="AO66" s="5"/>
       <c r="AP66" s="5"/>
@@ -6599,7 +6547,7 @@
       <c r="BL66" s="7"/>
       <c r="BM66" s="7"/>
     </row>
-    <row r="67" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="5"/>
       <c r="C67" s="10"/>
@@ -6633,12 +6581,12 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="6"/>
-      <c r="AH67" s="98"/>
-      <c r="AI67" s="98"/>
-      <c r="AJ67" s="98"/>
-      <c r="AK67" s="98"/>
-      <c r="AL67" s="98"/>
-      <c r="AM67" s="98"/>
+      <c r="AH67" s="81"/>
+      <c r="AI67" s="81"/>
+      <c r="AJ67" s="81"/>
+      <c r="AK67" s="81"/>
+      <c r="AL67" s="81"/>
+      <c r="AM67" s="81"/>
       <c r="AN67" s="5"/>
       <c r="AO67" s="5"/>
       <c r="AP67" s="5"/>
@@ -6666,7 +6614,7 @@
       <c r="BL67" s="7"/>
       <c r="BM67" s="7"/>
     </row>
-    <row r="68" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="5"/>
       <c r="C68" s="10"/>
@@ -6700,12 +6648,12 @@
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="6"/>
-      <c r="AH68" s="98"/>
-      <c r="AI68" s="98"/>
-      <c r="AJ68" s="98"/>
-      <c r="AK68" s="98"/>
-      <c r="AL68" s="98"/>
-      <c r="AM68" s="98"/>
+      <c r="AH68" s="81"/>
+      <c r="AI68" s="81"/>
+      <c r="AJ68" s="81"/>
+      <c r="AK68" s="81"/>
+      <c r="AL68" s="81"/>
+      <c r="AM68" s="81"/>
       <c r="AN68" s="5"/>
       <c r="AO68" s="5"/>
       <c r="AP68" s="5"/>
@@ -6733,7 +6681,7 @@
       <c r="BL68" s="7"/>
       <c r="BM68" s="7"/>
     </row>
-    <row r="69" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="5"/>
       <c r="C69" s="10"/>
@@ -6767,12 +6715,12 @@
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="6"/>
-      <c r="AH69" s="98"/>
-      <c r="AI69" s="98"/>
-      <c r="AJ69" s="98"/>
-      <c r="AK69" s="98"/>
-      <c r="AL69" s="98"/>
-      <c r="AM69" s="98"/>
+      <c r="AH69" s="81"/>
+      <c r="AI69" s="81"/>
+      <c r="AJ69" s="81"/>
+      <c r="AK69" s="81"/>
+      <c r="AL69" s="81"/>
+      <c r="AM69" s="81"/>
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
       <c r="AP69" s="5"/>
@@ -6800,7 +6748,7 @@
       <c r="BL69" s="7"/>
       <c r="BM69" s="7"/>
     </row>
-    <row r="70" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="5"/>
       <c r="C70" s="10"/>
@@ -6834,12 +6782,12 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="6"/>
-      <c r="AH70" s="98"/>
-      <c r="AI70" s="98"/>
-      <c r="AJ70" s="98"/>
-      <c r="AK70" s="98"/>
-      <c r="AL70" s="98"/>
-      <c r="AM70" s="98"/>
+      <c r="AH70" s="81"/>
+      <c r="AI70" s="81"/>
+      <c r="AJ70" s="81"/>
+      <c r="AK70" s="81"/>
+      <c r="AL70" s="81"/>
+      <c r="AM70" s="81"/>
       <c r="AN70" s="5"/>
       <c r="AO70" s="5"/>
       <c r="AP70" s="5"/>
@@ -6867,7 +6815,7 @@
       <c r="BL70" s="7"/>
       <c r="BM70" s="7"/>
     </row>
-    <row r="71" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="5"/>
       <c r="C71" s="10"/>
@@ -6901,12 +6849,12 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="6"/>
-      <c r="AH71" s="98"/>
-      <c r="AI71" s="98"/>
-      <c r="AJ71" s="98"/>
-      <c r="AK71" s="98"/>
-      <c r="AL71" s="98"/>
-      <c r="AM71" s="98"/>
+      <c r="AH71" s="81"/>
+      <c r="AI71" s="81"/>
+      <c r="AJ71" s="81"/>
+      <c r="AK71" s="81"/>
+      <c r="AL71" s="81"/>
+      <c r="AM71" s="81"/>
       <c r="AN71" s="5"/>
       <c r="AO71" s="5"/>
       <c r="AP71" s="5"/>
@@ -6934,7 +6882,7 @@
       <c r="BL71" s="7"/>
       <c r="BM71" s="7"/>
     </row>
-    <row r="72" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="5"/>
       <c r="C72" s="10"/>
@@ -6968,12 +6916,12 @@
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="6"/>
-      <c r="AH72" s="98"/>
-      <c r="AI72" s="98"/>
-      <c r="AJ72" s="98"/>
-      <c r="AK72" s="98"/>
-      <c r="AL72" s="98"/>
-      <c r="AM72" s="98"/>
+      <c r="AH72" s="81"/>
+      <c r="AI72" s="81"/>
+      <c r="AJ72" s="81"/>
+      <c r="AK72" s="81"/>
+      <c r="AL72" s="81"/>
+      <c r="AM72" s="81"/>
       <c r="AN72" s="5"/>
       <c r="AO72" s="5"/>
       <c r="AP72" s="5"/>
@@ -7001,7 +6949,7 @@
       <c r="BL72" s="7"/>
       <c r="BM72" s="7"/>
     </row>
-    <row r="73" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="5"/>
       <c r="C73" s="10"/>
@@ -7035,12 +6983,12 @@
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="6"/>
-      <c r="AH73" s="98"/>
-      <c r="AI73" s="98"/>
-      <c r="AJ73" s="98"/>
-      <c r="AK73" s="98"/>
-      <c r="AL73" s="98"/>
-      <c r="AM73" s="98"/>
+      <c r="AH73" s="81"/>
+      <c r="AI73" s="81"/>
+      <c r="AJ73" s="81"/>
+      <c r="AK73" s="81"/>
+      <c r="AL73" s="81"/>
+      <c r="AM73" s="81"/>
       <c r="AN73" s="5"/>
       <c r="AO73" s="5"/>
       <c r="AP73" s="5"/>
@@ -7068,7 +7016,7 @@
       <c r="BL73" s="7"/>
       <c r="BM73" s="7"/>
     </row>
-    <row r="74" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="5"/>
       <c r="C74" s="10"/>
@@ -7102,12 +7050,12 @@
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="6"/>
-      <c r="AH74" s="98"/>
-      <c r="AI74" s="98"/>
-      <c r="AJ74" s="98"/>
-      <c r="AK74" s="98"/>
-      <c r="AL74" s="98"/>
-      <c r="AM74" s="98"/>
+      <c r="AH74" s="81"/>
+      <c r="AI74" s="81"/>
+      <c r="AJ74" s="81"/>
+      <c r="AK74" s="81"/>
+      <c r="AL74" s="81"/>
+      <c r="AM74" s="81"/>
       <c r="AN74" s="5"/>
       <c r="AO74" s="5"/>
       <c r="AP74" s="5"/>
@@ -7135,7 +7083,7 @@
       <c r="BL74" s="7"/>
       <c r="BM74" s="7"/>
     </row>
-    <row r="75" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="5"/>
       <c r="C75" s="10"/>
@@ -7169,12 +7117,12 @@
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="6"/>
-      <c r="AH75" s="98"/>
-      <c r="AI75" s="98"/>
-      <c r="AJ75" s="98"/>
-      <c r="AK75" s="98"/>
-      <c r="AL75" s="98"/>
-      <c r="AM75" s="98"/>
+      <c r="AH75" s="81"/>
+      <c r="AI75" s="81"/>
+      <c r="AJ75" s="81"/>
+      <c r="AK75" s="81"/>
+      <c r="AL75" s="81"/>
+      <c r="AM75" s="81"/>
       <c r="AN75" s="5"/>
       <c r="AO75" s="5"/>
       <c r="AP75" s="5"/>
@@ -7202,7 +7150,7 @@
       <c r="BL75" s="7"/>
       <c r="BM75" s="7"/>
     </row>
-    <row r="76" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="5"/>
       <c r="C76" s="10"/>
@@ -7236,12 +7184,12 @@
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="6"/>
-      <c r="AH76" s="98"/>
-      <c r="AI76" s="98"/>
-      <c r="AJ76" s="98"/>
-      <c r="AK76" s="98"/>
-      <c r="AL76" s="98"/>
-      <c r="AM76" s="98"/>
+      <c r="AH76" s="81"/>
+      <c r="AI76" s="81"/>
+      <c r="AJ76" s="81"/>
+      <c r="AK76" s="81"/>
+      <c r="AL76" s="81"/>
+      <c r="AM76" s="81"/>
       <c r="AN76" s="5"/>
       <c r="AO76" s="5"/>
       <c r="AP76" s="5"/>
@@ -7269,7 +7217,7 @@
       <c r="BL76" s="7"/>
       <c r="BM76" s="7"/>
     </row>
-    <row r="77" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="5"/>
       <c r="C77" s="10"/>
@@ -7303,12 +7251,12 @@
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="6"/>
-      <c r="AH77" s="98"/>
-      <c r="AI77" s="98"/>
-      <c r="AJ77" s="98"/>
-      <c r="AK77" s="98"/>
-      <c r="AL77" s="98"/>
-      <c r="AM77" s="98"/>
+      <c r="AH77" s="81"/>
+      <c r="AI77" s="81"/>
+      <c r="AJ77" s="81"/>
+      <c r="AK77" s="81"/>
+      <c r="AL77" s="81"/>
+      <c r="AM77" s="81"/>
       <c r="AN77" s="5"/>
       <c r="AO77" s="5"/>
       <c r="AP77" s="5"/>
@@ -7336,7 +7284,7 @@
       <c r="BL77" s="7"/>
       <c r="BM77" s="7"/>
     </row>
-    <row r="78" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="5"/>
       <c r="C78" s="10"/>
@@ -7370,12 +7318,12 @@
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="6"/>
-      <c r="AH78" s="98"/>
-      <c r="AI78" s="98"/>
-      <c r="AJ78" s="98"/>
-      <c r="AK78" s="98"/>
-      <c r="AL78" s="98"/>
-      <c r="AM78" s="98"/>
+      <c r="AH78" s="81"/>
+      <c r="AI78" s="81"/>
+      <c r="AJ78" s="81"/>
+      <c r="AK78" s="81"/>
+      <c r="AL78" s="81"/>
+      <c r="AM78" s="81"/>
       <c r="AN78" s="5"/>
       <c r="AO78" s="5"/>
       <c r="AP78" s="5"/>
@@ -7403,7 +7351,7 @@
       <c r="BL78" s="7"/>
       <c r="BM78" s="7"/>
     </row>
-    <row r="79" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="5"/>
       <c r="C79" s="10"/>
@@ -7437,12 +7385,12 @@
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="6"/>
-      <c r="AH79" s="98"/>
-      <c r="AI79" s="98"/>
-      <c r="AJ79" s="98"/>
-      <c r="AK79" s="98"/>
-      <c r="AL79" s="98"/>
-      <c r="AM79" s="98"/>
+      <c r="AH79" s="81"/>
+      <c r="AI79" s="81"/>
+      <c r="AJ79" s="81"/>
+      <c r="AK79" s="81"/>
+      <c r="AL79" s="81"/>
+      <c r="AM79" s="81"/>
       <c r="AN79" s="5"/>
       <c r="AO79" s="5"/>
       <c r="AP79" s="5"/>
@@ -7470,7 +7418,7 @@
       <c r="BL79" s="7"/>
       <c r="BM79" s="7"/>
     </row>
-    <row r="80" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="5"/>
       <c r="C80" s="10"/>
@@ -7504,12 +7452,12 @@
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="6"/>
-      <c r="AH80" s="98"/>
-      <c r="AI80" s="98"/>
-      <c r="AJ80" s="98"/>
-      <c r="AK80" s="98"/>
-      <c r="AL80" s="98"/>
-      <c r="AM80" s="98"/>
+      <c r="AH80" s="81"/>
+      <c r="AI80" s="81"/>
+      <c r="AJ80" s="81"/>
+      <c r="AK80" s="81"/>
+      <c r="AL80" s="81"/>
+      <c r="AM80" s="81"/>
       <c r="AN80" s="5"/>
       <c r="AO80" s="5"/>
       <c r="AP80" s="5"/>
@@ -7537,7 +7485,7 @@
       <c r="BL80" s="7"/>
       <c r="BM80" s="7"/>
     </row>
-    <row r="81" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="5"/>
       <c r="C81" s="10"/>
@@ -7571,12 +7519,12 @@
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="6"/>
-      <c r="AH81" s="98"/>
-      <c r="AI81" s="98"/>
-      <c r="AJ81" s="98"/>
-      <c r="AK81" s="98"/>
-      <c r="AL81" s="98"/>
-      <c r="AM81" s="98"/>
+      <c r="AH81" s="81"/>
+      <c r="AI81" s="81"/>
+      <c r="AJ81" s="81"/>
+      <c r="AK81" s="81"/>
+      <c r="AL81" s="81"/>
+      <c r="AM81" s="81"/>
       <c r="AN81" s="5"/>
       <c r="AO81" s="5"/>
       <c r="AP81" s="5"/>
@@ -7604,7 +7552,7 @@
       <c r="BL81" s="7"/>
       <c r="BM81" s="7"/>
     </row>
-    <row r="82" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="5"/>
       <c r="C82" s="10"/>
@@ -7638,12 +7586,12 @@
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="6"/>
-      <c r="AH82" s="98"/>
-      <c r="AI82" s="98"/>
-      <c r="AJ82" s="98"/>
-      <c r="AK82" s="98"/>
-      <c r="AL82" s="98"/>
-      <c r="AM82" s="98"/>
+      <c r="AH82" s="81"/>
+      <c r="AI82" s="81"/>
+      <c r="AJ82" s="81"/>
+      <c r="AK82" s="81"/>
+      <c r="AL82" s="81"/>
+      <c r="AM82" s="81"/>
       <c r="AN82" s="5"/>
       <c r="AO82" s="5"/>
       <c r="AP82" s="5"/>
@@ -7671,7 +7619,7 @@
       <c r="BL82" s="7"/>
       <c r="BM82" s="7"/>
     </row>
-    <row r="83" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="5"/>
       <c r="C83" s="10"/>
@@ -7705,12 +7653,12 @@
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="6"/>
-      <c r="AH83" s="98"/>
-      <c r="AI83" s="98"/>
-      <c r="AJ83" s="98"/>
-      <c r="AK83" s="98"/>
-      <c r="AL83" s="98"/>
-      <c r="AM83" s="98"/>
+      <c r="AH83" s="81"/>
+      <c r="AI83" s="81"/>
+      <c r="AJ83" s="81"/>
+      <c r="AK83" s="81"/>
+      <c r="AL83" s="81"/>
+      <c r="AM83" s="81"/>
       <c r="AN83" s="5"/>
       <c r="AO83" s="5"/>
       <c r="AP83" s="5"/>
@@ -7738,7 +7686,7 @@
       <c r="BL83" s="7"/>
       <c r="BM83" s="7"/>
     </row>
-    <row r="84" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="5"/>
       <c r="C84" s="10"/>
@@ -7772,12 +7720,12 @@
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="6"/>
-      <c r="AH84" s="98"/>
-      <c r="AI84" s="98"/>
-      <c r="AJ84" s="98"/>
-      <c r="AK84" s="98"/>
-      <c r="AL84" s="98"/>
-      <c r="AM84" s="98"/>
+      <c r="AH84" s="81"/>
+      <c r="AI84" s="81"/>
+      <c r="AJ84" s="81"/>
+      <c r="AK84" s="81"/>
+      <c r="AL84" s="81"/>
+      <c r="AM84" s="81"/>
       <c r="AN84" s="5"/>
       <c r="AO84" s="5"/>
       <c r="AP84" s="5"/>
@@ -7805,7 +7753,7 @@
       <c r="BL84" s="7"/>
       <c r="BM84" s="7"/>
     </row>
-    <row r="85" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="5"/>
       <c r="C85" s="10"/>
@@ -7839,12 +7787,12 @@
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AG85" s="6"/>
-      <c r="AH85" s="98"/>
-      <c r="AI85" s="98"/>
-      <c r="AJ85" s="98"/>
-      <c r="AK85" s="98"/>
-      <c r="AL85" s="98"/>
-      <c r="AM85" s="98"/>
+      <c r="AH85" s="81"/>
+      <c r="AI85" s="81"/>
+      <c r="AJ85" s="81"/>
+      <c r="AK85" s="81"/>
+      <c r="AL85" s="81"/>
+      <c r="AM85" s="81"/>
       <c r="AN85" s="5"/>
       <c r="AO85" s="5"/>
       <c r="AP85" s="5"/>
@@ -7872,7 +7820,7 @@
       <c r="BL85" s="7"/>
       <c r="BM85" s="7"/>
     </row>
-    <row r="86" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="5"/>
       <c r="C86" s="10"/>
@@ -7906,12 +7854,12 @@
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
       <c r="AG86" s="6"/>
-      <c r="AH86" s="98"/>
-      <c r="AI86" s="98"/>
-      <c r="AJ86" s="98"/>
-      <c r="AK86" s="98"/>
-      <c r="AL86" s="98"/>
-      <c r="AM86" s="98"/>
+      <c r="AH86" s="81"/>
+      <c r="AI86" s="81"/>
+      <c r="AJ86" s="81"/>
+      <c r="AK86" s="81"/>
+      <c r="AL86" s="81"/>
+      <c r="AM86" s="81"/>
       <c r="AN86" s="5"/>
       <c r="AO86" s="5"/>
       <c r="AP86" s="5"/>
@@ -7939,7 +7887,7 @@
       <c r="BL86" s="7"/>
       <c r="BM86" s="7"/>
     </row>
-    <row r="87" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="5"/>
       <c r="C87" s="10"/>
@@ -7973,12 +7921,12 @@
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
       <c r="AG87" s="6"/>
-      <c r="AH87" s="98"/>
-      <c r="AI87" s="98"/>
-      <c r="AJ87" s="98"/>
-      <c r="AK87" s="98"/>
-      <c r="AL87" s="98"/>
-      <c r="AM87" s="98"/>
+      <c r="AH87" s="81"/>
+      <c r="AI87" s="81"/>
+      <c r="AJ87" s="81"/>
+      <c r="AK87" s="81"/>
+      <c r="AL87" s="81"/>
+      <c r="AM87" s="81"/>
       <c r="AN87" s="5"/>
       <c r="AO87" s="5"/>
       <c r="AP87" s="5"/>
@@ -8006,7 +7954,7 @@
       <c r="BL87" s="7"/>
       <c r="BM87" s="7"/>
     </row>
-    <row r="88" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="5"/>
       <c r="C88" s="10"/>
@@ -8040,12 +7988,12 @@
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="6"/>
-      <c r="AH88" s="98"/>
-      <c r="AI88" s="98"/>
-      <c r="AJ88" s="98"/>
-      <c r="AK88" s="98"/>
-      <c r="AL88" s="98"/>
-      <c r="AM88" s="98"/>
+      <c r="AH88" s="81"/>
+      <c r="AI88" s="81"/>
+      <c r="AJ88" s="81"/>
+      <c r="AK88" s="81"/>
+      <c r="AL88" s="81"/>
+      <c r="AM88" s="81"/>
       <c r="AN88" s="5"/>
       <c r="AO88" s="5"/>
       <c r="AP88" s="5"/>
@@ -8073,7 +8021,7 @@
       <c r="BL88" s="7"/>
       <c r="BM88" s="7"/>
     </row>
-    <row r="89" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="5"/>
       <c r="C89" s="10"/>
@@ -8107,12 +8055,12 @@
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="6"/>
-      <c r="AH89" s="98"/>
-      <c r="AI89" s="98"/>
-      <c r="AJ89" s="98"/>
-      <c r="AK89" s="98"/>
-      <c r="AL89" s="98"/>
-      <c r="AM89" s="98"/>
+      <c r="AH89" s="81"/>
+      <c r="AI89" s="81"/>
+      <c r="AJ89" s="81"/>
+      <c r="AK89" s="81"/>
+      <c r="AL89" s="81"/>
+      <c r="AM89" s="81"/>
       <c r="AN89" s="5"/>
       <c r="AO89" s="5"/>
       <c r="AP89" s="5"/>
@@ -8140,7 +8088,7 @@
       <c r="BL89" s="7"/>
       <c r="BM89" s="7"/>
     </row>
-    <row r="90" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="5"/>
       <c r="C90" s="10"/>
@@ -8174,12 +8122,12 @@
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="6"/>
-      <c r="AH90" s="98"/>
-      <c r="AI90" s="98"/>
-      <c r="AJ90" s="98"/>
-      <c r="AK90" s="98"/>
-      <c r="AL90" s="98"/>
-      <c r="AM90" s="98"/>
+      <c r="AH90" s="81"/>
+      <c r="AI90" s="81"/>
+      <c r="AJ90" s="81"/>
+      <c r="AK90" s="81"/>
+      <c r="AL90" s="81"/>
+      <c r="AM90" s="81"/>
       <c r="AN90" s="5"/>
       <c r="AO90" s="5"/>
       <c r="AP90" s="5"/>
@@ -8207,7 +8155,7 @@
       <c r="BL90" s="7"/>
       <c r="BM90" s="7"/>
     </row>
-    <row r="91" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="5"/>
       <c r="C91" s="10"/>
@@ -8241,12 +8189,12 @@
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="6"/>
-      <c r="AH91" s="98"/>
-      <c r="AI91" s="98"/>
-      <c r="AJ91" s="98"/>
-      <c r="AK91" s="98"/>
-      <c r="AL91" s="98"/>
-      <c r="AM91" s="98"/>
+      <c r="AH91" s="81"/>
+      <c r="AI91" s="81"/>
+      <c r="AJ91" s="81"/>
+      <c r="AK91" s="81"/>
+      <c r="AL91" s="81"/>
+      <c r="AM91" s="81"/>
       <c r="AN91" s="5"/>
       <c r="AO91" s="5"/>
       <c r="AP91" s="5"/>
@@ -8274,7 +8222,7 @@
       <c r="BL91" s="7"/>
       <c r="BM91" s="7"/>
     </row>
-    <row r="92" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="5"/>
       <c r="C92" s="10"/>
@@ -8308,12 +8256,12 @@
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="6"/>
-      <c r="AH92" s="98"/>
-      <c r="AI92" s="98"/>
-      <c r="AJ92" s="98"/>
-      <c r="AK92" s="98"/>
-      <c r="AL92" s="98"/>
-      <c r="AM92" s="98"/>
+      <c r="AH92" s="81"/>
+      <c r="AI92" s="81"/>
+      <c r="AJ92" s="81"/>
+      <c r="AK92" s="81"/>
+      <c r="AL92" s="81"/>
+      <c r="AM92" s="81"/>
       <c r="AN92" s="5"/>
       <c r="AO92" s="5"/>
       <c r="AP92" s="5"/>
@@ -8341,7 +8289,7 @@
       <c r="BL92" s="7"/>
       <c r="BM92" s="7"/>
     </row>
-    <row r="93" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="5"/>
       <c r="C93" s="10"/>
@@ -8375,12 +8323,12 @@
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="6"/>
-      <c r="AH93" s="98"/>
-      <c r="AI93" s="98"/>
-      <c r="AJ93" s="98"/>
-      <c r="AK93" s="98"/>
-      <c r="AL93" s="98"/>
-      <c r="AM93" s="98"/>
+      <c r="AH93" s="81"/>
+      <c r="AI93" s="81"/>
+      <c r="AJ93" s="81"/>
+      <c r="AK93" s="81"/>
+      <c r="AL93" s="81"/>
+      <c r="AM93" s="81"/>
       <c r="AN93" s="5"/>
       <c r="AO93" s="5"/>
       <c r="AP93" s="5"/>
@@ -8408,7 +8356,7 @@
       <c r="BL93" s="7"/>
       <c r="BM93" s="7"/>
     </row>
-    <row r="94" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="5"/>
       <c r="C94" s="10"/>
@@ -8442,12 +8390,12 @@
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="6"/>
-      <c r="AH94" s="98"/>
-      <c r="AI94" s="98"/>
-      <c r="AJ94" s="98"/>
-      <c r="AK94" s="98"/>
-      <c r="AL94" s="98"/>
-      <c r="AM94" s="98"/>
+      <c r="AH94" s="81"/>
+      <c r="AI94" s="81"/>
+      <c r="AJ94" s="81"/>
+      <c r="AK94" s="81"/>
+      <c r="AL94" s="81"/>
+      <c r="AM94" s="81"/>
       <c r="AN94" s="5"/>
       <c r="AO94" s="5"/>
       <c r="AP94" s="5"/>
@@ -8475,7 +8423,7 @@
       <c r="BL94" s="7"/>
       <c r="BM94" s="7"/>
     </row>
-    <row r="95" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="5"/>
       <c r="C95" s="10"/>
@@ -8509,12 +8457,12 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="6"/>
-      <c r="AH95" s="98"/>
-      <c r="AI95" s="98"/>
-      <c r="AJ95" s="98"/>
-      <c r="AK95" s="98"/>
-      <c r="AL95" s="98"/>
-      <c r="AM95" s="98"/>
+      <c r="AH95" s="81"/>
+      <c r="AI95" s="81"/>
+      <c r="AJ95" s="81"/>
+      <c r="AK95" s="81"/>
+      <c r="AL95" s="81"/>
+      <c r="AM95" s="81"/>
       <c r="AN95" s="5"/>
       <c r="AO95" s="5"/>
       <c r="AP95" s="5"/>
@@ -8542,7 +8490,7 @@
       <c r="BL95" s="7"/>
       <c r="BM95" s="7"/>
     </row>
-    <row r="96" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="5"/>
       <c r="C96" s="10"/>
@@ -8576,12 +8524,12 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="6"/>
-      <c r="AH96" s="98"/>
-      <c r="AI96" s="98"/>
-      <c r="AJ96" s="98"/>
-      <c r="AK96" s="98"/>
-      <c r="AL96" s="98"/>
-      <c r="AM96" s="98"/>
+      <c r="AH96" s="81"/>
+      <c r="AI96" s="81"/>
+      <c r="AJ96" s="81"/>
+      <c r="AK96" s="81"/>
+      <c r="AL96" s="81"/>
+      <c r="AM96" s="81"/>
       <c r="AN96" s="5"/>
       <c r="AO96" s="5"/>
       <c r="AP96" s="5"/>
@@ -8609,7 +8557,7 @@
       <c r="BL96" s="7"/>
       <c r="BM96" s="7"/>
     </row>
-    <row r="97" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="5"/>
       <c r="C97" s="10"/>
@@ -8643,12 +8591,12 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="6"/>
-      <c r="AH97" s="98"/>
-      <c r="AI97" s="98"/>
-      <c r="AJ97" s="98"/>
-      <c r="AK97" s="98"/>
-      <c r="AL97" s="98"/>
-      <c r="AM97" s="98"/>
+      <c r="AH97" s="81"/>
+      <c r="AI97" s="81"/>
+      <c r="AJ97" s="81"/>
+      <c r="AK97" s="81"/>
+      <c r="AL97" s="81"/>
+      <c r="AM97" s="81"/>
       <c r="AN97" s="5"/>
       <c r="AO97" s="5"/>
       <c r="AP97" s="5"/>
@@ -8676,7 +8624,7 @@
       <c r="BL97" s="7"/>
       <c r="BM97" s="7"/>
     </row>
-    <row r="98" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="5"/>
       <c r="C98" s="10"/>
@@ -8710,12 +8658,12 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="6"/>
-      <c r="AH98" s="98"/>
-      <c r="AI98" s="98"/>
-      <c r="AJ98" s="98"/>
-      <c r="AK98" s="98"/>
-      <c r="AL98" s="98"/>
-      <c r="AM98" s="98"/>
+      <c r="AH98" s="81"/>
+      <c r="AI98" s="81"/>
+      <c r="AJ98" s="81"/>
+      <c r="AK98" s="81"/>
+      <c r="AL98" s="81"/>
+      <c r="AM98" s="81"/>
       <c r="AN98" s="5"/>
       <c r="AO98" s="5"/>
       <c r="AP98" s="5"/>
@@ -8743,7 +8691,7 @@
       <c r="BL98" s="7"/>
       <c r="BM98" s="7"/>
     </row>
-    <row r="99" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="5"/>
       <c r="C99" s="10"/>
@@ -8777,12 +8725,12 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AG99" s="6"/>
-      <c r="AH99" s="98"/>
-      <c r="AI99" s="98"/>
-      <c r="AJ99" s="98"/>
-      <c r="AK99" s="98"/>
-      <c r="AL99" s="98"/>
-      <c r="AM99" s="98"/>
+      <c r="AH99" s="81"/>
+      <c r="AI99" s="81"/>
+      <c r="AJ99" s="81"/>
+      <c r="AK99" s="81"/>
+      <c r="AL99" s="81"/>
+      <c r="AM99" s="81"/>
       <c r="AN99" s="5"/>
       <c r="AO99" s="5"/>
       <c r="AP99" s="5"/>
@@ -8810,7 +8758,7 @@
       <c r="BL99" s="7"/>
       <c r="BM99" s="7"/>
     </row>
-    <row r="100" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="5"/>
       <c r="C100" s="10"/>
@@ -8844,12 +8792,12 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="6"/>
-      <c r="AH100" s="98"/>
-      <c r="AI100" s="98"/>
-      <c r="AJ100" s="98"/>
-      <c r="AK100" s="98"/>
-      <c r="AL100" s="98"/>
-      <c r="AM100" s="98"/>
+      <c r="AH100" s="81"/>
+      <c r="AI100" s="81"/>
+      <c r="AJ100" s="81"/>
+      <c r="AK100" s="81"/>
+      <c r="AL100" s="81"/>
+      <c r="AM100" s="81"/>
       <c r="AN100" s="5"/>
       <c r="AO100" s="5"/>
       <c r="AP100" s="5"/>
@@ -8877,7 +8825,7 @@
       <c r="BL100" s="7"/>
       <c r="BM100" s="7"/>
     </row>
-    <row r="101" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="5"/>
       <c r="C101" s="10"/>
@@ -8911,12 +8859,12 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AG101" s="6"/>
-      <c r="AH101" s="98"/>
-      <c r="AI101" s="98"/>
-      <c r="AJ101" s="98"/>
-      <c r="AK101" s="98"/>
-      <c r="AL101" s="98"/>
-      <c r="AM101" s="98"/>
+      <c r="AH101" s="81"/>
+      <c r="AI101" s="81"/>
+      <c r="AJ101" s="81"/>
+      <c r="AK101" s="81"/>
+      <c r="AL101" s="81"/>
+      <c r="AM101" s="81"/>
       <c r="AN101" s="5"/>
       <c r="AO101" s="5"/>
       <c r="AP101" s="5"/>
@@ -8944,7 +8892,7 @@
       <c r="BL101" s="7"/>
       <c r="BM101" s="7"/>
     </row>
-    <row r="102" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="5"/>
       <c r="C102" s="10"/>
@@ -8978,12 +8926,12 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="6"/>
-      <c r="AH102" s="98"/>
-      <c r="AI102" s="98"/>
-      <c r="AJ102" s="98"/>
-      <c r="AK102" s="98"/>
-      <c r="AL102" s="98"/>
-      <c r="AM102" s="98"/>
+      <c r="AH102" s="81"/>
+      <c r="AI102" s="81"/>
+      <c r="AJ102" s="81"/>
+      <c r="AK102" s="81"/>
+      <c r="AL102" s="81"/>
+      <c r="AM102" s="81"/>
       <c r="AN102" s="5"/>
       <c r="AO102" s="5"/>
       <c r="AP102" s="5"/>
@@ -9011,7 +8959,7 @@
       <c r="BL102" s="7"/>
       <c r="BM102" s="7"/>
     </row>
-    <row r="103" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="5"/>
       <c r="C103" s="10"/>
@@ -9045,12 +8993,12 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AG103" s="6"/>
-      <c r="AH103" s="98"/>
-      <c r="AI103" s="98"/>
-      <c r="AJ103" s="98"/>
-      <c r="AK103" s="98"/>
-      <c r="AL103" s="98"/>
-      <c r="AM103" s="98"/>
+      <c r="AH103" s="81"/>
+      <c r="AI103" s="81"/>
+      <c r="AJ103" s="81"/>
+      <c r="AK103" s="81"/>
+      <c r="AL103" s="81"/>
+      <c r="AM103" s="81"/>
       <c r="AN103" s="5"/>
       <c r="AO103" s="5"/>
       <c r="AP103" s="5"/>
@@ -9078,7 +9026,7 @@
       <c r="BL103" s="7"/>
       <c r="BM103" s="7"/>
     </row>
-    <row r="104" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="5"/>
       <c r="C104" s="10"/>
@@ -9112,12 +9060,12 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AG104" s="6"/>
-      <c r="AH104" s="98"/>
-      <c r="AI104" s="98"/>
-      <c r="AJ104" s="98"/>
-      <c r="AK104" s="98"/>
-      <c r="AL104" s="98"/>
-      <c r="AM104" s="98"/>
+      <c r="AH104" s="81"/>
+      <c r="AI104" s="81"/>
+      <c r="AJ104" s="81"/>
+      <c r="AK104" s="81"/>
+      <c r="AL104" s="81"/>
+      <c r="AM104" s="81"/>
       <c r="AN104" s="5"/>
       <c r="AO104" s="5"/>
       <c r="AP104" s="5"/>
@@ -9145,7 +9093,7 @@
       <c r="BL104" s="7"/>
       <c r="BM104" s="7"/>
     </row>
-    <row r="105" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="5"/>
       <c r="C105" s="10"/>
@@ -9179,12 +9127,12 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AG105" s="6"/>
-      <c r="AH105" s="98"/>
-      <c r="AI105" s="98"/>
-      <c r="AJ105" s="98"/>
-      <c r="AK105" s="98"/>
-      <c r="AL105" s="98"/>
-      <c r="AM105" s="98"/>
+      <c r="AH105" s="81"/>
+      <c r="AI105" s="81"/>
+      <c r="AJ105" s="81"/>
+      <c r="AK105" s="81"/>
+      <c r="AL105" s="81"/>
+      <c r="AM105" s="81"/>
       <c r="AN105" s="5"/>
       <c r="AO105" s="5"/>
       <c r="AP105" s="5"/>
@@ -9212,7 +9160,7 @@
       <c r="BL105" s="7"/>
       <c r="BM105" s="7"/>
     </row>
-    <row r="106" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="5"/>
       <c r="C106" s="10"/>
@@ -9246,12 +9194,12 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="6"/>
-      <c r="AH106" s="98"/>
-      <c r="AI106" s="98"/>
-      <c r="AJ106" s="98"/>
-      <c r="AK106" s="98"/>
-      <c r="AL106" s="98"/>
-      <c r="AM106" s="98"/>
+      <c r="AH106" s="81"/>
+      <c r="AI106" s="81"/>
+      <c r="AJ106" s="81"/>
+      <c r="AK106" s="81"/>
+      <c r="AL106" s="81"/>
+      <c r="AM106" s="81"/>
       <c r="AN106" s="5"/>
       <c r="AO106" s="5"/>
       <c r="AP106" s="5"/>
@@ -9279,7 +9227,7 @@
       <c r="BL106" s="7"/>
       <c r="BM106" s="7"/>
     </row>
-    <row r="107" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="5"/>
       <c r="C107" s="10"/>
@@ -9313,12 +9261,12 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AG107" s="6"/>
-      <c r="AH107" s="98"/>
-      <c r="AI107" s="98"/>
-      <c r="AJ107" s="98"/>
-      <c r="AK107" s="98"/>
-      <c r="AL107" s="98"/>
-      <c r="AM107" s="98"/>
+      <c r="AH107" s="81"/>
+      <c r="AI107" s="81"/>
+      <c r="AJ107" s="81"/>
+      <c r="AK107" s="81"/>
+      <c r="AL107" s="81"/>
+      <c r="AM107" s="81"/>
       <c r="AN107" s="5"/>
       <c r="AO107" s="5"/>
       <c r="AP107" s="5"/>
@@ -9346,7 +9294,7 @@
       <c r="BL107" s="7"/>
       <c r="BM107" s="7"/>
     </row>
-    <row r="108" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="5"/>
       <c r="C108" s="10"/>
@@ -9380,12 +9328,12 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="6"/>
-      <c r="AH108" s="98"/>
-      <c r="AI108" s="98"/>
-      <c r="AJ108" s="98"/>
-      <c r="AK108" s="98"/>
-      <c r="AL108" s="98"/>
-      <c r="AM108" s="98"/>
+      <c r="AH108" s="81"/>
+      <c r="AI108" s="81"/>
+      <c r="AJ108" s="81"/>
+      <c r="AK108" s="81"/>
+      <c r="AL108" s="81"/>
+      <c r="AM108" s="81"/>
       <c r="AN108" s="5"/>
       <c r="AO108" s="5"/>
       <c r="AP108" s="5"/>
@@ -9413,7 +9361,7 @@
       <c r="BL108" s="7"/>
       <c r="BM108" s="7"/>
     </row>
-    <row r="109" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="5"/>
       <c r="C109" s="10"/>
@@ -9447,12 +9395,12 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="6"/>
-      <c r="AH109" s="98"/>
-      <c r="AI109" s="98"/>
-      <c r="AJ109" s="98"/>
-      <c r="AK109" s="98"/>
-      <c r="AL109" s="98"/>
-      <c r="AM109" s="98"/>
+      <c r="AH109" s="81"/>
+      <c r="AI109" s="81"/>
+      <c r="AJ109" s="81"/>
+      <c r="AK109" s="81"/>
+      <c r="AL109" s="81"/>
+      <c r="AM109" s="81"/>
       <c r="AN109" s="5"/>
       <c r="AO109" s="5"/>
       <c r="AP109" s="5"/>
@@ -9480,7 +9428,7 @@
       <c r="BL109" s="7"/>
       <c r="BM109" s="7"/>
     </row>
-    <row r="110" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="5"/>
       <c r="C110" s="10"/>
@@ -9514,12 +9462,12 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="6"/>
-      <c r="AH110" s="98"/>
-      <c r="AI110" s="98"/>
-      <c r="AJ110" s="98"/>
-      <c r="AK110" s="98"/>
-      <c r="AL110" s="98"/>
-      <c r="AM110" s="98"/>
+      <c r="AH110" s="81"/>
+      <c r="AI110" s="81"/>
+      <c r="AJ110" s="81"/>
+      <c r="AK110" s="81"/>
+      <c r="AL110" s="81"/>
+      <c r="AM110" s="81"/>
       <c r="AN110" s="5"/>
       <c r="AO110" s="5"/>
       <c r="AP110" s="5"/>
@@ -9547,7 +9495,7 @@
       <c r="BL110" s="7"/>
       <c r="BM110" s="7"/>
     </row>
-    <row r="111" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="5"/>
       <c r="C111" s="10"/>
@@ -9581,12 +9529,12 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AG111" s="6"/>
-      <c r="AH111" s="98"/>
-      <c r="AI111" s="98"/>
-      <c r="AJ111" s="98"/>
-      <c r="AK111" s="98"/>
-      <c r="AL111" s="98"/>
-      <c r="AM111" s="98"/>
+      <c r="AH111" s="81"/>
+      <c r="AI111" s="81"/>
+      <c r="AJ111" s="81"/>
+      <c r="AK111" s="81"/>
+      <c r="AL111" s="81"/>
+      <c r="AM111" s="81"/>
       <c r="AN111" s="5"/>
       <c r="AO111" s="5"/>
       <c r="AP111" s="5"/>
@@ -9614,7 +9562,7 @@
       <c r="BL111" s="7"/>
       <c r="BM111" s="7"/>
     </row>
-    <row r="112" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="5"/>
       <c r="C112" s="10"/>
@@ -9648,12 +9596,12 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AG112" s="6"/>
-      <c r="AH112" s="98"/>
-      <c r="AI112" s="98"/>
-      <c r="AJ112" s="98"/>
-      <c r="AK112" s="98"/>
-      <c r="AL112" s="98"/>
-      <c r="AM112" s="98"/>
+      <c r="AH112" s="81"/>
+      <c r="AI112" s="81"/>
+      <c r="AJ112" s="81"/>
+      <c r="AK112" s="81"/>
+      <c r="AL112" s="81"/>
+      <c r="AM112" s="81"/>
       <c r="AN112" s="5"/>
       <c r="AO112" s="5"/>
       <c r="AP112" s="5"/>
@@ -9681,7 +9629,7 @@
       <c r="BL112" s="7"/>
       <c r="BM112" s="7"/>
     </row>
-    <row r="113" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="5"/>
       <c r="C113" s="10"/>
@@ -9715,12 +9663,12 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AG113" s="6"/>
-      <c r="AH113" s="98"/>
-      <c r="AI113" s="98"/>
-      <c r="AJ113" s="98"/>
-      <c r="AK113" s="98"/>
-      <c r="AL113" s="98"/>
-      <c r="AM113" s="98"/>
+      <c r="AH113" s="81"/>
+      <c r="AI113" s="81"/>
+      <c r="AJ113" s="81"/>
+      <c r="AK113" s="81"/>
+      <c r="AL113" s="81"/>
+      <c r="AM113" s="81"/>
       <c r="AN113" s="5"/>
       <c r="AO113" s="5"/>
       <c r="AP113" s="5"/>
@@ -9748,7 +9696,7 @@
       <c r="BL113" s="7"/>
       <c r="BM113" s="7"/>
     </row>
-    <row r="114" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="5"/>
       <c r="C114" s="10"/>
@@ -9782,12 +9730,12 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="6"/>
-      <c r="AH114" s="98"/>
-      <c r="AI114" s="98"/>
-      <c r="AJ114" s="98"/>
-      <c r="AK114" s="98"/>
-      <c r="AL114" s="98"/>
-      <c r="AM114" s="98"/>
+      <c r="AH114" s="81"/>
+      <c r="AI114" s="81"/>
+      <c r="AJ114" s="81"/>
+      <c r="AK114" s="81"/>
+      <c r="AL114" s="81"/>
+      <c r="AM114" s="81"/>
       <c r="AN114" s="5"/>
       <c r="AO114" s="5"/>
       <c r="AP114" s="5"/>
@@ -9815,7 +9763,7 @@
       <c r="BL114" s="7"/>
       <c r="BM114" s="7"/>
     </row>
-    <row r="115" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="5"/>
       <c r="C115" s="10"/>
@@ -9849,12 +9797,12 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
       <c r="AG115" s="6"/>
-      <c r="AH115" s="98"/>
-      <c r="AI115" s="98"/>
-      <c r="AJ115" s="98"/>
-      <c r="AK115" s="98"/>
-      <c r="AL115" s="98"/>
-      <c r="AM115" s="98"/>
+      <c r="AH115" s="81"/>
+      <c r="AI115" s="81"/>
+      <c r="AJ115" s="81"/>
+      <c r="AK115" s="81"/>
+      <c r="AL115" s="81"/>
+      <c r="AM115" s="81"/>
       <c r="AN115" s="5"/>
       <c r="AO115" s="5"/>
       <c r="AP115" s="5"/>
@@ -9882,7 +9830,7 @@
       <c r="BL115" s="7"/>
       <c r="BM115" s="7"/>
     </row>
-    <row r="116" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="5"/>
       <c r="C116" s="10"/>
@@ -9916,12 +9864,12 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AG116" s="6"/>
-      <c r="AH116" s="98"/>
-      <c r="AI116" s="98"/>
-      <c r="AJ116" s="98"/>
-      <c r="AK116" s="98"/>
-      <c r="AL116" s="98"/>
-      <c r="AM116" s="98"/>
+      <c r="AH116" s="81"/>
+      <c r="AI116" s="81"/>
+      <c r="AJ116" s="81"/>
+      <c r="AK116" s="81"/>
+      <c r="AL116" s="81"/>
+      <c r="AM116" s="81"/>
       <c r="AN116" s="5"/>
       <c r="AO116" s="5"/>
       <c r="AP116" s="5"/>
@@ -9949,7 +9897,7 @@
       <c r="BL116" s="7"/>
       <c r="BM116" s="7"/>
     </row>
-    <row r="117" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="5"/>
       <c r="C117" s="10"/>
@@ -9983,12 +9931,12 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
       <c r="AG117" s="6"/>
-      <c r="AH117" s="98"/>
-      <c r="AI117" s="98"/>
-      <c r="AJ117" s="98"/>
-      <c r="AK117" s="98"/>
-      <c r="AL117" s="98"/>
-      <c r="AM117" s="98"/>
+      <c r="AH117" s="81"/>
+      <c r="AI117" s="81"/>
+      <c r="AJ117" s="81"/>
+      <c r="AK117" s="81"/>
+      <c r="AL117" s="81"/>
+      <c r="AM117" s="81"/>
       <c r="AN117" s="5"/>
       <c r="AO117" s="5"/>
       <c r="AP117" s="5"/>
@@ -10016,7 +9964,7 @@
       <c r="BL117" s="7"/>
       <c r="BM117" s="7"/>
     </row>
-    <row r="118" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="5"/>
       <c r="C118" s="10"/>
@@ -10050,12 +9998,12 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
       <c r="AG118" s="6"/>
-      <c r="AH118" s="98"/>
-      <c r="AI118" s="98"/>
-      <c r="AJ118" s="98"/>
-      <c r="AK118" s="98"/>
-      <c r="AL118" s="98"/>
-      <c r="AM118" s="98"/>
+      <c r="AH118" s="81"/>
+      <c r="AI118" s="81"/>
+      <c r="AJ118" s="81"/>
+      <c r="AK118" s="81"/>
+      <c r="AL118" s="81"/>
+      <c r="AM118" s="81"/>
       <c r="AN118" s="5"/>
       <c r="AO118" s="5"/>
       <c r="AP118" s="5"/>
@@ -10083,7 +10031,7 @@
       <c r="BL118" s="7"/>
       <c r="BM118" s="7"/>
     </row>
-    <row r="119" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="5"/>
       <c r="C119" s="10"/>
@@ -10117,12 +10065,12 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
       <c r="AG119" s="6"/>
-      <c r="AH119" s="98"/>
-      <c r="AI119" s="98"/>
-      <c r="AJ119" s="98"/>
-      <c r="AK119" s="98"/>
-      <c r="AL119" s="98"/>
-      <c r="AM119" s="98"/>
+      <c r="AH119" s="81"/>
+      <c r="AI119" s="81"/>
+      <c r="AJ119" s="81"/>
+      <c r="AK119" s="81"/>
+      <c r="AL119" s="81"/>
+      <c r="AM119" s="81"/>
       <c r="AN119" s="5"/>
       <c r="AO119" s="5"/>
       <c r="AP119" s="5"/>
@@ -10150,7 +10098,7 @@
       <c r="BL119" s="7"/>
       <c r="BM119" s="7"/>
     </row>
-    <row r="120" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="5"/>
       <c r="C120" s="10"/>
@@ -10184,12 +10132,12 @@
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
       <c r="AG120" s="6"/>
-      <c r="AH120" s="98"/>
-      <c r="AI120" s="98"/>
-      <c r="AJ120" s="98"/>
-      <c r="AK120" s="98"/>
-      <c r="AL120" s="98"/>
-      <c r="AM120" s="98"/>
+      <c r="AH120" s="81"/>
+      <c r="AI120" s="81"/>
+      <c r="AJ120" s="81"/>
+      <c r="AK120" s="81"/>
+      <c r="AL120" s="81"/>
+      <c r="AM120" s="81"/>
       <c r="AN120" s="5"/>
       <c r="AO120" s="5"/>
       <c r="AP120" s="5"/>
@@ -10217,7 +10165,7 @@
       <c r="BL120" s="7"/>
       <c r="BM120" s="7"/>
     </row>
-    <row r="121" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:65" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="5"/>
       <c r="C121" s="10"/>
@@ -10251,12 +10199,12 @@
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
       <c r="AG121" s="6"/>
-      <c r="AH121" s="98"/>
-      <c r="AI121" s="98"/>
-      <c r="AJ121" s="98"/>
-      <c r="AK121" s="98"/>
-      <c r="AL121" s="98"/>
-      <c r="AM121" s="98"/>
+      <c r="AH121" s="81"/>
+      <c r="AI121" s="81"/>
+      <c r="AJ121" s="81"/>
+      <c r="AK121" s="81"/>
+      <c r="AL121" s="81"/>
+      <c r="AM121" s="81"/>
       <c r="AN121" s="5"/>
       <c r="AO121" s="5"/>
       <c r="AP121" s="5"/>
@@ -10287,12 +10235,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="BG13:BM13"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:G15"/>
@@ -10305,6 +10247,12 @@
     <mergeCell ref="AC13:AG13"/>
     <mergeCell ref="J13:R13"/>
     <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="BG13:BM13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173002" right="0.23622047244093999" top="0.98425196850394003" bottom="0.78740157480314998" header="0.51181102362205" footer="0.31496062992126"/>
@@ -10324,96 +10272,96 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="89" customWidth="1"/>
-    <col min="7" max="11" width="6.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="22" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="22" customWidth="1"/>
-    <col min="15" max="21" width="3.7109375" style="22" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" style="22" customWidth="1"/>
-    <col min="23" max="26" width="3.7109375" style="22" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" style="22" customWidth="1"/>
-    <col min="28" max="31" width="3.7109375" style="22" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" style="22" customWidth="1"/>
-    <col min="33" max="36" width="3.7109375" style="22" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" style="22" customWidth="1"/>
-    <col min="38" max="41" width="3.7109375" style="22" customWidth="1"/>
-    <col min="42" max="42" width="4.28515625" style="22" customWidth="1"/>
-    <col min="43" max="46" width="4.42578125" style="23" customWidth="1"/>
-    <col min="47" max="47" width="4.5703125" style="22" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="22" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="72" customWidth="1"/>
+    <col min="7" max="10" width="6.33203125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" style="22" customWidth="1"/>
+    <col min="15" max="21" width="3.6640625" style="22" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" style="22" customWidth="1"/>
+    <col min="23" max="26" width="3.6640625" style="22" customWidth="1"/>
+    <col min="27" max="27" width="4.44140625" style="22" customWidth="1"/>
+    <col min="28" max="31" width="3.6640625" style="22" customWidth="1"/>
+    <col min="32" max="32" width="4.33203125" style="22" customWidth="1"/>
+    <col min="33" max="36" width="3.6640625" style="22" customWidth="1"/>
+    <col min="37" max="37" width="4.44140625" style="22" customWidth="1"/>
+    <col min="38" max="41" width="3.6640625" style="22" customWidth="1"/>
+    <col min="42" max="42" width="4.33203125" style="22" customWidth="1"/>
+    <col min="43" max="46" width="4.44140625" style="23" customWidth="1"/>
+    <col min="47" max="47" width="4.5546875" style="22" customWidth="1"/>
+    <col min="48" max="48" width="9.109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="139"/>
-    </row>
-    <row r="2" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="122"/>
+    </row>
+    <row r="2" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="143"/>
-    </row>
-    <row r="3" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="126"/>
+    </row>
+    <row r="3" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="134"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="143"/>
-    </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="152" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="126"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="135" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="147"/>
-    </row>
-    <row r="5" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156" t="s">
+      <c r="K4" s="130"/>
+    </row>
+    <row r="5" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="153"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -10422,9 +10370,9 @@
       <c r="H5" s="30"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="148"/>
-    </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="131"/>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -10442,7 +10390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -10455,7 +10403,7 @@
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -10468,7 +10416,7 @@
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -10481,7 +10429,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>1</v>
       </c>
@@ -10504,7 +10452,7 @@
       <c r="AS10" s="38"/>
       <c r="AT10" s="38"/>
     </row>
-    <row r="11" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>80</v>
       </c>
@@ -10532,7 +10480,7 @@
       <c r="AS11" s="38"/>
       <c r="AT11" s="38"/>
     </row>
-    <row r="12" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>82</v>
       </c>
@@ -10556,7 +10504,7 @@
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
     </row>
-    <row r="13" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="AQ13" s="38"/>
@@ -10564,7 +10512,7 @@
       <c r="AS13" s="38"/>
       <c r="AT13" s="38"/>
     </row>
-    <row r="14" spans="1:46" s="37" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" s="37" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -10581,26 +10529,26 @@
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
     </row>
-    <row r="15" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="178" t="s">
+    <row r="15" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
       <c r="K15" s="44"/>
       <c r="AQ15" s="38"/>
       <c r="AR15" s="38"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
     </row>
-    <row r="16" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="43"/>
@@ -10617,55 +10565,119 @@
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
     </row>
-    <row r="17" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="181" t="s">
+    <row r="17" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="182"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="190" t="s">
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="191"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="192"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="202"/>
       <c r="K17" s="41"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-    </row>
-    <row r="18" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="193" t="s">
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="144"/>
+      <c r="V17" s="144"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="144"/>
+      <c r="Y17" s="144"/>
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="144"/>
+      <c r="AB17" s="144"/>
+      <c r="AC17" s="144"/>
+      <c r="AD17" s="144"/>
+      <c r="AE17" s="144"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="144"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="144"/>
+      <c r="AR17" s="144"/>
+      <c r="AS17" s="144"/>
+      <c r="AT17" s="144"/>
+      <c r="AU17" s="144"/>
+      <c r="AV17" s="144"/>
+    </row>
+    <row r="18" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="194"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="194"/>
-      <c r="G18" s="195" t="s">
+      <c r="F18" s="204"/>
+      <c r="G18" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="196"/>
-      <c r="I18" s="195" t="s">
+      <c r="H18" s="206"/>
+      <c r="I18" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="197"/>
+      <c r="J18" s="207"/>
       <c r="K18" s="41"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-    </row>
-    <row r="19" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="187"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="112"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="144"/>
+      <c r="T18" s="144"/>
+      <c r="U18" s="144"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="144"/>
+      <c r="X18" s="144"/>
+      <c r="Y18" s="144"/>
+      <c r="Z18" s="144"/>
+      <c r="AA18" s="144"/>
+      <c r="AB18" s="144"/>
+      <c r="AC18" s="144"/>
+      <c r="AD18" s="144"/>
+      <c r="AE18" s="144"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="144"/>
+      <c r="AK18" s="144"/>
+      <c r="AL18" s="144"/>
+      <c r="AM18" s="144"/>
+      <c r="AN18" s="144"/>
+      <c r="AO18" s="144"/>
+      <c r="AP18" s="144"/>
+      <c r="AQ18" s="144"/>
+      <c r="AR18" s="144"/>
+      <c r="AS18" s="144"/>
+      <c r="AT18" s="144"/>
+      <c r="AU18" s="144"/>
+      <c r="AV18" s="144"/>
+    </row>
+    <row r="19" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="197"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="46">
         <v>1</v>
       </c>
@@ -10685,85 +10697,93 @@
         <v>6</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="N19" s="49">
+      <c r="M19" s="144"/>
+      <c r="N19" s="145">
         <v>1</v>
       </c>
-      <c r="O19" s="49">
+      <c r="O19" s="145">
         <v>2</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="145">
         <v>3</v>
       </c>
-      <c r="Q19" s="49">
+      <c r="Q19" s="145">
         <v>4</v>
       </c>
-      <c r="R19" s="49">
+      <c r="R19" s="145">
         <v>5</v>
       </c>
-      <c r="S19" s="49">
+      <c r="S19" s="145">
         <v>6</v>
       </c>
-      <c r="T19" s="49">
+      <c r="T19" s="145">
         <v>7</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="145">
         <v>8</v>
       </c>
-      <c r="W19" s="49">
+      <c r="V19" s="144"/>
+      <c r="W19" s="145">
         <v>1</v>
       </c>
-      <c r="X19" s="49">
+      <c r="X19" s="145">
         <v>2</v>
       </c>
-      <c r="Y19" s="49">
+      <c r="Y19" s="145">
         <v>3</v>
       </c>
-      <c r="Z19" s="49">
+      <c r="Z19" s="145">
         <v>4</v>
       </c>
-      <c r="AB19" s="49">
+      <c r="AA19" s="144"/>
+      <c r="AB19" s="145">
         <v>1</v>
       </c>
-      <c r="AC19" s="49">
+      <c r="AC19" s="145">
         <v>2</v>
       </c>
-      <c r="AD19" s="49">
+      <c r="AD19" s="145">
         <v>3</v>
       </c>
-      <c r="AE19" s="49">
+      <c r="AE19" s="145">
         <v>4</v>
       </c>
-      <c r="AG19" s="49">
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="145">
         <v>1</v>
       </c>
-      <c r="AH19" s="49">
+      <c r="AH19" s="145">
         <v>2</v>
       </c>
-      <c r="AI19" s="49">
+      <c r="AI19" s="145">
         <v>4</v>
       </c>
-      <c r="AJ19" s="49">
+      <c r="AJ19" s="145">
         <v>5</v>
       </c>
-      <c r="AL19" s="49">
+      <c r="AK19" s="144"/>
+      <c r="AL19" s="145">
         <v>1</v>
       </c>
-      <c r="AM19" s="49">
+      <c r="AM19" s="145">
         <v>2</v>
       </c>
-      <c r="AN19" s="49">
+      <c r="AN19" s="145">
         <v>3</v>
       </c>
-      <c r="AO19" s="49">
+      <c r="AO19" s="145">
         <v>4</v>
       </c>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-    </row>
-    <row r="20" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="200" t="s">
+      <c r="AP19" s="144"/>
+      <c r="AQ19" s="144"/>
+      <c r="AR19" s="144"/>
+      <c r="AS19" s="144"/>
+      <c r="AT19" s="144"/>
+      <c r="AU19" s="144"/>
+      <c r="AV19" s="144"/>
+    </row>
+    <row r="20" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="178" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="50">
@@ -10772,8 +10792,8 @@
       <c r="C20" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="108" t="str">
+      <c r="D20" s="96"/>
+      <c r="E20" s="91" t="str">
         <f>N20</f>
         <v/>
       </c>
@@ -10798,160 +10818,160 @@
         <v/>
       </c>
       <c r="K20" s="41"/>
-      <c r="M20" s="49">
+      <c r="M20" s="145">
         <v>1</v>
       </c>
-      <c r="N20" s="49" t="str">
+      <c r="N20" s="145" t="str">
         <f>IF(Psikogram!J$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="O20" s="49" t="str">
+      <c r="O20" s="145" t="str">
         <f>IF(Psikogram!K$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="P20" s="49" t="str">
+      <c r="P20" s="145" t="str">
         <f>IF(Psikogram!L$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q20" s="49" t="str">
+      <c r="Q20" s="145" t="str">
         <f>IF(Psikogram!M$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="R20" s="49" t="str">
+      <c r="R20" s="145" t="str">
         <f>IF(Psikogram!N$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="S20" s="49" t="str">
+      <c r="S20" s="145" t="str">
         <f>IF(Psikogram!O$16=($M19+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="T20" s="49" t="str">
+      <c r="T20" s="145" t="str">
         <f>IF(Psikogram!P$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="U20" s="49" t="str">
+      <c r="U20" s="145" t="str">
         <f>IF(Psikogram!Q$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="V20" s="54">
+      <c r="V20" s="146">
         <f>Psikogram!R$16</f>
         <v>2.625</v>
       </c>
-      <c r="W20" s="49" t="str">
+      <c r="W20" s="145" t="str">
         <f>IF(Psikogram!S$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="X20" s="49" t="str">
+      <c r="X20" s="145" t="str">
         <f>IF(Psikogram!T$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y20" s="49" t="str">
+      <c r="Y20" s="145" t="str">
         <f>IF(Psikogram!U$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z20" s="49" t="str">
+      <c r="Z20" s="145" t="str">
         <f>IF(Psikogram!V$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AA20" s="55">
+      <c r="AA20" s="146">
         <f>Psikogram!W$16</f>
         <v>2.25</v>
       </c>
-      <c r="AB20" s="49" t="str">
+      <c r="AB20" s="145" t="str">
         <f>IF(Psikogram!X$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC20" s="49" t="str">
+      <c r="AC20" s="145" t="str">
         <f>IF(Psikogram!Y$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD20" s="49" t="str">
+      <c r="AD20" s="145" t="str">
         <f>IF(Psikogram!Z$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE20" s="49" t="str">
+      <c r="AE20" s="145" t="str">
         <f>IF(Psikogram!AA$16=($M19+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AF20" s="55">
+      <c r="AF20" s="146">
         <f>Psikogram!AB$16</f>
         <v>2.75</v>
       </c>
-      <c r="AG20" s="49" t="str">
+      <c r="AG20" s="145" t="str">
         <f>IF(Psikogram!AC$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH20" s="49" t="str">
+      <c r="AH20" s="145" t="str">
         <f>IF(Psikogram!AD$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI20" s="49" t="str">
+      <c r="AI20" s="145" t="str">
         <f>IF(Psikogram!AE$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ20" s="49" t="str">
+      <c r="AJ20" s="145" t="str">
         <f>IF(Psikogram!AF$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AK20" s="55">
+      <c r="AK20" s="146">
         <f>Psikogram!AG$16</f>
         <v>3.25</v>
       </c>
-      <c r="AL20" s="49" t="str">
+      <c r="AL20" s="145" t="str">
         <f>IF(Psikogram!AN$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM20" s="49" t="str">
+      <c r="AM20" s="145" t="str">
         <f>IF(Psikogram!AO$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN20" s="49" t="str">
+      <c r="AN20" s="145" t="str">
         <f>IF(Psikogram!AP$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO20" s="49" t="str">
+      <c r="AO20" s="145" t="str">
         <f>IF(Psikogram!AQ$16=($M19+1),"X","")</f>
         <v/>
       </c>
-      <c r="AP20" s="55">
+      <c r="AP20" s="146">
         <f>Psikogram!AR$16</f>
         <v>4</v>
       </c>
-      <c r="AQ20" s="55">
+      <c r="AQ20" s="146">
         <f>Psikogram!AS$16</f>
         <v>2.8</v>
       </c>
-      <c r="AR20" s="55">
+      <c r="AR20" s="146">
         <f>Psikogram!AT$16</f>
         <v>2.7250000000000001</v>
       </c>
-      <c r="AS20" s="55">
+      <c r="AS20" s="146">
         <f>Psikogram!AU$16</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="AT20" s="55">
+      <c r="AT20" s="146">
         <f>Psikogram!AV$16</f>
         <v>3.2250000000000001</v>
       </c>
-      <c r="AU20" s="55">
+      <c r="AU20" s="146">
         <f>Psikogram!AW$16</f>
         <v>2.9187500000000002</v>
       </c>
-      <c r="AV20" s="55" t="str">
+      <c r="AV20" s="146" t="str">
         <f>Psikogram!AX$16</f>
         <v>C</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="201"/>
-      <c r="B21" s="56">
+    <row r="21" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="179"/>
+      <c r="B21" s="54">
         <v>2</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="106" t="str">
+      <c r="D21" s="97"/>
+      <c r="E21" s="89" t="str">
         <f>O20</f>
         <v/>
       </c>
@@ -10971,125 +10991,132 @@
         <f>O24</f>
         <v/>
       </c>
-      <c r="J21" s="58" t="str">
+      <c r="J21" s="56" t="str">
         <f>O25</f>
         <v/>
       </c>
       <c r="K21" s="41"/>
-      <c r="M21" s="49">
+      <c r="M21" s="145">
         <v>2</v>
       </c>
-      <c r="N21" s="49" t="str">
+      <c r="N21" s="145" t="str">
         <f>IF(Psikogram!J$16=($M20+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="O21" s="49" t="str">
+      <c r="O21" s="145" t="str">
         <f>IF(Psikogram!K$16=($M20+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="P21" s="49" t="str">
+      <c r="P21" s="145" t="str">
         <f>IF(Psikogram!L$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q21" s="49" t="str">
+      <c r="Q21" s="145" t="str">
         <f>IF(Psikogram!M$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="R21" s="49" t="str">
+      <c r="R21" s="145" t="str">
         <f>IF(Psikogram!N$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="S21" s="49" t="str">
+      <c r="S21" s="145" t="str">
         <f>IF(Psikogram!O$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="T21" s="49" t="str">
+      <c r="T21" s="145" t="str">
         <f>IF(Psikogram!P$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="U21" s="49" t="str">
+      <c r="U21" s="145" t="str">
         <f>IF(Psikogram!Q$16=($M20+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="W21" s="49" t="str">
+      <c r="V21" s="144"/>
+      <c r="W21" s="145" t="str">
         <f>IF(Psikogram!S$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="X21" s="49" t="str">
+      <c r="X21" s="145" t="str">
         <f>IF(Psikogram!T$16=($M20+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Y21" s="49" t="str">
+      <c r="Y21" s="145" t="str">
         <f>IF(Psikogram!U$16=($M20+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Z21" s="49" t="str">
+      <c r="Z21" s="145" t="str">
         <f>IF(Psikogram!V$16=($M20+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AB21" s="49" t="str">
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="145" t="str">
         <f>IF(Psikogram!X$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC21" s="49" t="str">
+      <c r="AC21" s="145" t="str">
         <f>IF(Psikogram!Y$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD21" s="49" t="str">
+      <c r="AD21" s="145" t="str">
         <f>IF(Psikogram!Z$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE21" s="49" t="str">
+      <c r="AE21" s="145" t="str">
         <f>IF(Psikogram!AA$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG21" s="49" t="str">
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="145" t="str">
         <f>IF(Psikogram!AC$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH21" s="49" t="str">
+      <c r="AH21" s="145" t="str">
         <f>IF(Psikogram!AD$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI21" s="49" t="str">
+      <c r="AI21" s="145" t="str">
         <f>IF(Psikogram!AE$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ21" s="49" t="str">
+      <c r="AJ21" s="145" t="str">
         <f>IF(Psikogram!AF$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL21" s="49" t="str">
+      <c r="AK21" s="144"/>
+      <c r="AL21" s="145" t="str">
         <f>IF(Psikogram!AN$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM21" s="49" t="str">
+      <c r="AM21" s="145" t="str">
         <f>IF(Psikogram!AO$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN21" s="49" t="str">
+      <c r="AN21" s="145" t="str">
         <f>IF(Psikogram!AP$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO21" s="49" t="str">
+      <c r="AO21" s="145" t="str">
         <f>IF(Psikogram!AQ$16=($M20+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-    </row>
-    <row r="22" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="201"/>
-      <c r="B22" s="56">
+      <c r="AP21" s="144"/>
+      <c r="AQ21" s="144"/>
+      <c r="AR21" s="144"/>
+      <c r="AS21" s="144"/>
+      <c r="AT21" s="144"/>
+      <c r="AU21" s="144"/>
+      <c r="AV21" s="144"/>
+    </row>
+    <row r="22" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="179"/>
+      <c r="B22" s="54">
         <v>3</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="106" t="str">
+      <c r="D22" s="97"/>
+      <c r="E22" s="89" t="str">
         <f>P20</f>
         <v/>
       </c>
@@ -11109,125 +11136,132 @@
         <f>P24</f>
         <v/>
       </c>
-      <c r="J22" s="58" t="str">
+      <c r="J22" s="56" t="str">
         <f>P25</f>
         <v/>
       </c>
       <c r="K22" s="41"/>
-      <c r="M22" s="49">
+      <c r="M22" s="145">
         <v>3</v>
       </c>
-      <c r="N22" s="49" t="str">
+      <c r="N22" s="145" t="str">
         <f>IF(Psikogram!J$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="O22" s="49" t="str">
+      <c r="O22" s="145" t="str">
         <f>IF(Psikogram!K$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="P22" s="49" t="str">
+      <c r="P22" s="145" t="str">
         <f>IF(Psikogram!L$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q22" s="49" t="str">
+      <c r="Q22" s="145" t="str">
         <f>IF(Psikogram!M$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="R22" s="49" t="str">
+      <c r="R22" s="145" t="str">
         <f>IF(Psikogram!N$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="S22" s="49" t="str">
+      <c r="S22" s="145" t="str">
         <f>IF(Psikogram!O$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="T22" s="49" t="str">
+      <c r="T22" s="145" t="str">
         <f>IF(Psikogram!P$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="U22" s="49" t="str">
+      <c r="U22" s="145" t="str">
         <f>IF(Psikogram!Q$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="W22" s="49" t="str">
+      <c r="V22" s="144"/>
+      <c r="W22" s="145" t="str">
         <f>IF(Psikogram!S$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="X22" s="49" t="str">
+      <c r="X22" s="145" t="str">
         <f>IF(Psikogram!T$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y22" s="49" t="str">
+      <c r="Y22" s="145" t="str">
         <f>IF(Psikogram!U$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z22" s="49" t="str">
+      <c r="Z22" s="145" t="str">
         <f>IF(Psikogram!V$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB22" s="49" t="str">
+      <c r="AA22" s="144"/>
+      <c r="AB22" s="145" t="str">
         <f>IF(Psikogram!X$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AC22" s="49" t="str">
+      <c r="AC22" s="145" t="str">
         <f>IF(Psikogram!Y$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD22" s="49" t="str">
+      <c r="AD22" s="145" t="str">
         <f>IF(Psikogram!Z$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AE22" s="49" t="str">
+      <c r="AE22" s="145" t="str">
         <f>IF(Psikogram!AA$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG22" s="49" t="str">
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="145" t="str">
         <f>IF(Psikogram!AC$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AH22" s="49" t="str">
+      <c r="AH22" s="145" t="str">
         <f>IF(Psikogram!AD$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AI22" s="49" t="str">
+      <c r="AI22" s="145" t="str">
         <f>IF(Psikogram!AE$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AJ22" s="49" t="str">
+      <c r="AJ22" s="145" t="str">
         <f>IF(Psikogram!AF$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL22" s="49" t="str">
+      <c r="AK22" s="144"/>
+      <c r="AL22" s="145" t="str">
         <f>IF(Psikogram!AN$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AM22" s="49" t="str">
+      <c r="AM22" s="145" t="str">
         <f>IF(Psikogram!AO$16=($M21+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AN22" s="49" t="str">
+      <c r="AN22" s="145" t="str">
         <f>IF(Psikogram!AP$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO22" s="49" t="str">
+      <c r="AO22" s="145" t="str">
         <f>IF(Psikogram!AQ$16=($M21+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-    </row>
-    <row r="23" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="201"/>
-      <c r="B23" s="56">
+      <c r="AP22" s="144"/>
+      <c r="AQ22" s="144"/>
+      <c r="AR22" s="144"/>
+      <c r="AS22" s="144"/>
+      <c r="AT22" s="144"/>
+      <c r="AU22" s="144"/>
+      <c r="AV22" s="144"/>
+    </row>
+    <row r="23" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="179"/>
+      <c r="B23" s="54">
         <v>4</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="106" t="str">
+      <c r="D23" s="97"/>
+      <c r="E23" s="89" t="str">
         <f>Q20</f>
         <v/>
       </c>
@@ -11247,125 +11281,132 @@
         <f>Q24</f>
         <v/>
       </c>
-      <c r="J23" s="58" t="str">
+      <c r="J23" s="56" t="str">
         <f>Q25</f>
         <v/>
       </c>
       <c r="K23" s="41"/>
-      <c r="M23" s="49">
+      <c r="M23" s="145">
         <v>4</v>
       </c>
-      <c r="N23" s="49" t="str">
+      <c r="N23" s="145" t="str">
         <f>IF(Psikogram!J$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="O23" s="49" t="str">
+      <c r="O23" s="145" t="str">
         <f>IF(Psikogram!K$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="P23" s="49" t="str">
+      <c r="P23" s="145" t="str">
         <f>IF(Psikogram!L$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="Q23" s="49" t="str">
+      <c r="Q23" s="145" t="str">
         <f>IF(Psikogram!M$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="R23" s="49" t="str">
+      <c r="R23" s="145" t="str">
         <f>IF(Psikogram!N$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="S23" s="49" t="str">
+      <c r="S23" s="145" t="str">
         <f>IF(Psikogram!O$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="T23" s="49" t="str">
+      <c r="T23" s="145" t="str">
         <f>IF(Psikogram!P$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="U23" s="49" t="str">
+      <c r="U23" s="145" t="str">
         <f>IF(Psikogram!Q$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="W23" s="49" t="str">
+      <c r="V23" s="144"/>
+      <c r="W23" s="145" t="str">
         <f>IF(Psikogram!S$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="X23" s="49" t="str">
+      <c r="X23" s="145" t="str">
         <f>IF(Psikogram!T$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y23" s="49" t="str">
+      <c r="Y23" s="145" t="str">
         <f>IF(Psikogram!U$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z23" s="49" t="str">
+      <c r="Z23" s="145" t="str">
         <f>IF(Psikogram!V$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB23" s="49" t="str">
+      <c r="AA23" s="144"/>
+      <c r="AB23" s="145" t="str">
         <f>IF(Psikogram!X$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC23" s="49" t="str">
+      <c r="AC23" s="145" t="str">
         <f>IF(Psikogram!Y$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AD23" s="49" t="str">
+      <c r="AD23" s="145" t="str">
         <f>IF(Psikogram!Z$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE23" s="49" t="str">
+      <c r="AE23" s="145" t="str">
         <f>IF(Psikogram!AA$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG23" s="49" t="str">
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="145" t="str">
         <f>IF(Psikogram!AC$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH23" s="49" t="str">
+      <c r="AH23" s="145" t="str">
         <f>IF(Psikogram!AD$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI23" s="49" t="str">
+      <c r="AI23" s="145" t="str">
         <f>IF(Psikogram!AE$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ23" s="49" t="str">
+      <c r="AJ23" s="145" t="str">
         <f>IF(Psikogram!AF$16=($M22+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AL23" s="49" t="str">
+      <c r="AK23" s="144"/>
+      <c r="AL23" s="145" t="str">
         <f>IF(Psikogram!AN$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM23" s="49" t="str">
+      <c r="AM23" s="145" t="str">
         <f>IF(Psikogram!AO$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN23" s="49" t="str">
+      <c r="AN23" s="145" t="str">
         <f>IF(Psikogram!AP$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO23" s="49" t="str">
+      <c r="AO23" s="145" t="str">
         <f>IF(Psikogram!AQ$16=($M22+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="38"/>
-    </row>
-    <row r="24" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="201"/>
-      <c r="B24" s="56">
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="144"/>
+      <c r="AR23" s="144"/>
+      <c r="AS23" s="144"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="144"/>
+      <c r="AV23" s="144"/>
+    </row>
+    <row r="24" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="179"/>
+      <c r="B24" s="54">
         <v>5</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="106" t="str">
+      <c r="D24" s="97"/>
+      <c r="E24" s="89" t="str">
         <f>R20</f>
         <v/>
       </c>
@@ -11385,125 +11426,132 @@
         <f>R24</f>
         <v/>
       </c>
-      <c r="J24" s="58" t="str">
+      <c r="J24" s="56" t="str">
         <f>R25</f>
         <v/>
       </c>
-      <c r="K24" s="59"/>
-      <c r="M24" s="49">
+      <c r="K24" s="57"/>
+      <c r="M24" s="145">
         <v>5</v>
       </c>
-      <c r="N24" s="49" t="str">
+      <c r="N24" s="145" t="str">
         <f>IF(Psikogram!J$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="O24" s="49" t="str">
+      <c r="O24" s="145" t="str">
         <f>IF(Psikogram!K$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="P24" s="49" t="str">
+      <c r="P24" s="145" t="str">
         <f>IF(Psikogram!L$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q24" s="49" t="str">
+      <c r="Q24" s="145" t="str">
         <f>IF(Psikogram!M$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="R24" s="49" t="str">
+      <c r="R24" s="145" t="str">
         <f>IF(Psikogram!N$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="S24" s="49" t="str">
+      <c r="S24" s="145" t="str">
         <f>IF(Psikogram!O$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="T24" s="49" t="str">
+      <c r="T24" s="145" t="str">
         <f>IF(Psikogram!P$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="U24" s="49" t="str">
+      <c r="U24" s="145" t="str">
         <f>IF(Psikogram!Q$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="W24" s="49" t="str">
+      <c r="V24" s="144"/>
+      <c r="W24" s="145" t="str">
         <f>IF(Psikogram!S$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="X24" s="49" t="str">
+      <c r="X24" s="145" t="str">
         <f>IF(Psikogram!T$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y24" s="49" t="str">
+      <c r="Y24" s="145" t="str">
         <f>IF(Psikogram!U$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z24" s="49" t="str">
+      <c r="Z24" s="145" t="str">
         <f>IF(Psikogram!V$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB24" s="49" t="str">
+      <c r="AA24" s="144"/>
+      <c r="AB24" s="145" t="str">
         <f>IF(Psikogram!X$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC24" s="49" t="str">
+      <c r="AC24" s="145" t="str">
         <f>IF(Psikogram!Y$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD24" s="49" t="str">
+      <c r="AD24" s="145" t="str">
         <f>IF(Psikogram!Z$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE24" s="49" t="str">
+      <c r="AE24" s="145" t="str">
         <f>IF(Psikogram!AA$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG24" s="49" t="str">
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="145" t="str">
         <f>IF(Psikogram!AC$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH24" s="49" t="str">
+      <c r="AH24" s="145" t="str">
         <f>IF(Psikogram!AD$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI24" s="49" t="str">
+      <c r="AI24" s="145" t="str">
         <f>IF(Psikogram!AE$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ24" s="49" t="str">
+      <c r="AJ24" s="145" t="str">
         <f>IF(Psikogram!AF$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL24" s="49" t="str">
+      <c r="AK24" s="144"/>
+      <c r="AL24" s="145" t="str">
         <f>IF(Psikogram!AN$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM24" s="49" t="str">
+      <c r="AM24" s="145" t="str">
         <f>IF(Psikogram!AO$16=($M23+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN24" s="49" t="str">
+      <c r="AN24" s="145" t="str">
         <f>IF(Psikogram!AP$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AO24" s="49" t="str">
+      <c r="AO24" s="145" t="str">
         <f>IF(Psikogram!AQ$16=($M23+1),"X","")</f>
         <v>X</v>
       </c>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="38"/>
-    </row>
-    <row r="25" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="201"/>
-      <c r="B25" s="56">
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="144"/>
+      <c r="AS24" s="144"/>
+      <c r="AT24" s="144"/>
+      <c r="AU24" s="144"/>
+      <c r="AV24" s="144"/>
+    </row>
+    <row r="25" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="179"/>
+      <c r="B25" s="54">
         <v>6</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="106" t="str">
+      <c r="D25" s="97"/>
+      <c r="E25" s="89" t="str">
         <f>S20</f>
         <v>X</v>
       </c>
@@ -11523,125 +11571,132 @@
         <f>S24</f>
         <v/>
       </c>
-      <c r="J25" s="58" t="str">
+      <c r="J25" s="56" t="str">
         <f>S25</f>
         <v/>
       </c>
-      <c r="K25" s="59"/>
-      <c r="M25" s="49">
+      <c r="K25" s="57"/>
+      <c r="M25" s="145">
         <v>6</v>
       </c>
-      <c r="N25" s="49" t="str">
+      <c r="N25" s="145" t="str">
         <f>IF(Psikogram!J$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="O25" s="49" t="str">
+      <c r="O25" s="145" t="str">
         <f>IF(Psikogram!K$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="P25" s="49" t="str">
+      <c r="P25" s="145" t="str">
         <f>IF(Psikogram!L$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="Q25" s="49" t="str">
+      <c r="Q25" s="145" t="str">
         <f>IF(Psikogram!M$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="R25" s="49" t="str">
+      <c r="R25" s="145" t="str">
         <f>IF(Psikogram!N$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="S25" s="49" t="str">
+      <c r="S25" s="145" t="str">
         <f>IF(Psikogram!O$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="T25" s="49" t="str">
+      <c r="T25" s="145" t="str">
         <f>IF(Psikogram!P$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="U25" s="49" t="str">
+      <c r="U25" s="145" t="str">
         <f>IF(Psikogram!Q$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="W25" s="49" t="str">
+      <c r="V25" s="144"/>
+      <c r="W25" s="145" t="str">
         <f>IF(Psikogram!S$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="X25" s="49" t="str">
+      <c r="X25" s="145" t="str">
         <f>IF(Psikogram!T$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="Y25" s="49" t="str">
+      <c r="Y25" s="145" t="str">
         <f>IF(Psikogram!U$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="Z25" s="49" t="str">
+      <c r="Z25" s="145" t="str">
         <f>IF(Psikogram!V$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AB25" s="49" t="str">
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="145" t="str">
         <f>IF(Psikogram!X$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AC25" s="49" t="str">
+      <c r="AC25" s="145" t="str">
         <f>IF(Psikogram!Y$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AD25" s="49" t="str">
+      <c r="AD25" s="145" t="str">
         <f>IF(Psikogram!Z$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AE25" s="49" t="str">
+      <c r="AE25" s="145" t="str">
         <f>IF(Psikogram!AA$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AG25" s="49" t="str">
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="145" t="str">
         <f>IF(Psikogram!AC$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AH25" s="49" t="str">
+      <c r="AH25" s="145" t="str">
         <f>IF(Psikogram!AD$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AI25" s="49" t="str">
+      <c r="AI25" s="145" t="str">
         <f>IF(Psikogram!AE$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AJ25" s="49" t="str">
+      <c r="AJ25" s="145" t="str">
         <f>IF(Psikogram!AF$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AL25" s="49" t="str">
+      <c r="AK25" s="144"/>
+      <c r="AL25" s="145" t="str">
         <f>IF(Psikogram!AN$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AM25" s="49" t="str">
+      <c r="AM25" s="145" t="str">
         <f>IF(Psikogram!AO$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AN25" s="49" t="str">
+      <c r="AN25" s="145" t="str">
         <f>IF(Psikogram!AP$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AO25" s="49" t="str">
+      <c r="AO25" s="145" t="str">
         <f>IF(Psikogram!AQ$16=($M24+1),"X","")</f>
         <v/>
       </c>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="38"/>
-      <c r="AS25" s="38"/>
-      <c r="AT25" s="38"/>
-    </row>
-    <row r="26" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="202"/>
-      <c r="B26" s="56">
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="144"/>
+      <c r="AS25" s="144"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="144"/>
+      <c r="AV25" s="144"/>
+    </row>
+    <row r="26" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="180"/>
+      <c r="B26" s="54">
         <v>7</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="106" t="str">
+      <c r="D26" s="97"/>
+      <c r="E26" s="89" t="str">
         <f>T20</f>
         <v/>
       </c>
@@ -11661,50 +11716,57 @@
         <f>T24</f>
         <v/>
       </c>
-      <c r="J26" s="58" t="str">
+      <c r="J26" s="56" t="str">
         <f>T25</f>
         <v/>
       </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
-    </row>
-    <row r="27" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="203"/>
-      <c r="B27" s="56">
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="144"/>
+      <c r="AL26" s="145"/>
+      <c r="AM26" s="145"/>
+      <c r="AN26" s="145"/>
+      <c r="AO26" s="145"/>
+      <c r="AP26" s="144"/>
+      <c r="AQ26" s="144"/>
+      <c r="AR26" s="144"/>
+      <c r="AS26" s="144"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="144"/>
+      <c r="AV26" s="144"/>
+    </row>
+    <row r="27" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="181"/>
+      <c r="B27" s="54">
         <v>8</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="106" t="str">
+      <c r="D27" s="97"/>
+      <c r="E27" s="89" t="str">
         <f>U20</f>
         <v/>
       </c>
@@ -11724,65 +11786,104 @@
         <f>U24</f>
         <v/>
       </c>
-      <c r="J27" s="58" t="str">
+      <c r="J27" s="56" t="str">
         <f>U25</f>
         <v/>
       </c>
-      <c r="K27" s="116" t="s">
+      <c r="K27" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-    </row>
-    <row r="28" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="204"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="105">
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="144"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="144"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="144"/>
+      <c r="AL27" s="145"/>
+      <c r="AM27" s="145"/>
+      <c r="AN27" s="145"/>
+      <c r="AO27" s="145"/>
+      <c r="AP27" s="144"/>
+      <c r="AQ27" s="144"/>
+      <c r="AR27" s="144"/>
+      <c r="AS27" s="144"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="144"/>
+      <c r="AV27" s="144"/>
+    </row>
+    <row r="28" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="182"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="88">
         <f>V20</f>
         <v>2.625</v>
       </c>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="38"/>
-    </row>
-    <row r="29" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="205" t="s">
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="144"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="144"/>
+      <c r="AM28" s="144"/>
+      <c r="AN28" s="144"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="144"/>
+      <c r="AS28" s="144"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+    </row>
+    <row r="29" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="52">
@@ -11791,8 +11892,8 @@
       <c r="C29" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="108" t="str">
+      <c r="D29" s="96"/>
+      <c r="E29" s="91" t="str">
         <f>W20</f>
         <v/>
       </c>
@@ -11816,22 +11917,22 @@
         <f>W25</f>
         <v/>
       </c>
-      <c r="K29" s="67"/>
+      <c r="K29" s="65"/>
       <c r="AQ29" s="38"/>
       <c r="AR29" s="38"/>
       <c r="AS29" s="38"/>
       <c r="AT29" s="38"/>
     </row>
-    <row r="30" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="206"/>
+    <row r="30" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="184"/>
       <c r="B30" s="49">
         <v>2</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="106" t="str">
+      <c r="D30" s="97"/>
+      <c r="E30" s="89" t="str">
         <f>X20</f>
         <v/>
       </c>
@@ -11851,26 +11952,26 @@
         <f>X24</f>
         <v/>
       </c>
-      <c r="J30" s="58" t="str">
+      <c r="J30" s="56" t="str">
         <f>X25</f>
         <v/>
       </c>
-      <c r="K30" s="67"/>
+      <c r="K30" s="65"/>
       <c r="AQ30" s="38"/>
       <c r="AR30" s="38"/>
       <c r="AS30" s="38"/>
       <c r="AT30" s="38"/>
     </row>
-    <row r="31" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="206"/>
+    <row r="31" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="184"/>
       <c r="B31" s="49">
         <v>3</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="106" t="str">
+      <c r="D31" s="97"/>
+      <c r="E31" s="89" t="str">
         <f>Y20</f>
         <v/>
       </c>
@@ -11890,26 +11991,26 @@
         <f>Y24</f>
         <v/>
       </c>
-      <c r="J31" s="58" t="str">
+      <c r="J31" s="56" t="str">
         <f>Y25</f>
         <v/>
       </c>
-      <c r="K31" s="67"/>
+      <c r="K31" s="65"/>
       <c r="AQ31" s="38"/>
       <c r="AR31" s="38"/>
       <c r="AS31" s="38"/>
       <c r="AT31" s="38"/>
     </row>
-    <row r="32" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="206"/>
+    <row r="32" spans="1:48" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="184"/>
       <c r="B32" s="49">
         <v>4</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="106" t="str">
+      <c r="D32" s="97"/>
+      <c r="E32" s="89" t="str">
         <f>Z20</f>
         <v/>
       </c>
@@ -11929,11 +12030,11 @@
         <f>Z24</f>
         <v/>
       </c>
-      <c r="J32" s="58" t="str">
+      <c r="J32" s="56" t="str">
         <f>Z25</f>
         <v/>
       </c>
-      <c r="K32" s="116" t="s">
+      <c r="K32" s="99" t="s">
         <v>95</v>
       </c>
       <c r="AQ32" s="38"/>
@@ -11941,18 +12042,18 @@
       <c r="AS32" s="38"/>
       <c r="AT32" s="38"/>
     </row>
-    <row r="33" spans="1:46" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="207"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="105">
+    <row r="33" spans="1:46" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="185"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="88">
         <f>AA20</f>
         <v>2.25</v>
       </c>
@@ -11961,18 +12062,18 @@
       <c r="AS33" s="38"/>
       <c r="AT33" s="38"/>
     </row>
-    <row r="34" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="205" t="s">
+    <row r="34" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="52">
         <v>1</v>
       </c>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="177"/>
-      <c r="E34" s="108" t="str">
+      <c r="D34" s="189"/>
+      <c r="E34" s="91" t="str">
         <f>AB20</f>
         <v/>
       </c>
@@ -11996,22 +12097,22 @@
         <f>AB25</f>
         <v/>
       </c>
-      <c r="K34" s="104"/>
+      <c r="K34" s="87"/>
       <c r="AQ34" s="38"/>
       <c r="AR34" s="38"/>
       <c r="AS34" s="38"/>
       <c r="AT34" s="38"/>
     </row>
-    <row r="35" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="206"/>
+    <row r="35" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="184"/>
       <c r="B35" s="49">
         <v>2</v>
       </c>
-      <c r="C35" s="169" t="s">
+      <c r="C35" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="170"/>
-      <c r="E35" s="106" t="str">
+      <c r="D35" s="172"/>
+      <c r="E35" s="89" t="str">
         <f>AC20</f>
         <v/>
       </c>
@@ -12031,26 +12132,26 @@
         <f>AC24</f>
         <v/>
       </c>
-      <c r="J35" s="58" t="str">
+      <c r="J35" s="56" t="str">
         <f>AC25</f>
         <v/>
       </c>
-      <c r="K35" s="104"/>
+      <c r="K35" s="87"/>
       <c r="AQ35" s="38"/>
       <c r="AR35" s="38"/>
       <c r="AS35" s="38"/>
       <c r="AT35" s="38"/>
     </row>
-    <row r="36" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="206"/>
+    <row r="36" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="184"/>
       <c r="B36" s="49">
         <v>3</v>
       </c>
-      <c r="C36" s="169" t="s">
+      <c r="C36" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="170"/>
-      <c r="E36" s="106" t="str">
+      <c r="D36" s="172"/>
+      <c r="E36" s="89" t="str">
         <f>AD20</f>
         <v/>
       </c>
@@ -12070,26 +12171,26 @@
         <f>AD24</f>
         <v/>
       </c>
-      <c r="J36" s="58" t="str">
+      <c r="J36" s="56" t="str">
         <f>AD25</f>
         <v/>
       </c>
-      <c r="K36" s="104"/>
+      <c r="K36" s="87"/>
       <c r="AQ36" s="38"/>
       <c r="AR36" s="38"/>
       <c r="AS36" s="38"/>
       <c r="AT36" s="38"/>
     </row>
-    <row r="37" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="206"/>
+    <row r="37" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="184"/>
       <c r="B37" s="49">
         <v>4</v>
       </c>
-      <c r="C37" s="169" t="s">
+      <c r="C37" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="106" t="str">
+      <c r="D37" s="172"/>
+      <c r="E37" s="89" t="str">
         <f>AE20</f>
         <v>X</v>
       </c>
@@ -12109,11 +12210,11 @@
         <f>AE24</f>
         <v/>
       </c>
-      <c r="J37" s="58" t="str">
+      <c r="J37" s="56" t="str">
         <f>AE25</f>
         <v/>
       </c>
-      <c r="K37" s="116" t="s">
+      <c r="K37" s="99" t="s">
         <v>95</v>
       </c>
       <c r="AQ37" s="38"/>
@@ -12121,18 +12222,18 @@
       <c r="AS37" s="38"/>
       <c r="AT37" s="38"/>
     </row>
-    <row r="38" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="208"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="105">
+    <row r="38" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="186"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="88">
         <f>AF20</f>
         <v>2.75</v>
       </c>
@@ -12141,8 +12242,8 @@
       <c r="AS38" s="38"/>
       <c r="AT38" s="38"/>
     </row>
-    <row r="39" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="209" t="s">
+    <row r="39" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="187" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="52">
@@ -12151,8 +12252,8 @@
       <c r="C39" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="113"/>
-      <c r="E39" s="108" t="str">
+      <c r="D39" s="96"/>
+      <c r="E39" s="91" t="str">
         <f>AG20</f>
         <v/>
       </c>
@@ -12176,22 +12277,22 @@
         <f>AG25</f>
         <v/>
       </c>
-      <c r="K39" s="67"/>
+      <c r="K39" s="65"/>
       <c r="AQ39" s="38"/>
       <c r="AR39" s="38"/>
       <c r="AS39" s="38"/>
       <c r="AT39" s="38"/>
     </row>
-    <row r="40" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="198"/>
+    <row r="40" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="176"/>
       <c r="B40" s="49">
         <v>2</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="106" t="str">
+      <c r="D40" s="97"/>
+      <c r="E40" s="89" t="str">
         <f>AH20</f>
         <v/>
       </c>
@@ -12211,26 +12312,26 @@
         <f>AH24</f>
         <v/>
       </c>
-      <c r="J40" s="58" t="str">
+      <c r="J40" s="56" t="str">
         <f>AH25</f>
         <v/>
       </c>
-      <c r="K40" s="67"/>
+      <c r="K40" s="65"/>
       <c r="AQ40" s="38"/>
       <c r="AR40" s="38"/>
       <c r="AS40" s="38"/>
       <c r="AT40" s="38"/>
     </row>
-    <row r="41" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="198"/>
+    <row r="41" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="176"/>
       <c r="B41" s="49">
         <v>4</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="106" t="str">
+      <c r="D41" s="97"/>
+      <c r="E41" s="89" t="str">
         <f>AI20</f>
         <v/>
       </c>
@@ -12250,26 +12351,26 @@
         <f>AI24</f>
         <v/>
       </c>
-      <c r="J41" s="58" t="str">
+      <c r="J41" s="56" t="str">
         <f>AI25</f>
         <v/>
       </c>
-      <c r="K41" s="67"/>
+      <c r="K41" s="65"/>
       <c r="AQ41" s="38"/>
       <c r="AR41" s="38"/>
       <c r="AS41" s="38"/>
       <c r="AT41" s="38"/>
     </row>
-    <row r="42" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="198"/>
+    <row r="42" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="176"/>
       <c r="B42" s="49">
         <v>5</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="114"/>
-      <c r="E42" s="106" t="str">
+      <c r="D42" s="97"/>
+      <c r="E42" s="89" t="str">
         <f>AJ20</f>
         <v/>
       </c>
@@ -12289,11 +12390,11 @@
         <f>AJ24</f>
         <v/>
       </c>
-      <c r="J42" s="58" t="str">
+      <c r="J42" s="56" t="str">
         <f>AJ25</f>
         <v/>
       </c>
-      <c r="K42" s="116" t="s">
+      <c r="K42" s="99" t="s">
         <v>95</v>
       </c>
       <c r="AQ42" s="38"/>
@@ -12301,18 +12402,18 @@
       <c r="AS42" s="38"/>
       <c r="AT42" s="38"/>
     </row>
-    <row r="43" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="199"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="105">
+    <row r="43" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="177"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="88">
         <f>AK20</f>
         <v>3.25</v>
       </c>
@@ -12321,57 +12422,57 @@
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
     </row>
-    <row r="44" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="198" t="s">
+    <row r="44" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="64">
+      <c r="B44" s="62">
         <v>1</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="109" t="str">
+      <c r="D44" s="98"/>
+      <c r="E44" s="92" t="str">
         <f>AL20</f>
         <v/>
       </c>
-      <c r="F44" s="64" t="str">
+      <c r="F44" s="62" t="str">
         <f>AL21</f>
         <v/>
       </c>
-      <c r="G44" s="64" t="str">
+      <c r="G44" s="62" t="str">
         <f>AL22</f>
         <v>X</v>
       </c>
-      <c r="H44" s="64" t="str">
+      <c r="H44" s="62" t="str">
         <f>AL23</f>
         <v/>
       </c>
-      <c r="I44" s="64" t="str">
+      <c r="I44" s="62" t="str">
         <f>AL24</f>
         <v/>
       </c>
-      <c r="J44" s="66" t="str">
+      <c r="J44" s="64" t="str">
         <f>AL25</f>
         <v/>
       </c>
-      <c r="K44" s="67"/>
+      <c r="K44" s="65"/>
       <c r="AQ44" s="38"/>
       <c r="AR44" s="38"/>
       <c r="AS44" s="38"/>
       <c r="AT44" s="38"/>
     </row>
-    <row r="45" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="198"/>
+    <row r="45" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="176"/>
       <c r="B45" s="49">
         <v>2</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="106" t="str">
+      <c r="D45" s="97"/>
+      <c r="E45" s="89" t="str">
         <f>AM20</f>
         <v/>
       </c>
@@ -12391,26 +12492,26 @@
         <f>AM24</f>
         <v/>
       </c>
-      <c r="J45" s="58" t="str">
+      <c r="J45" s="56" t="str">
         <f>AM25</f>
         <v/>
       </c>
-      <c r="K45" s="67"/>
+      <c r="K45" s="65"/>
       <c r="AQ45" s="38"/>
       <c r="AR45" s="38"/>
       <c r="AS45" s="38"/>
       <c r="AT45" s="38"/>
     </row>
-    <row r="46" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="198"/>
+    <row r="46" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="176"/>
       <c r="B46" s="49">
         <v>3</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="106" t="str">
+      <c r="D46" s="97"/>
+      <c r="E46" s="89" t="str">
         <f>AN20</f>
         <v/>
       </c>
@@ -12430,26 +12531,26 @@
         <f>AN24</f>
         <v>X</v>
       </c>
-      <c r="J46" s="58" t="str">
+      <c r="J46" s="56" t="str">
         <f>AN25</f>
         <v/>
       </c>
-      <c r="K46" s="67"/>
+      <c r="K46" s="65"/>
       <c r="AQ46" s="38"/>
       <c r="AR46" s="38"/>
       <c r="AS46" s="38"/>
       <c r="AT46" s="38"/>
     </row>
-    <row r="47" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="198"/>
+    <row r="47" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="176"/>
       <c r="B47" s="49">
         <v>4</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="114"/>
-      <c r="E47" s="106" t="str">
+      <c r="D47" s="97"/>
+      <c r="E47" s="89" t="str">
         <f>AO20</f>
         <v/>
       </c>
@@ -12469,11 +12570,11 @@
         <f>AO24</f>
         <v>X</v>
       </c>
-      <c r="J47" s="58" t="str">
+      <c r="J47" s="56" t="str">
         <f>AO25</f>
         <v/>
       </c>
-      <c r="K47" s="116" t="s">
+      <c r="K47" s="99" t="s">
         <v>95</v>
       </c>
       <c r="AQ47" s="38"/>
@@ -12481,18 +12582,18 @@
       <c r="AS47" s="38"/>
       <c r="AT47" s="38"/>
     </row>
-    <row r="48" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="199"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="63">
+    <row r="48" spans="1:46" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="177"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="61">
         <f>AP20</f>
         <v>4</v>
       </c>
@@ -12501,7 +12602,7 @@
       <c r="AS48" s="38"/>
       <c r="AT48" s="38"/>
     </row>
-    <row r="49" spans="1:46" s="37" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" s="37" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="173"/>
       <c r="B49" s="173"/>
       <c r="C49" s="173"/>
@@ -12512,488 +12613,490 @@
       <c r="H49" s="173"/>
       <c r="I49" s="173"/>
       <c r="J49" s="173"/>
-      <c r="K49" s="59"/>
+      <c r="K49" s="57"/>
       <c r="AQ49" s="38"/>
       <c r="AR49" s="38"/>
       <c r="AS49" s="38"/>
       <c r="AT49" s="38"/>
     </row>
-    <row r="50" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="179" t="s">
+    <row r="50" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="149"/>
+      <c r="B50" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="180"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="73"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="208"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="208"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="208"/>
+      <c r="J50" s="208"/>
+      <c r="K50" s="150"/>
       <c r="AQ50" s="38"/>
       <c r="AR50" s="38"/>
       <c r="AS50" s="38"/>
       <c r="AT50" s="38"/>
     </row>
-    <row r="51" spans="1:46" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="78"/>
+    <row r="51" spans="1:46" s="37" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="151"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="156"/>
       <c r="AQ51" s="38"/>
       <c r="AR51" s="38"/>
       <c r="AS51" s="38"/>
       <c r="AT51" s="38"/>
     </row>
-    <row r="52" spans="1:46" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="174" t="s">
+    <row r="52" spans="1:46" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="157"/>
+      <c r="B52" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="175"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="79">
+      <c r="C52" s="174"/>
+      <c r="D52" s="210">
         <f>AQ20</f>
         <v>2.8</v>
       </c>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="69"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="175" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="210">
+        <f>AR20</f>
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="K52" s="158"/>
       <c r="M52" s="38"/>
-      <c r="N52" s="84">
-        <f>D55</f>
+      <c r="N52" s="71">
+        <f>J54</f>
         <v>3.2250000000000001</v>
       </c>
-      <c r="O52" s="68"/>
+      <c r="O52" s="66"/>
       <c r="AQ52" s="38"/>
       <c r="AR52" s="38"/>
       <c r="AS52" s="38"/>
       <c r="AT52" s="38"/>
     </row>
-    <row r="53" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="84">
-        <f>AR20</f>
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
+    <row r="53" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="157"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="211"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="164" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="211"/>
+      <c r="K53" s="158"/>
       <c r="M53" s="38"/>
-      <c r="N53" s="84">
+      <c r="N53" s="71">
         <f>D54</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="O53" s="84"/>
+      <c r="O53" s="71"/>
       <c r="AQ53" s="38"/>
       <c r="AR53" s="38"/>
       <c r="AS53" s="38"/>
       <c r="AT53" s="38"/>
     </row>
-    <row r="54" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="167" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="84">
+    <row r="54" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="157"/>
+      <c r="B54" s="174" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="174"/>
+      <c r="D54" s="210">
         <f>AS20</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="209"/>
+      <c r="J54" s="210">
+        <f>AT20</f>
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="K54" s="158"/>
       <c r="M54" s="38"/>
-      <c r="N54" s="84">
-        <f>D53</f>
+      <c r="N54" s="71">
+        <f>J52</f>
         <v>2.7250000000000001</v>
       </c>
-      <c r="O54" s="84"/>
+      <c r="O54" s="71"/>
       <c r="AQ54" s="38"/>
       <c r="AR54" s="38"/>
       <c r="AS54" s="38"/>
       <c r="AT54" s="38"/>
     </row>
-    <row r="55" spans="1:46" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="171" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="172"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="87">
-        <f>AT20</f>
-        <v>3.2250000000000001</v>
-      </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="69"/>
-      <c r="N55" s="84">
+    <row r="55" spans="1:46" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="157"/>
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="211"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="209"/>
+      <c r="G55" s="209"/>
+      <c r="H55" s="209"/>
+      <c r="I55" s="209"/>
+      <c r="J55" s="211"/>
+      <c r="K55" s="158"/>
+      <c r="N55" s="71">
         <f>D52</f>
         <v>2.8</v>
       </c>
-      <c r="O55" s="68"/>
-    </row>
-    <row r="56" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="62"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-    </row>
-    <row r="57" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-    </row>
-    <row r="58" spans="1:46" s="37" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
+      <c r="O55" s="66"/>
+    </row>
+    <row r="56" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="159"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="162"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+    </row>
+    <row r="57" spans="1:46" s="38" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+    </row>
+    <row r="58" spans="1:46" s="37" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
       <c r="M58" s="38"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
       <c r="AQ58" s="38"/>
       <c r="AR58" s="38"/>
       <c r="AS58" s="38"/>
       <c r="AT58" s="38"/>
     </row>
-    <row r="59" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="123"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
+    <row r="59" spans="1:46" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
       <c r="M59" s="38"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
       <c r="AQ59" s="38"/>
       <c r="AR59" s="38"/>
       <c r="AS59" s="38"/>
       <c r="AT59" s="38"/>
     </row>
-    <row r="60" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
+    <row r="60" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57"/>
       <c r="B60" s="49">
         <v>1</v>
       </c>
-      <c r="C60" s="166" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="166"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="158" t="s">
+      <c r="C60" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="170"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
       <c r="M60" s="38"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
       <c r="AQ60" s="38"/>
       <c r="AR60" s="38"/>
       <c r="AS60" s="38"/>
       <c r="AT60" s="38"/>
     </row>
-    <row r="61" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
+    <row r="61" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
       <c r="B61" s="49">
         <v>2</v>
       </c>
-      <c r="C61" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="166"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166"/>
-      <c r="G61" s="158"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
+      <c r="C61" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="170"/>
+      <c r="E61" s="170"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
       <c r="M61" s="38"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
       <c r="AQ61" s="38"/>
       <c r="AR61" s="38"/>
       <c r="AS61" s="38"/>
       <c r="AT61" s="38"/>
     </row>
-    <row r="62" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="59"/>
+    <row r="62" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="57"/>
       <c r="B62" s="49">
         <v>3</v>
       </c>
-      <c r="C62" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="166"/>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="158"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
+      <c r="C62" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="170"/>
+      <c r="E62" s="170"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
       <c r="M62" s="38"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
       <c r="AQ62" s="38"/>
       <c r="AR62" s="38"/>
       <c r="AS62" s="38"/>
       <c r="AT62" s="38"/>
     </row>
-    <row r="63" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
+    <row r="63" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
       <c r="B63" s="49">
         <v>4</v>
       </c>
-      <c r="C63" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="166"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
+      <c r="C63" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="170"/>
+      <c r="E63" s="170"/>
+      <c r="F63" s="170"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
       <c r="M63" s="38"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
       <c r="AQ63" s="38"/>
       <c r="AR63" s="38"/>
       <c r="AS63" s="38"/>
       <c r="AT63" s="38"/>
     </row>
-    <row r="64" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
+    <row r="64" spans="1:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="57"/>
       <c r="B64" s="49">
         <v>5</v>
       </c>
-      <c r="C64" s="166" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="166"/>
-      <c r="E64" s="166"/>
-      <c r="F64" s="166"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
+      <c r="C64" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="170"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
       <c r="M64" s="38"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
       <c r="AQ64" s="38"/>
       <c r="AR64" s="38"/>
       <c r="AS64" s="38"/>
       <c r="AT64" s="38"/>
     </row>
-    <row r="65" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="124"/>
+    <row r="65" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="107"/>
       <c r="B65" s="49">
         <v>6</v>
       </c>
-      <c r="C65" s="166" t="s">
+      <c r="C65" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="166"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166"/>
-      <c r="G65" s="159"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="142"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
     </row>
-    <row r="66" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="124"/>
+    <row r="66" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="107"/>
       <c r="B66" s="49">
         <v>7</v>
       </c>
-      <c r="C66" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="166"/>
-      <c r="E66" s="166"/>
-      <c r="F66" s="166"/>
-      <c r="G66" s="159"/>
+      <c r="C66" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="170"/>
+      <c r="E66" s="170"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="142"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
     </row>
-    <row r="67" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="124"/>
+    <row r="67" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="107"/>
       <c r="B67" s="49">
         <v>8</v>
       </c>
-      <c r="C67" s="166" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="166"/>
-      <c r="E67" s="166"/>
-      <c r="F67" s="166"/>
-      <c r="G67" s="159"/>
+      <c r="C67" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="170"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="142"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
     </row>
-    <row r="68" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="125"/>
+    <row r="68" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="108"/>
       <c r="B68" s="49">
         <v>9</v>
       </c>
-      <c r="C68" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="166"/>
-      <c r="E68" s="166"/>
-      <c r="F68" s="166"/>
-      <c r="G68" s="160"/>
-    </row>
-    <row r="69" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="125"/>
+      <c r="C68" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="170"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="143"/>
+    </row>
+    <row r="69" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="108"/>
       <c r="B69" s="49">
         <v>10</v>
       </c>
-      <c r="C69" s="166" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="166"/>
-      <c r="E69" s="166"/>
-      <c r="F69" s="166"/>
-      <c r="G69" s="160"/>
-    </row>
-    <row r="70" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="125"/>
+      <c r="C69" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="170"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="143"/>
+    </row>
+    <row r="70" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="108"/>
       <c r="B70" s="49">
         <v>11</v>
       </c>
-      <c r="C70" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="166"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="166"/>
-      <c r="G70" s="160"/>
-    </row>
-    <row r="71" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="125"/>
+      <c r="C70" s="170" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="170"/>
+      <c r="E70" s="170"/>
+      <c r="F70" s="170"/>
+      <c r="G70" s="143"/>
+    </row>
+    <row r="71" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="108"/>
       <c r="B71" s="49">
         <v>12</v>
       </c>
-      <c r="C71" s="166" t="s">
+      <c r="C71" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="170"/>
+      <c r="E71" s="170"/>
+      <c r="F71" s="170"/>
+      <c r="G71" s="142" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="166"/>
-      <c r="E71" s="166"/>
-      <c r="F71" s="166"/>
-      <c r="G71" s="159" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
+      <c r="C73" s="109"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="126"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="130" t="s">
+      <c r="H73" s="109"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="109"/>
+      <c r="L73" s="109"/>
+      <c r="M73" s="109"/>
+      <c r="N73" s="109"/>
+      <c r="O73" s="109"/>
+      <c r="P73" s="109"/>
+      <c r="Q73" s="109"/>
+      <c r="R73" s="23"/>
+    </row>
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="126"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="126"/>
-      <c r="N73" s="126"/>
-      <c r="O73" s="126"/>
-      <c r="P73" s="126"/>
-      <c r="Q73" s="126"/>
-      <c r="R73" s="23"/>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
-      <c r="F74" s="125"/>
+      <c r="F74" s="108"/>
       <c r="G74" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
@@ -13007,64 +13110,68 @@
       <c r="Q74" s="23"/>
       <c r="R74" s="23"/>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G79" s="22" t="s">
+    </row>
+    <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
+      <c r="G80" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G80" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="81" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="33">
-    <mergeCell ref="C34:D34"/>
+  <mergeCells count="37">
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A50:J50"/>
     <mergeCell ref="A17:C19"/>
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A53:C53"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C61:F61"/>
-    <mergeCell ref="A55:C55"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:I55"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C66:F66"/>
